--- a/conductor_Covid.xlsx
+++ b/conductor_Covid.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2145" windowHeight="1170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2145" windowHeight="1245"/>
   </bookViews>
   <sheets>
     <sheet name="taulavariables" sheetId="8" r:id="rId1"/>
@@ -16,9 +16,9 @@
     <sheet name="COMBI_FARMACOS" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">taulavariables!$A$1:$AQ$429</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">taulavariables!$A$1:$AS$429</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -3830,7 +3830,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -6514,21 +6514,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:VV430"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR6" sqref="AR6"/>
+      <selection pane="bottomRight" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6903,7 +6904,7 @@
       <c r="AR3" s="580"/>
       <c r="AS3" s="580"/>
     </row>
-    <row r="4" spans="1:45" ht="15" customHeight="1">
+    <row r="4" spans="1:45" ht="15" hidden="1" customHeight="1">
       <c r="A4" s="269" t="s">
         <v>1179</v>
       </c>
@@ -6962,7 +6963,7 @@
       <c r="AR4" s="252"/>
       <c r="AS4" s="252"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickBot="1">
+    <row r="5" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A5" s="184" t="s">
         <v>12</v>
       </c>
@@ -7027,7 +7028,7 @@
       <c r="AR5" s="253"/>
       <c r="AS5" s="253"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickBot="1">
+    <row r="6" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A6" s="185" t="s">
         <v>13</v>
       </c>
@@ -7092,7 +7093,7 @@
       <c r="AR6" s="253"/>
       <c r="AS6" s="253"/>
     </row>
-    <row r="7" spans="1:45" ht="15.75">
+    <row r="7" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A7" s="182" t="s">
         <v>14</v>
       </c>
@@ -7157,7 +7158,7 @@
       <c r="AR7" s="253"/>
       <c r="AS7" s="253"/>
     </row>
-    <row r="8" spans="1:45" ht="15.75">
+    <row r="8" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A8" s="183" t="s">
         <v>15</v>
       </c>
@@ -7222,7 +7223,7 @@
       <c r="AR8" s="253"/>
       <c r="AS8" s="253"/>
     </row>
-    <row r="9" spans="1:45" ht="15.75">
+    <row r="9" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A9" s="183" t="s">
         <v>16</v>
       </c>
@@ -7287,7 +7288,7 @@
       <c r="AR9" s="253"/>
       <c r="AS9" s="253"/>
     </row>
-    <row r="10" spans="1:45" ht="15.75">
+    <row r="10" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A10" s="183" t="s">
         <v>17</v>
       </c>
@@ -7352,7 +7353,7 @@
       <c r="AR10" s="253"/>
       <c r="AS10" s="253"/>
     </row>
-    <row r="11" spans="1:45" ht="15.75">
+    <row r="11" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A11" s="183" t="s">
         <v>18</v>
       </c>
@@ -7419,7 +7420,7 @@
       <c r="AR11" s="253"/>
       <c r="AS11" s="253"/>
     </row>
-    <row r="12" spans="1:45" ht="15.75">
+    <row r="12" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A12" s="183" t="s">
         <v>19</v>
       </c>
@@ -7484,7 +7485,7 @@
       <c r="AR12" s="253"/>
       <c r="AS12" s="253"/>
     </row>
-    <row r="13" spans="1:45" ht="15.75">
+    <row r="13" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A13" s="183" t="s">
         <v>20</v>
       </c>
@@ -7545,7 +7546,7 @@
       <c r="AR13" s="253"/>
       <c r="AS13" s="253"/>
     </row>
-    <row r="14" spans="1:45" ht="15.75">
+    <row r="14" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A14" s="183" t="s">
         <v>21</v>
       </c>
@@ -7608,7 +7609,7 @@
       <c r="AR14" s="253"/>
       <c r="AS14" s="253"/>
     </row>
-    <row r="15" spans="1:45" ht="15.75">
+    <row r="15" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A15" s="183" t="s">
         <v>22</v>
       </c>
@@ -7671,7 +7672,7 @@
       <c r="AR15" s="253"/>
       <c r="AS15" s="253"/>
     </row>
-    <row r="16" spans="1:45" ht="15.75">
+    <row r="16" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A16" s="183" t="s">
         <v>23</v>
       </c>
@@ -7734,7 +7735,7 @@
       <c r="AR16" s="253"/>
       <c r="AS16" s="253"/>
     </row>
-    <row r="17" spans="1:45" ht="15.75">
+    <row r="17" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A17" s="183" t="s">
         <v>24</v>
       </c>
@@ -7795,7 +7796,7 @@
       <c r="AR17" s="253"/>
       <c r="AS17" s="253"/>
     </row>
-    <row r="18" spans="1:45" ht="15.75">
+    <row r="18" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A18" s="183" t="s">
         <v>25</v>
       </c>
@@ -7858,7 +7859,7 @@
       <c r="AR18" s="253"/>
       <c r="AS18" s="253"/>
     </row>
-    <row r="19" spans="1:45" ht="15.75">
+    <row r="19" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A19" s="183" t="s">
         <v>26</v>
       </c>
@@ -7921,7 +7922,7 @@
       <c r="AR19" s="253"/>
       <c r="AS19" s="253"/>
     </row>
-    <row r="20" spans="1:45" ht="15.75">
+    <row r="20" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A20" s="183" t="s">
         <v>27</v>
       </c>
@@ -7984,7 +7985,7 @@
       <c r="AR20" s="253"/>
       <c r="AS20" s="253"/>
     </row>
-    <row r="21" spans="1:45" ht="15.75">
+    <row r="21" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A21" s="183" t="s">
         <v>28</v>
       </c>
@@ -8047,7 +8048,7 @@
       <c r="AR21" s="253"/>
       <c r="AS21" s="253"/>
     </row>
-    <row r="22" spans="1:45" ht="15.75">
+    <row r="22" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A22" s="183" t="s">
         <v>29</v>
       </c>
@@ -8110,7 +8111,7 @@
       <c r="AR22" s="253"/>
       <c r="AS22" s="253"/>
     </row>
-    <row r="23" spans="1:45" ht="15.75">
+    <row r="23" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A23" s="183" t="s">
         <v>30</v>
       </c>
@@ -8173,7 +8174,7 @@
       <c r="AR23" s="253"/>
       <c r="AS23" s="253"/>
     </row>
-    <row r="24" spans="1:45" ht="15.75">
+    <row r="24" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A24" s="183" t="s">
         <v>31</v>
       </c>
@@ -8234,7 +8235,7 @@
       <c r="AR24" s="253"/>
       <c r="AS24" s="253"/>
     </row>
-    <row r="25" spans="1:45" ht="15.75">
+    <row r="25" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A25" s="183" t="s">
         <v>32</v>
       </c>
@@ -8297,7 +8298,7 @@
       <c r="AR25" s="253"/>
       <c r="AS25" s="253"/>
     </row>
-    <row r="26" spans="1:45" ht="15.75">
+    <row r="26" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A26" s="183" t="s">
         <v>33</v>
       </c>
@@ -8360,7 +8361,7 @@
       <c r="AR26" s="253"/>
       <c r="AS26" s="253"/>
     </row>
-    <row r="27" spans="1:45" ht="15.75">
+    <row r="27" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A27" s="183" t="s">
         <v>34</v>
       </c>
@@ -8423,7 +8424,7 @@
       <c r="AR27" s="253"/>
       <c r="AS27" s="253"/>
     </row>
-    <row r="28" spans="1:45" ht="15.75">
+    <row r="28" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A28" s="183" t="s">
         <v>35</v>
       </c>
@@ -8486,7 +8487,7 @@
       <c r="AR28" s="253"/>
       <c r="AS28" s="253"/>
     </row>
-    <row r="29" spans="1:45" ht="15.75">
+    <row r="29" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A29" s="183" t="s">
         <v>36</v>
       </c>
@@ -8549,7 +8550,7 @@
       <c r="AR29" s="253"/>
       <c r="AS29" s="253"/>
     </row>
-    <row r="30" spans="1:45" ht="15.75">
+    <row r="30" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A30" s="183" t="s">
         <v>37</v>
       </c>
@@ -8612,7 +8613,7 @@
       <c r="AR30" s="253"/>
       <c r="AS30" s="253"/>
     </row>
-    <row r="31" spans="1:45" ht="15.75">
+    <row r="31" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A31" s="183" t="s">
         <v>70</v>
       </c>
@@ -8669,7 +8670,7 @@
       <c r="AR31" s="253"/>
       <c r="AS31" s="253"/>
     </row>
-    <row r="32" spans="1:45" ht="15.75">
+    <row r="32" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A32" s="183" t="s">
         <v>71</v>
       </c>
@@ -8726,7 +8727,7 @@
       <c r="AR32" s="253"/>
       <c r="AS32" s="253"/>
     </row>
-    <row r="33" spans="1:594" ht="15.75">
+    <row r="33" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A33" s="183" t="s">
         <v>72</v>
       </c>
@@ -8783,7 +8784,7 @@
       <c r="AR33" s="253"/>
       <c r="AS33" s="253"/>
     </row>
-    <row r="34" spans="1:594" ht="15.75">
+    <row r="34" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A34" s="183" t="s">
         <v>73</v>
       </c>
@@ -8840,7 +8841,7 @@
       <c r="AR34" s="253"/>
       <c r="AS34" s="253"/>
     </row>
-    <row r="35" spans="1:594" ht="15.75">
+    <row r="35" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A35" s="183" t="s">
         <v>74</v>
       </c>
@@ -8897,7 +8898,7 @@
       <c r="AR35" s="253"/>
       <c r="AS35" s="253"/>
     </row>
-    <row r="36" spans="1:594" ht="15.75">
+    <row r="36" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A36" s="183" t="s">
         <v>75</v>
       </c>
@@ -8954,7 +8955,7 @@
       <c r="AR36" s="253"/>
       <c r="AS36" s="253"/>
     </row>
-    <row r="37" spans="1:594" ht="15.75">
+    <row r="37" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A37" s="183" t="s">
         <v>76</v>
       </c>
@@ -9011,7 +9012,7 @@
       <c r="AR37" s="253"/>
       <c r="AS37" s="253"/>
     </row>
-    <row r="38" spans="1:594" ht="16.5" thickBot="1">
+    <row r="38" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A38" s="183" t="s">
         <v>77</v>
       </c>
@@ -9068,7 +9069,7 @@
       <c r="AR38" s="253"/>
       <c r="AS38" s="253"/>
     </row>
-    <row r="39" spans="1:594" s="59" customFormat="1" ht="15.75">
+    <row r="39" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A39" s="186" t="s">
         <v>1082</v>
       </c>
@@ -9679,7 +9680,7 @@
       <c r="VU39" s="53"/>
       <c r="VV39" s="53"/>
     </row>
-    <row r="40" spans="1:594" s="59" customFormat="1" ht="15.75">
+    <row r="40" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A40" s="186" t="s">
         <v>1083</v>
       </c>
@@ -10290,7 +10291,7 @@
       <c r="VU40" s="53"/>
       <c r="VV40" s="53"/>
     </row>
-    <row r="41" spans="1:594" s="59" customFormat="1" ht="15.75">
+    <row r="41" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A41" s="186" t="s">
         <v>1084</v>
       </c>
@@ -10901,7 +10902,7 @@
       <c r="VU41" s="53"/>
       <c r="VV41" s="53"/>
     </row>
-    <row r="42" spans="1:594" s="59" customFormat="1" ht="15.75">
+    <row r="42" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A42" s="186" t="s">
         <v>1085</v>
       </c>
@@ -11512,7 +11513,7 @@
       <c r="VU42" s="53"/>
       <c r="VV42" s="53"/>
     </row>
-    <row r="43" spans="1:594" s="59" customFormat="1" ht="15.75">
+    <row r="43" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A43" s="186" t="s">
         <v>1086</v>
       </c>
@@ -12123,7 +12124,7 @@
       <c r="VU43" s="53"/>
       <c r="VV43" s="53"/>
     </row>
-    <row r="44" spans="1:594" s="59" customFormat="1" ht="15.75">
+    <row r="44" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A44" s="186" t="s">
         <v>1087</v>
       </c>
@@ -12734,7 +12735,7 @@
       <c r="VU44" s="53"/>
       <c r="VV44" s="53"/>
     </row>
-    <row r="45" spans="1:594" s="59" customFormat="1" ht="15.75">
+    <row r="45" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A45" s="186" t="s">
         <v>1088</v>
       </c>
@@ -13345,7 +13346,7 @@
       <c r="VU45" s="53"/>
       <c r="VV45" s="53"/>
     </row>
-    <row r="46" spans="1:594" s="59" customFormat="1" ht="15.75">
+    <row r="46" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A46" s="186" t="s">
         <v>1089</v>
       </c>
@@ -13956,7 +13957,7 @@
       <c r="VU46" s="53"/>
       <c r="VV46" s="53"/>
     </row>
-    <row r="47" spans="1:594" s="59" customFormat="1" ht="15.75">
+    <row r="47" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A47" s="186" t="s">
         <v>1090</v>
       </c>
@@ -14567,7 +14568,7 @@
       <c r="VU47" s="53"/>
       <c r="VV47" s="53"/>
     </row>
-    <row r="48" spans="1:594" s="59" customFormat="1" ht="15.75">
+    <row r="48" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A48" s="186" t="s">
         <v>1091</v>
       </c>
@@ -15178,7 +15179,7 @@
       <c r="VU48" s="53"/>
       <c r="VV48" s="53"/>
     </row>
-    <row r="49" spans="1:594" s="59" customFormat="1" ht="15.75">
+    <row r="49" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A49" s="186" t="s">
         <v>1092</v>
       </c>
@@ -15789,7 +15790,7 @@
       <c r="VU49" s="53"/>
       <c r="VV49" s="53"/>
     </row>
-    <row r="50" spans="1:594" s="59" customFormat="1" ht="15.75">
+    <row r="50" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A50" s="186" t="s">
         <v>1093</v>
       </c>
@@ -16400,7 +16401,7 @@
       <c r="VU50" s="53"/>
       <c r="VV50" s="53"/>
     </row>
-    <row r="51" spans="1:594" s="59" customFormat="1" ht="15.75">
+    <row r="51" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A51" s="186" t="s">
         <v>1202</v>
       </c>
@@ -17009,7 +17010,7 @@
       <c r="VU51" s="53"/>
       <c r="VV51" s="53"/>
     </row>
-    <row r="52" spans="1:594" s="59" customFormat="1" ht="15.75" customHeight="1">
+    <row r="52" spans="1:594" s="59" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A52" s="186" t="s">
         <v>1094</v>
       </c>
@@ -17620,7 +17621,7 @@
       <c r="VU52" s="53"/>
       <c r="VV52" s="53"/>
     </row>
-    <row r="53" spans="1:594" s="59" customFormat="1" ht="15.75" customHeight="1">
+    <row r="53" spans="1:594" s="59" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A53" s="186" t="s">
         <v>1095</v>
       </c>
@@ -18231,7 +18232,7 @@
       <c r="VU53" s="53"/>
       <c r="VV53" s="53"/>
     </row>
-    <row r="54" spans="1:594" s="59" customFormat="1" ht="15.75" customHeight="1">
+    <row r="54" spans="1:594" s="59" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A54" s="186" t="s">
         <v>1096</v>
       </c>
@@ -18842,7 +18843,7 @@
       <c r="VU54" s="53"/>
       <c r="VV54" s="53"/>
     </row>
-    <row r="55" spans="1:594" s="59" customFormat="1" ht="15.6" customHeight="1">
+    <row r="55" spans="1:594" s="59" customFormat="1" ht="15.6" hidden="1" customHeight="1">
       <c r="A55" s="186" t="s">
         <v>1097</v>
       </c>
@@ -19453,7 +19454,7 @@
       <c r="VU55" s="53"/>
       <c r="VV55" s="53"/>
     </row>
-    <row r="56" spans="1:594" s="59" customFormat="1" ht="15.6" customHeight="1">
+    <row r="56" spans="1:594" s="59" customFormat="1" ht="15.6" hidden="1" customHeight="1">
       <c r="A56" s="186" t="s">
         <v>1098</v>
       </c>
@@ -20064,7 +20065,7 @@
       <c r="VU56" s="53"/>
       <c r="VV56" s="53"/>
     </row>
-    <row r="57" spans="1:594" s="59" customFormat="1" ht="15.6" customHeight="1">
+    <row r="57" spans="1:594" s="59" customFormat="1" ht="15.6" hidden="1" customHeight="1">
       <c r="A57" s="186" t="s">
         <v>1099</v>
       </c>
@@ -20675,7 +20676,7 @@
       <c r="VU57" s="53"/>
       <c r="VV57" s="53"/>
     </row>
-    <row r="58" spans="1:594" s="59" customFormat="1" ht="15.6" customHeight="1">
+    <row r="58" spans="1:594" s="59" customFormat="1" ht="15.6" hidden="1" customHeight="1">
       <c r="A58" s="186" t="s">
         <v>1100</v>
       </c>
@@ -21286,7 +21287,7 @@
       <c r="VU58" s="53"/>
       <c r="VV58" s="53"/>
     </row>
-    <row r="59" spans="1:594" s="59" customFormat="1" ht="18.95" customHeight="1">
+    <row r="59" spans="1:594" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1">
       <c r="A59" s="186" t="s">
         <v>1101</v>
       </c>
@@ -21897,7 +21898,7 @@
       <c r="VU59" s="53"/>
       <c r="VV59" s="53"/>
     </row>
-    <row r="60" spans="1:594" s="59" customFormat="1" ht="18.95" customHeight="1">
+    <row r="60" spans="1:594" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1">
       <c r="A60" s="186" t="s">
         <v>1177</v>
       </c>
@@ -22508,7 +22509,7 @@
       <c r="VU60" s="53"/>
       <c r="VV60" s="53"/>
     </row>
-    <row r="61" spans="1:594" s="59" customFormat="1" ht="18.95" customHeight="1">
+    <row r="61" spans="1:594" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1">
       <c r="A61" s="348" t="s">
         <v>1193</v>
       </c>
@@ -23118,7 +23119,7 @@
       <c r="VU61" s="53"/>
       <c r="VV61" s="53"/>
     </row>
-    <row r="62" spans="1:594" s="59" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
+    <row r="62" spans="1:594" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1" thickBot="1">
       <c r="A62" s="348" t="s">
         <v>1207</v>
       </c>
@@ -24960,7 +24961,7 @@
       <c r="VU64" s="53"/>
       <c r="VV64" s="53"/>
     </row>
-    <row r="65" spans="1:594" s="59" customFormat="1" ht="18.95" customHeight="1">
+    <row r="65" spans="1:594" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1">
       <c r="A65" s="525" t="s">
         <v>1226</v>
       </c>
@@ -25572,7 +25573,7 @@
       <c r="VU65" s="53"/>
       <c r="VV65" s="53"/>
     </row>
-    <row r="66" spans="1:594" s="59" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
+    <row r="66" spans="1:594" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1" thickBot="1">
       <c r="A66" s="536" t="s">
         <v>1227</v>
       </c>
@@ -26188,7 +26189,7 @@
       <c r="VU66" s="53"/>
       <c r="VV66" s="53"/>
     </row>
-    <row r="67" spans="1:594" ht="15.75">
+    <row r="67" spans="1:594" ht="15.75" hidden="1">
       <c r="A67" s="194" t="s">
         <v>103</v>
       </c>
@@ -26249,7 +26250,7 @@
       <c r="AR67" s="266"/>
       <c r="AS67" s="266"/>
     </row>
-    <row r="68" spans="1:594" ht="15.75">
+    <row r="68" spans="1:594" ht="15.75" hidden="1">
       <c r="A68" s="187" t="s">
         <v>104</v>
       </c>
@@ -26295,7 +26296,7 @@
       <c r="AR68" s="79"/>
       <c r="AS68" s="79"/>
     </row>
-    <row r="69" spans="1:594" ht="15.75">
+    <row r="69" spans="1:594" ht="15.75" hidden="1">
       <c r="A69" s="187" t="s">
         <v>105</v>
       </c>
@@ -26346,7 +26347,7 @@
       <c r="AR69" s="79"/>
       <c r="AS69" s="79"/>
     </row>
-    <row r="70" spans="1:594" ht="15.75">
+    <row r="70" spans="1:594" ht="15.75" hidden="1">
       <c r="A70" s="187" t="s">
         <v>106</v>
       </c>
@@ -26397,7 +26398,7 @@
       <c r="AR70" s="79"/>
       <c r="AS70" s="79"/>
     </row>
-    <row r="71" spans="1:594" ht="15.75">
+    <row r="71" spans="1:594" ht="15.75" hidden="1">
       <c r="A71" s="187" t="s">
         <v>107</v>
       </c>
@@ -26448,7 +26449,7 @@
       <c r="AR71" s="79"/>
       <c r="AS71" s="79"/>
     </row>
-    <row r="72" spans="1:594" ht="15.75">
+    <row r="72" spans="1:594" ht="15.75" hidden="1">
       <c r="A72" s="187" t="s">
         <v>108</v>
       </c>
@@ -26499,7 +26500,7 @@
       <c r="AR72" s="79"/>
       <c r="AS72" s="79"/>
     </row>
-    <row r="73" spans="1:594" ht="15.75">
+    <row r="73" spans="1:594" ht="15.75" hidden="1">
       <c r="A73" s="187" t="s">
         <v>109</v>
       </c>
@@ -26550,7 +26551,7 @@
       <c r="AR73" s="79"/>
       <c r="AS73" s="79"/>
     </row>
-    <row r="74" spans="1:594" ht="15.75">
+    <row r="74" spans="1:594" ht="15.75" hidden="1">
       <c r="A74" s="187" t="s">
         <v>110</v>
       </c>
@@ -26601,7 +26602,7 @@
       <c r="AR74" s="79"/>
       <c r="AS74" s="79"/>
     </row>
-    <row r="75" spans="1:594" ht="15.75">
+    <row r="75" spans="1:594" ht="15.75" hidden="1">
       <c r="A75" s="187" t="s">
         <v>111</v>
       </c>
@@ -26647,7 +26648,7 @@
       <c r="AR75" s="79"/>
       <c r="AS75" s="79"/>
     </row>
-    <row r="76" spans="1:594" ht="15.75">
+    <row r="76" spans="1:594" ht="15.75" hidden="1">
       <c r="A76" s="187" t="s">
         <v>112</v>
       </c>
@@ -26698,7 +26699,7 @@
       <c r="AR76" s="79"/>
       <c r="AS76" s="79"/>
     </row>
-    <row r="77" spans="1:594" ht="15.75">
+    <row r="77" spans="1:594" ht="15.75" hidden="1">
       <c r="A77" s="187" t="s">
         <v>113</v>
       </c>
@@ -26744,7 +26745,7 @@
       <c r="AR77" s="79"/>
       <c r="AS77" s="79"/>
     </row>
-    <row r="78" spans="1:594" ht="15.75">
+    <row r="78" spans="1:594" ht="15.75" hidden="1">
       <c r="A78" s="187" t="s">
         <v>114</v>
       </c>
@@ -26795,7 +26796,7 @@
       <c r="AR78" s="79"/>
       <c r="AS78" s="79"/>
     </row>
-    <row r="79" spans="1:594" ht="15.75">
+    <row r="79" spans="1:594" ht="15.75" hidden="1">
       <c r="A79" s="187" t="s">
         <v>115</v>
       </c>
@@ -26841,7 +26842,7 @@
       <c r="AR79" s="79"/>
       <c r="AS79" s="79"/>
     </row>
-    <row r="80" spans="1:594" ht="16.5" thickBot="1">
+    <row r="80" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A80" s="201" t="s">
         <v>116</v>
       </c>
@@ -27609,7 +27610,7 @@
       <c r="VU82" s="53"/>
       <c r="VV82" s="53"/>
     </row>
-    <row r="83" spans="1:594" s="57" customFormat="1" ht="15.75">
+    <row r="83" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A83" s="179" t="s">
         <v>1117</v>
       </c>
@@ -28237,7 +28238,7 @@
       <c r="VU83" s="53"/>
       <c r="VV83" s="53"/>
     </row>
-    <row r="84" spans="1:594" s="57" customFormat="1" ht="15.75">
+    <row r="84" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A84" s="180" t="s">
         <v>1119</v>
       </c>
@@ -28865,7 +28866,7 @@
       <c r="VU84" s="53"/>
       <c r="VV84" s="53"/>
     </row>
-    <row r="85" spans="1:594" s="57" customFormat="1" ht="15.75">
+    <row r="85" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A85" s="180" t="s">
         <v>1121</v>
       </c>
@@ -29489,7 +29490,7 @@
       <c r="VU85" s="53"/>
       <c r="VV85" s="53"/>
     </row>
-    <row r="86" spans="1:594" s="57" customFormat="1" ht="15.75">
+    <row r="86" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A86" s="180" t="s">
         <v>136</v>
       </c>
@@ -30103,7 +30104,7 @@
       <c r="VU86" s="53"/>
       <c r="VV86" s="53"/>
     </row>
-    <row r="87" spans="1:594" s="57" customFormat="1" ht="15.75">
+    <row r="87" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A87" s="180" t="s">
         <v>137</v>
       </c>
@@ -30717,7 +30718,7 @@
       <c r="VU87" s="53"/>
       <c r="VV87" s="53"/>
     </row>
-    <row r="88" spans="1:594" s="57" customFormat="1" ht="15.75">
+    <row r="88" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A88" s="180" t="s">
         <v>138</v>
       </c>
@@ -31329,7 +31330,7 @@
       <c r="VU88" s="53"/>
       <c r="VV88" s="53"/>
     </row>
-    <row r="89" spans="1:594" s="57" customFormat="1" ht="15.75">
+    <row r="89" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A89" s="180" t="s">
         <v>1123</v>
       </c>
@@ -31953,7 +31954,7 @@
       <c r="VU89" s="53"/>
       <c r="VV89" s="53"/>
     </row>
-    <row r="90" spans="1:594" s="61" customFormat="1" ht="15.75">
+    <row r="90" spans="1:594" s="61" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A90" s="180" t="s">
         <v>139</v>
       </c>
@@ -32567,7 +32568,7 @@
       <c r="VU90" s="53"/>
       <c r="VV90" s="53"/>
     </row>
-    <row r="91" spans="1:594" s="57" customFormat="1" ht="15.75">
+    <row r="91" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A91" s="180" t="s">
         <v>140</v>
       </c>
@@ -33191,7 +33192,7 @@
       <c r="VU91" s="53"/>
       <c r="VV91" s="53"/>
     </row>
-    <row r="92" spans="1:594" s="57" customFormat="1" ht="15.75">
+    <row r="92" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A92" s="180" t="s">
         <v>155</v>
       </c>
@@ -33813,7 +33814,7 @@
       <c r="VU92" s="53"/>
       <c r="VV92" s="53"/>
     </row>
-    <row r="93" spans="1:594" s="57" customFormat="1" ht="15.75">
+    <row r="93" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A93" s="180" t="s">
         <v>1130</v>
       </c>
@@ -34427,7 +34428,7 @@
       <c r="VU93" s="53"/>
       <c r="VV93" s="53"/>
     </row>
-    <row r="94" spans="1:594" s="57" customFormat="1" ht="15.75">
+    <row r="94" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A94" s="180" t="s">
         <v>1125</v>
       </c>
@@ -35041,7 +35042,7 @@
       <c r="VU94" s="53"/>
       <c r="VV94" s="53"/>
     </row>
-    <row r="95" spans="1:594" s="57" customFormat="1" ht="15.75">
+    <row r="95" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A95" s="180" t="s">
         <v>1126</v>
       </c>
@@ -35655,7 +35656,7 @@
       <c r="VU95" s="53"/>
       <c r="VV95" s="53"/>
     </row>
-    <row r="96" spans="1:594" s="57" customFormat="1" ht="15.75">
+    <row r="96" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A96" s="202" t="s">
         <v>1137</v>
       </c>
@@ -36269,7 +36270,7 @@
       <c r="VU96" s="53"/>
       <c r="VV96" s="53"/>
     </row>
-    <row r="97" spans="1:594" s="57" customFormat="1" ht="16.5" thickBot="1">
+    <row r="97" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A97" s="181" t="s">
         <v>1133</v>
       </c>
@@ -36877,7 +36878,7 @@
       <c r="VU97" s="53"/>
       <c r="VV97" s="53"/>
     </row>
-    <row r="98" spans="1:594" s="57" customFormat="1" ht="15.75">
+    <row r="98" spans="1:594" s="57" customFormat="1" ht="16.5" thickBot="1">
       <c r="A98" s="202" t="s">
         <v>1184</v>
       </c>
@@ -37507,7 +37508,7 @@
       <c r="VU98" s="53"/>
       <c r="VV98" s="53"/>
     </row>
-    <row r="99" spans="1:594" s="57" customFormat="1" ht="16.5" thickBot="1">
+    <row r="99" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A99" s="181" t="s">
         <v>1185</v>
       </c>
@@ -38133,7 +38134,7 @@
       <c r="VU99" s="53"/>
       <c r="VV99" s="53"/>
     </row>
-    <row r="100" spans="1:594" s="57" customFormat="1" ht="15.75">
+    <row r="100" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A100" s="180" t="s">
         <v>1190</v>
       </c>
@@ -38749,7 +38750,7 @@
       <c r="VU100" s="53"/>
       <c r="VV100" s="53"/>
     </row>
-    <row r="101" spans="1:594" s="57" customFormat="1" ht="16.5" thickBot="1">
+    <row r="101" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A101" s="202" t="s">
         <v>1191</v>
       </c>
@@ -39365,7 +39366,7 @@
       <c r="VU101" s="53"/>
       <c r="VV101" s="53"/>
     </row>
-    <row r="102" spans="1:594" ht="15.75">
+    <row r="102" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A102" s="373" t="s">
         <v>122</v>
       </c>
@@ -39426,7 +39427,7 @@
       <c r="AR102" s="376"/>
       <c r="AS102" s="376"/>
     </row>
-    <row r="103" spans="1:594" ht="15.75">
+    <row r="103" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A103" s="200" t="s">
         <v>123</v>
       </c>
@@ -39487,7 +39488,7 @@
       <c r="AR103" s="378"/>
       <c r="AS103" s="378"/>
     </row>
-    <row r="104" spans="1:594" ht="15.75">
+    <row r="104" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A104" s="200" t="s">
         <v>124</v>
       </c>
@@ -39548,7 +39549,7 @@
       <c r="AR104" s="378"/>
       <c r="AS104" s="378"/>
     </row>
-    <row r="105" spans="1:594" ht="15.75">
+    <row r="105" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A105" s="200" t="s">
         <v>125</v>
       </c>
@@ -39609,7 +39610,7 @@
       <c r="AR105" s="378"/>
       <c r="AS105" s="378"/>
     </row>
-    <row r="106" spans="1:594" ht="16.5" thickBot="1">
+    <row r="106" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A106" s="379" t="s">
         <v>1204</v>
       </c>
@@ -39668,7 +39669,7 @@
       <c r="AR106" s="382"/>
       <c r="AS106" s="382"/>
     </row>
-    <row r="107" spans="1:594" ht="15.75">
+    <row r="107" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A107" s="188" t="s">
         <v>934</v>
       </c>
@@ -39723,7 +39724,7 @@
       <c r="AR107" s="258"/>
       <c r="AS107" s="258"/>
     </row>
-    <row r="108" spans="1:594" ht="15.75">
+    <row r="108" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A108" s="189" t="s">
         <v>935</v>
       </c>
@@ -39778,7 +39779,7 @@
       <c r="AR108" s="259"/>
       <c r="AS108" s="259"/>
     </row>
-    <row r="109" spans="1:594" ht="15.75">
+    <row r="109" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A109" s="189" t="s">
         <v>950</v>
       </c>
@@ -39839,7 +39840,7 @@
       <c r="AR109" s="259"/>
       <c r="AS109" s="259"/>
     </row>
-    <row r="110" spans="1:594" ht="15.75">
+    <row r="110" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A110" s="189" t="s">
         <v>936</v>
       </c>
@@ -39900,7 +39901,7 @@
       <c r="AR110" s="259"/>
       <c r="AS110" s="259"/>
     </row>
-    <row r="111" spans="1:594" ht="15.75">
+    <row r="111" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A111" s="189" t="s">
         <v>937</v>
       </c>
@@ -39961,7 +39962,7 @@
       <c r="AR111" s="259"/>
       <c r="AS111" s="259"/>
     </row>
-    <row r="112" spans="1:594" ht="16.5" thickBot="1">
+    <row r="112" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A112" s="190" t="s">
         <v>951</v>
       </c>
@@ -40022,7 +40023,7 @@
       <c r="AR112" s="260"/>
       <c r="AS112" s="260"/>
     </row>
-    <row r="113" spans="1:45" ht="15.75">
+    <row r="113" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A113" s="188" t="s">
         <v>938</v>
       </c>
@@ -40077,7 +40078,7 @@
       <c r="AR113" s="258"/>
       <c r="AS113" s="258"/>
     </row>
-    <row r="114" spans="1:45" ht="15.75">
+    <row r="114" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A114" s="189" t="s">
         <v>939</v>
       </c>
@@ -40136,7 +40137,7 @@
       <c r="AR114" s="259"/>
       <c r="AS114" s="259"/>
     </row>
-    <row r="115" spans="1:45" ht="15.75">
+    <row r="115" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A115" s="189" t="s">
         <v>952</v>
       </c>
@@ -40197,7 +40198,7 @@
       <c r="AR115" s="259"/>
       <c r="AS115" s="259"/>
     </row>
-    <row r="116" spans="1:45" ht="15.75">
+    <row r="116" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A116" s="189" t="s">
         <v>940</v>
       </c>
@@ -40258,7 +40259,7 @@
       <c r="AR116" s="259"/>
       <c r="AS116" s="259"/>
     </row>
-    <row r="117" spans="1:45" ht="15.75">
+    <row r="117" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A117" s="189" t="s">
         <v>941</v>
       </c>
@@ -40319,7 +40320,7 @@
       <c r="AR117" s="259"/>
       <c r="AS117" s="259"/>
     </row>
-    <row r="118" spans="1:45" ht="16.5" thickBot="1">
+    <row r="118" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A118" s="190" t="s">
         <v>953</v>
       </c>
@@ -40376,7 +40377,7 @@
       <c r="AR118" s="260"/>
       <c r="AS118" s="260"/>
     </row>
-    <row r="119" spans="1:45" ht="15.75">
+    <row r="119" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A119" s="188" t="s">
         <v>942</v>
       </c>
@@ -40431,7 +40432,7 @@
       <c r="AR119" s="258"/>
       <c r="AS119" s="258"/>
     </row>
-    <row r="120" spans="1:45" ht="15.75">
+    <row r="120" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A120" s="189" t="s">
         <v>943</v>
       </c>
@@ -40486,7 +40487,7 @@
       <c r="AR120" s="259"/>
       <c r="AS120" s="259"/>
     </row>
-    <row r="121" spans="1:45" ht="15.75">
+    <row r="121" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A121" s="189" t="s">
         <v>954</v>
       </c>
@@ -40547,7 +40548,7 @@
       <c r="AR121" s="259"/>
       <c r="AS121" s="259"/>
     </row>
-    <row r="122" spans="1:45" ht="15.75">
+    <row r="122" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A122" s="189" t="s">
         <v>944</v>
       </c>
@@ -40608,7 +40609,7 @@
       <c r="AR122" s="259"/>
       <c r="AS122" s="259"/>
     </row>
-    <row r="123" spans="1:45" ht="15.75">
+    <row r="123" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A123" s="189" t="s">
         <v>945</v>
       </c>
@@ -40669,7 +40670,7 @@
       <c r="AR123" s="259"/>
       <c r="AS123" s="259"/>
     </row>
-    <row r="124" spans="1:45" ht="15.75">
+    <row r="124" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A124" s="189" t="s">
         <v>955</v>
       </c>
@@ -40730,7 +40731,7 @@
       <c r="AR124" s="259"/>
       <c r="AS124" s="259"/>
     </row>
-    <row r="125" spans="1:45" ht="16.5" thickBot="1">
+    <row r="125" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A125" s="190" t="s">
         <v>946</v>
       </c>
@@ -40785,7 +40786,7 @@
       <c r="AR125" s="260"/>
       <c r="AS125" s="260"/>
     </row>
-    <row r="126" spans="1:45" ht="15.75">
+    <row r="126" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A126" s="188" t="s">
         <v>947</v>
       </c>
@@ -40840,7 +40841,7 @@
       <c r="AR126" s="258"/>
       <c r="AS126" s="258"/>
     </row>
-    <row r="127" spans="1:45" ht="15.75">
+    <row r="127" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A127" s="189" t="s">
         <v>956</v>
       </c>
@@ -40901,7 +40902,7 @@
       <c r="AR127" s="259"/>
       <c r="AS127" s="259"/>
     </row>
-    <row r="128" spans="1:45" ht="15.75">
+    <row r="128" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A128" s="189" t="s">
         <v>948</v>
       </c>
@@ -40962,7 +40963,7 @@
       <c r="AR128" s="259"/>
       <c r="AS128" s="259"/>
     </row>
-    <row r="129" spans="1:45" ht="15.75">
+    <row r="129" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A129" s="189" t="s">
         <v>949</v>
       </c>
@@ -41023,7 +41024,7 @@
       <c r="AR129" s="259"/>
       <c r="AS129" s="259"/>
     </row>
-    <row r="130" spans="1:45" ht="16.5" thickBot="1">
+    <row r="130" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A130" s="190" t="s">
         <v>957</v>
       </c>
@@ -41084,7 +41085,7 @@
       <c r="AR130" s="260"/>
       <c r="AS130" s="260"/>
     </row>
-    <row r="131" spans="1:45" ht="15.75">
+    <row r="131" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A131" s="407" t="s">
         <v>1194</v>
       </c>
@@ -41141,7 +41142,7 @@
       <c r="AR131" s="416"/>
       <c r="AS131" s="416"/>
     </row>
-    <row r="132" spans="1:45" ht="15.75">
+    <row r="132" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A132" s="338" t="s">
         <v>1195</v>
       </c>
@@ -41198,7 +41199,7 @@
       <c r="AR132" s="347"/>
       <c r="AS132" s="347"/>
     </row>
-    <row r="133" spans="1:45" ht="15.75">
+    <row r="133" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A133" s="338" t="s">
         <v>1196</v>
       </c>
@@ -41255,7 +41256,7 @@
       <c r="AR133" s="347"/>
       <c r="AS133" s="347"/>
     </row>
-    <row r="134" spans="1:45" ht="16.5" thickBot="1">
+    <row r="134" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A134" s="190" t="s">
         <v>1197</v>
       </c>
@@ -41316,7 +41317,7 @@
       <c r="AR134" s="260"/>
       <c r="AS134" s="260"/>
     </row>
-    <row r="135" spans="1:45" ht="15.75">
+    <row r="135" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A135" s="191" t="s">
         <v>224</v>
       </c>
@@ -41371,7 +41372,7 @@
       <c r="AR135" s="261"/>
       <c r="AS135" s="261"/>
     </row>
-    <row r="136" spans="1:45" ht="15.75">
+    <row r="136" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A136" s="192" t="s">
         <v>206</v>
       </c>
@@ -41430,7 +41431,7 @@
       <c r="AR136" s="262"/>
       <c r="AS136" s="262"/>
     </row>
-    <row r="137" spans="1:45" ht="15.75">
+    <row r="137" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A137" s="192" t="s">
         <v>207</v>
       </c>
@@ -41485,7 +41486,7 @@
       <c r="AR137" s="262"/>
       <c r="AS137" s="262"/>
     </row>
-    <row r="138" spans="1:45" ht="15.75">
+    <row r="138" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A138" s="192" t="s">
         <v>178</v>
       </c>
@@ -41544,7 +41545,7 @@
       <c r="AR138" s="262"/>
       <c r="AS138" s="262"/>
     </row>
-    <row r="139" spans="1:45" ht="18.95" customHeight="1">
+    <row r="139" spans="1:45" ht="18.95" hidden="1" customHeight="1">
       <c r="A139" s="192" t="s">
         <v>208</v>
       </c>
@@ -41603,7 +41604,7 @@
       <c r="AR139" s="262"/>
       <c r="AS139" s="262"/>
     </row>
-    <row r="140" spans="1:45" ht="18.600000000000001" customHeight="1">
+    <row r="140" spans="1:45" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A140" s="192" t="s">
         <v>225</v>
       </c>
@@ -41662,7 +41663,7 @@
       <c r="AR140" s="262"/>
       <c r="AS140" s="262"/>
     </row>
-    <row r="141" spans="1:45" ht="15.75">
+    <row r="141" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A141" s="192" t="s">
         <v>209</v>
       </c>
@@ -41717,7 +41718,7 @@
       <c r="AR141" s="262"/>
       <c r="AS141" s="262"/>
     </row>
-    <row r="142" spans="1:45" ht="15.75">
+    <row r="142" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A142" s="192" t="s">
         <v>179</v>
       </c>
@@ -41776,7 +41777,7 @@
       <c r="AR142" s="262"/>
       <c r="AS142" s="262"/>
     </row>
-    <row r="143" spans="1:45" ht="17.100000000000001" customHeight="1">
+    <row r="143" spans="1:45" ht="17.100000000000001" hidden="1" customHeight="1">
       <c r="A143" s="192" t="s">
         <v>226</v>
       </c>
@@ -41835,7 +41836,7 @@
       <c r="AR143" s="262"/>
       <c r="AS143" s="262"/>
     </row>
-    <row r="144" spans="1:45" ht="15.6" customHeight="1">
+    <row r="144" spans="1:45" ht="15.6" hidden="1" customHeight="1">
       <c r="A144" s="192" t="s">
         <v>227</v>
       </c>
@@ -41894,7 +41895,7 @@
       <c r="AR144" s="262"/>
       <c r="AS144" s="262"/>
     </row>
-    <row r="145" spans="1:45" ht="15.75">
+    <row r="145" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A145" s="192" t="s">
         <v>210</v>
       </c>
@@ -41949,7 +41950,7 @@
       <c r="AR145" s="262"/>
       <c r="AS145" s="262"/>
     </row>
-    <row r="146" spans="1:45" ht="15.75">
+    <row r="146" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A146" s="192" t="s">
         <v>180</v>
       </c>
@@ -42008,7 +42009,7 @@
       <c r="AR146" s="262"/>
       <c r="AS146" s="262"/>
     </row>
-    <row r="147" spans="1:45" ht="15.75">
+    <row r="147" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A147" s="192" t="s">
         <v>211</v>
       </c>
@@ -42067,7 +42068,7 @@
       <c r="AR147" s="262"/>
       <c r="AS147" s="262"/>
     </row>
-    <row r="148" spans="1:45" ht="15.75">
+    <row r="148" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A148" s="192" t="s">
         <v>212</v>
       </c>
@@ -42122,7 +42123,7 @@
       <c r="AR148" s="262"/>
       <c r="AS148" s="262"/>
     </row>
-    <row r="149" spans="1:45" ht="15.75">
+    <row r="149" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A149" s="192" t="s">
         <v>213</v>
       </c>
@@ -42181,7 +42182,7 @@
       <c r="AR149" s="262"/>
       <c r="AS149" s="262"/>
     </row>
-    <row r="150" spans="1:45" ht="15.75">
+    <row r="150" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A150" s="192" t="s">
         <v>214</v>
       </c>
@@ -42240,7 +42241,7 @@
       <c r="AR150" s="262"/>
       <c r="AS150" s="262"/>
     </row>
-    <row r="151" spans="1:45" ht="15.75">
+    <row r="151" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A151" s="192" t="s">
         <v>215</v>
       </c>
@@ -42295,7 +42296,7 @@
       <c r="AR151" s="262"/>
       <c r="AS151" s="262"/>
     </row>
-    <row r="152" spans="1:45" ht="15.75">
+    <row r="152" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A152" s="192" t="s">
         <v>216</v>
       </c>
@@ -42354,7 +42355,7 @@
       <c r="AR152" s="262"/>
       <c r="AS152" s="262"/>
     </row>
-    <row r="153" spans="1:45" ht="15.75">
+    <row r="153" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A153" s="192" t="s">
         <v>217</v>
       </c>
@@ -42413,7 +42414,7 @@
       <c r="AR153" s="262"/>
       <c r="AS153" s="262"/>
     </row>
-    <row r="154" spans="1:45" ht="15.75">
+    <row r="154" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A154" s="192" t="s">
         <v>228</v>
       </c>
@@ -42472,7 +42473,7 @@
       <c r="AR154" s="262"/>
       <c r="AS154" s="262"/>
     </row>
-    <row r="155" spans="1:45" ht="15.75">
+    <row r="155" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A155" s="192" t="s">
         <v>229</v>
       </c>
@@ -42531,7 +42532,7 @@
       <c r="AR155" s="262"/>
       <c r="AS155" s="262"/>
     </row>
-    <row r="156" spans="1:45" ht="15.75">
+    <row r="156" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A156" s="192" t="s">
         <v>218</v>
       </c>
@@ -42586,7 +42587,7 @@
       <c r="AR156" s="262"/>
       <c r="AS156" s="262"/>
     </row>
-    <row r="157" spans="1:45" ht="15.75">
+    <row r="157" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A157" s="192" t="s">
         <v>230</v>
       </c>
@@ -42645,7 +42646,7 @@
       <c r="AR157" s="262"/>
       <c r="AS157" s="262"/>
     </row>
-    <row r="158" spans="1:45" ht="24.6" customHeight="1">
+    <row r="158" spans="1:45" ht="24.6" hidden="1" customHeight="1">
       <c r="A158" s="192" t="s">
         <v>231</v>
       </c>
@@ -42704,7 +42705,7 @@
       <c r="AR158" s="262"/>
       <c r="AS158" s="262"/>
     </row>
-    <row r="159" spans="1:45" ht="15.75">
+    <row r="159" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A159" s="192" t="s">
         <v>232</v>
       </c>
@@ -42763,7 +42764,7 @@
       <c r="AR159" s="262"/>
       <c r="AS159" s="262"/>
     </row>
-    <row r="160" spans="1:45" ht="16.5" thickBot="1">
+    <row r="160" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A160" s="193" t="s">
         <v>233</v>
       </c>
@@ -42822,7 +42823,7 @@
       <c r="AR160" s="263"/>
       <c r="AS160" s="263"/>
     </row>
-    <row r="161" spans="1:45" ht="16.5" thickBot="1">
+    <row r="161" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A161" s="452" t="s">
         <v>234</v>
       </c>
@@ -42883,7 +42884,7 @@
       <c r="AR161" s="575"/>
       <c r="AS161" s="575"/>
     </row>
-    <row r="162" spans="1:45" ht="24.95" customHeight="1">
+    <row r="162" spans="1:45" ht="24.95" hidden="1" customHeight="1">
       <c r="A162" s="191" t="s">
         <v>235</v>
       </c>
@@ -42942,7 +42943,7 @@
       <c r="AR162" s="261"/>
       <c r="AS162" s="261"/>
     </row>
-    <row r="163" spans="1:45" ht="15.75">
+    <row r="163" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A163" s="192" t="s">
         <v>1007</v>
       </c>
@@ -42997,7 +42998,7 @@
       <c r="AR163" s="262"/>
       <c r="AS163" s="262"/>
     </row>
-    <row r="164" spans="1:45" ht="15.75">
+    <row r="164" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A164" s="192" t="s">
         <v>219</v>
       </c>
@@ -43056,7 +43057,7 @@
       <c r="AR164" s="262"/>
       <c r="AS164" s="262"/>
     </row>
-    <row r="165" spans="1:45" ht="15.75">
+    <row r="165" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A165" s="192" t="s">
         <v>220</v>
       </c>
@@ -43115,7 +43116,7 @@
       <c r="AR165" s="262"/>
       <c r="AS165" s="262"/>
     </row>
-    <row r="166" spans="1:45" ht="15.75">
+    <row r="166" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A166" s="192" t="s">
         <v>236</v>
       </c>
@@ -43174,7 +43175,7 @@
       <c r="AR166" s="262"/>
       <c r="AS166" s="262"/>
     </row>
-    <row r="167" spans="1:45" ht="15.75">
+    <row r="167" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A167" s="192" t="s">
         <v>221</v>
       </c>
@@ -43233,7 +43234,7 @@
       <c r="AR167" s="262"/>
       <c r="AS167" s="262"/>
     </row>
-    <row r="168" spans="1:45" ht="15.75">
+    <row r="168" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A168" s="192" t="s">
         <v>237</v>
       </c>
@@ -43292,7 +43293,7 @@
       <c r="AR168" s="262"/>
       <c r="AS168" s="262"/>
     </row>
-    <row r="169" spans="1:45" ht="15.75">
+    <row r="169" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A169" s="192" t="s">
         <v>222</v>
       </c>
@@ -43351,7 +43352,7 @@
       <c r="AR169" s="262"/>
       <c r="AS169" s="262"/>
     </row>
-    <row r="170" spans="1:45" ht="15.75">
+    <row r="170" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A170" s="192" t="s">
         <v>223</v>
       </c>
@@ -43406,7 +43407,7 @@
       <c r="AR170" s="262"/>
       <c r="AS170" s="262"/>
     </row>
-    <row r="171" spans="1:45" ht="15.75">
+    <row r="171" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A171" s="192" t="s">
         <v>238</v>
       </c>
@@ -43461,7 +43462,7 @@
       <c r="AR171" s="262"/>
       <c r="AS171" s="262"/>
     </row>
-    <row r="172" spans="1:45" ht="15.75">
+    <row r="172" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A172" s="192" t="s">
         <v>239</v>
       </c>
@@ -43516,7 +43517,7 @@
       <c r="AR172" s="262"/>
       <c r="AS172" s="262"/>
     </row>
-    <row r="173" spans="1:45" ht="16.5" thickBot="1">
+    <row r="173" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A173" s="193" t="s">
         <v>1068</v>
       </c>
@@ -43575,7 +43576,7 @@
       <c r="AR173" s="263"/>
       <c r="AS173" s="263"/>
     </row>
-    <row r="174" spans="1:45" ht="15.75">
+    <row r="174" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A174" s="178" t="s">
         <v>128</v>
       </c>
@@ -43634,7 +43635,7 @@
       <c r="AR174" s="576"/>
       <c r="AS174" s="576"/>
     </row>
-    <row r="175" spans="1:45" ht="16.5" thickBot="1">
+    <row r="175" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A175" s="181" t="s">
         <v>129</v>
       </c>
@@ -43693,7 +43694,7 @@
       <c r="AR175" s="577"/>
       <c r="AS175" s="577"/>
     </row>
-    <row r="176" spans="1:45" ht="16.5" thickBot="1">
+    <row r="176" spans="1:45" ht="15.75">
       <c r="A176" s="194" t="s">
         <v>1128</v>
       </c>
@@ -43768,7 +43769,7 @@
       </c>
       <c r="AS176" s="266"/>
     </row>
-    <row r="177" spans="1:45" ht="15.75">
+    <row r="177" spans="1:45" ht="15.75" hidden="1">
       <c r="A177" s="504" t="s">
         <v>1175</v>
       </c>
@@ -43825,7 +43826,7 @@
       <c r="AR177" s="513"/>
       <c r="AS177" s="513"/>
     </row>
-    <row r="178" spans="1:45" ht="16.5" thickBot="1">
+    <row r="178" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A178" s="504" t="s">
         <v>1223</v>
       </c>
@@ -43888,7 +43889,7 @@
       <c r="AR178" s="582"/>
       <c r="AS178" s="582"/>
     </row>
-    <row r="179" spans="1:45" ht="16.5" thickBot="1">
+    <row r="179" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A179" s="504" t="s">
         <v>1243</v>
       </c>
@@ -43951,7 +43952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:45" ht="15.75">
+    <row r="180" spans="1:45" ht="15.75" hidden="1">
       <c r="A180" s="187" t="s">
         <v>133</v>
       </c>
@@ -44001,7 +44002,7 @@
       <c r="AR180" s="79"/>
       <c r="AS180" s="79"/>
     </row>
-    <row r="181" spans="1:45" ht="18.95" customHeight="1">
+    <row r="181" spans="1:45" ht="18.95" hidden="1" customHeight="1">
       <c r="A181" s="195" t="s">
         <v>713</v>
       </c>
@@ -44056,7 +44057,7 @@
       <c r="AR181" s="176"/>
       <c r="AS181" s="176"/>
     </row>
-    <row r="182" spans="1:45" ht="15.75">
+    <row r="182" spans="1:45" ht="15.75" hidden="1">
       <c r="A182" s="195" t="s">
         <v>714</v>
       </c>
@@ -44111,7 +44112,7 @@
       <c r="AR182" s="176"/>
       <c r="AS182" s="176"/>
     </row>
-    <row r="183" spans="1:45" ht="15.75">
+    <row r="183" spans="1:45" ht="15.75" hidden="1">
       <c r="A183" s="195" t="s">
         <v>715</v>
       </c>
@@ -44166,7 +44167,7 @@
       <c r="AR183" s="176"/>
       <c r="AS183" s="176"/>
     </row>
-    <row r="184" spans="1:45" ht="15.75">
+    <row r="184" spans="1:45" ht="15.75" hidden="1">
       <c r="A184" s="195" t="s">
         <v>716</v>
       </c>
@@ -44221,7 +44222,7 @@
       <c r="AR184" s="176"/>
       <c r="AS184" s="176"/>
     </row>
-    <row r="185" spans="1:45" ht="15.75">
+    <row r="185" spans="1:45" ht="15.75" hidden="1">
       <c r="A185" s="195" t="s">
         <v>717</v>
       </c>
@@ -44276,7 +44277,7 @@
       <c r="AR185" s="176"/>
       <c r="AS185" s="176"/>
     </row>
-    <row r="186" spans="1:45" ht="15.75">
+    <row r="186" spans="1:45" ht="15.75" hidden="1">
       <c r="A186" s="195" t="s">
         <v>718</v>
       </c>
@@ -44331,7 +44332,7 @@
       <c r="AR186" s="176"/>
       <c r="AS186" s="176"/>
     </row>
-    <row r="187" spans="1:45" ht="15.75">
+    <row r="187" spans="1:45" ht="15.75" hidden="1">
       <c r="A187" s="195" t="s">
         <v>719</v>
       </c>
@@ -44386,7 +44387,7 @@
       <c r="AR187" s="176"/>
       <c r="AS187" s="176"/>
     </row>
-    <row r="188" spans="1:45" ht="15.75">
+    <row r="188" spans="1:45" ht="15.75" hidden="1">
       <c r="A188" s="196" t="s">
         <v>720</v>
       </c>
@@ -44445,7 +44446,7 @@
       <c r="AR188" s="176"/>
       <c r="AS188" s="176"/>
     </row>
-    <row r="189" spans="1:45" ht="15.75">
+    <row r="189" spans="1:45" ht="15.75" hidden="1">
       <c r="A189" s="195" t="s">
         <v>721</v>
       </c>
@@ -44504,7 +44505,7 @@
       <c r="AR189" s="176"/>
       <c r="AS189" s="176"/>
     </row>
-    <row r="190" spans="1:45" ht="15.75">
+    <row r="190" spans="1:45" ht="15.75" hidden="1">
       <c r="A190" s="195" t="s">
         <v>722</v>
       </c>
@@ -44563,7 +44564,7 @@
       <c r="AR190" s="176"/>
       <c r="AS190" s="176"/>
     </row>
-    <row r="191" spans="1:45" ht="15.75">
+    <row r="191" spans="1:45" ht="15.75" hidden="1">
       <c r="A191" s="195" t="s">
         <v>723</v>
       </c>
@@ -44622,7 +44623,7 @@
       <c r="AR191" s="176"/>
       <c r="AS191" s="176"/>
     </row>
-    <row r="192" spans="1:45" ht="15.75">
+    <row r="192" spans="1:45" ht="15.75" hidden="1">
       <c r="A192" s="195" t="s">
         <v>724</v>
       </c>
@@ -44677,7 +44678,7 @@
       <c r="AR192" s="176"/>
       <c r="AS192" s="176"/>
     </row>
-    <row r="193" spans="1:45" ht="15.75">
+    <row r="193" spans="1:45" ht="15.75" hidden="1">
       <c r="A193" s="195" t="s">
         <v>725</v>
       </c>
@@ -44732,7 +44733,7 @@
       <c r="AR193" s="176"/>
       <c r="AS193" s="176"/>
     </row>
-    <row r="194" spans="1:45" ht="15.75">
+    <row r="194" spans="1:45" ht="15.75" hidden="1">
       <c r="A194" s="195" t="s">
         <v>726</v>
       </c>
@@ -44787,7 +44788,7 @@
       <c r="AR194" s="176"/>
       <c r="AS194" s="176"/>
     </row>
-    <row r="195" spans="1:45" ht="15.75">
+    <row r="195" spans="1:45" ht="15.75" hidden="1">
       <c r="A195" s="195" t="s">
         <v>727</v>
       </c>
@@ -44842,7 +44843,7 @@
       <c r="AR195" s="176"/>
       <c r="AS195" s="176"/>
     </row>
-    <row r="196" spans="1:45" ht="15.75">
+    <row r="196" spans="1:45" ht="15.75" hidden="1">
       <c r="A196" s="195" t="s">
         <v>728</v>
       </c>
@@ -44897,7 +44898,7 @@
       <c r="AR196" s="176"/>
       <c r="AS196" s="176"/>
     </row>
-    <row r="197" spans="1:45" ht="15.75">
+    <row r="197" spans="1:45" ht="15.75" hidden="1">
       <c r="A197" s="195" t="s">
         <v>729</v>
       </c>
@@ -44952,7 +44953,7 @@
       <c r="AR197" s="176"/>
       <c r="AS197" s="176"/>
     </row>
-    <row r="198" spans="1:45" ht="15.75">
+    <row r="198" spans="1:45" ht="15.75" hidden="1">
       <c r="A198" s="195" t="s">
         <v>730</v>
       </c>
@@ -45007,7 +45008,7 @@
       <c r="AR198" s="176"/>
       <c r="AS198" s="176"/>
     </row>
-    <row r="199" spans="1:45" ht="15.75">
+    <row r="199" spans="1:45" ht="15.75" hidden="1">
       <c r="A199" s="195" t="s">
         <v>731</v>
       </c>
@@ -45062,7 +45063,7 @@
       <c r="AR199" s="176"/>
       <c r="AS199" s="176"/>
     </row>
-    <row r="200" spans="1:45" ht="15.75">
+    <row r="200" spans="1:45" ht="15.75" hidden="1">
       <c r="A200" s="195" t="s">
         <v>732</v>
       </c>
@@ -45121,7 +45122,7 @@
       <c r="AR200" s="176"/>
       <c r="AS200" s="176"/>
     </row>
-    <row r="201" spans="1:45" ht="15.75">
+    <row r="201" spans="1:45" ht="15.75" hidden="1">
       <c r="A201" s="195" t="s">
         <v>733</v>
       </c>
@@ -45180,7 +45181,7 @@
       <c r="AR201" s="176"/>
       <c r="AS201" s="176"/>
     </row>
-    <row r="202" spans="1:45" ht="15.75">
+    <row r="202" spans="1:45" ht="15.75" hidden="1">
       <c r="A202" s="195" t="s">
         <v>734</v>
       </c>
@@ -45239,7 +45240,7 @@
       <c r="AR202" s="176"/>
       <c r="AS202" s="176"/>
     </row>
-    <row r="203" spans="1:45" ht="15.75">
+    <row r="203" spans="1:45" ht="15.75" hidden="1">
       <c r="A203" s="195" t="s">
         <v>735</v>
       </c>
@@ -45298,7 +45299,7 @@
       <c r="AR203" s="176"/>
       <c r="AS203" s="176"/>
     </row>
-    <row r="204" spans="1:45" ht="15.75">
+    <row r="204" spans="1:45" ht="15.75" hidden="1">
       <c r="A204" s="195" t="s">
         <v>736</v>
       </c>
@@ -45353,7 +45354,7 @@
       <c r="AR204" s="176"/>
       <c r="AS204" s="176"/>
     </row>
-    <row r="205" spans="1:45" ht="15.75">
+    <row r="205" spans="1:45" ht="15.75" hidden="1">
       <c r="A205" s="195" t="s">
         <v>737</v>
       </c>
@@ -45408,7 +45409,7 @@
       <c r="AR205" s="176"/>
       <c r="AS205" s="176"/>
     </row>
-    <row r="206" spans="1:45" ht="15.75">
+    <row r="206" spans="1:45" ht="15.75" hidden="1">
       <c r="A206" s="195" t="s">
         <v>738</v>
       </c>
@@ -45467,7 +45468,7 @@
       <c r="AR206" s="176"/>
       <c r="AS206" s="176"/>
     </row>
-    <row r="207" spans="1:45" ht="15.75">
+    <row r="207" spans="1:45" ht="15.75" hidden="1">
       <c r="A207" s="195" t="s">
         <v>739</v>
       </c>
@@ -45526,7 +45527,7 @@
       <c r="AR207" s="176"/>
       <c r="AS207" s="176"/>
     </row>
-    <row r="208" spans="1:45" ht="15.75">
+    <row r="208" spans="1:45" ht="15.75" hidden="1">
       <c r="A208" s="195" t="s">
         <v>740</v>
       </c>
@@ -45585,7 +45586,7 @@
       <c r="AR208" s="176"/>
       <c r="AS208" s="176"/>
     </row>
-    <row r="209" spans="1:45" ht="15.75">
+    <row r="209" spans="1:45" ht="15.75" hidden="1">
       <c r="A209" s="195" t="s">
         <v>741</v>
       </c>
@@ -45644,7 +45645,7 @@
       <c r="AR209" s="176"/>
       <c r="AS209" s="176"/>
     </row>
-    <row r="210" spans="1:45" ht="15.75">
+    <row r="210" spans="1:45" ht="15.75" hidden="1">
       <c r="A210" s="195" t="s">
         <v>742</v>
       </c>
@@ -45699,7 +45700,7 @@
       <c r="AR210" s="176"/>
       <c r="AS210" s="176"/>
     </row>
-    <row r="211" spans="1:45" ht="15.75">
+    <row r="211" spans="1:45" ht="15.75" hidden="1">
       <c r="A211" s="195" t="s">
         <v>743</v>
       </c>
@@ -45754,7 +45755,7 @@
       <c r="AR211" s="176"/>
       <c r="AS211" s="176"/>
     </row>
-    <row r="212" spans="1:45" ht="15.75">
+    <row r="212" spans="1:45" ht="15.75" hidden="1">
       <c r="A212" s="195" t="s">
         <v>744</v>
       </c>
@@ -45813,7 +45814,7 @@
       <c r="AR212" s="176"/>
       <c r="AS212" s="176"/>
     </row>
-    <row r="213" spans="1:45" ht="15.75">
+    <row r="213" spans="1:45" ht="15.75" hidden="1">
       <c r="A213" s="195" t="s">
         <v>745</v>
       </c>
@@ -45872,7 +45873,7 @@
       <c r="AR213" s="176"/>
       <c r="AS213" s="176"/>
     </row>
-    <row r="214" spans="1:45" ht="15.75">
+    <row r="214" spans="1:45" ht="15.75" hidden="1">
       <c r="A214" s="195" t="s">
         <v>746</v>
       </c>
@@ -45931,7 +45932,7 @@
       <c r="AR214" s="176"/>
       <c r="AS214" s="176"/>
     </row>
-    <row r="215" spans="1:45" ht="15.75">
+    <row r="215" spans="1:45" ht="15.75" hidden="1">
       <c r="A215" s="195" t="s">
         <v>747</v>
       </c>
@@ -45990,7 +45991,7 @@
       <c r="AR215" s="176"/>
       <c r="AS215" s="176"/>
     </row>
-    <row r="216" spans="1:45" ht="15.75">
+    <row r="216" spans="1:45" ht="15.75" hidden="1">
       <c r="A216" s="195" t="s">
         <v>748</v>
       </c>
@@ -46045,7 +46046,7 @@
       <c r="AR216" s="176"/>
       <c r="AS216" s="176"/>
     </row>
-    <row r="217" spans="1:45" ht="15.75">
+    <row r="217" spans="1:45" ht="15.75" hidden="1">
       <c r="A217" s="195" t="s">
         <v>749</v>
       </c>
@@ -46100,7 +46101,7 @@
       <c r="AR217" s="176"/>
       <c r="AS217" s="176"/>
     </row>
-    <row r="218" spans="1:45" ht="15.75">
+    <row r="218" spans="1:45" ht="15.75" hidden="1">
       <c r="A218" s="195" t="s">
         <v>750</v>
       </c>
@@ -46155,7 +46156,7 @@
       <c r="AR218" s="176"/>
       <c r="AS218" s="176"/>
     </row>
-    <row r="219" spans="1:45" ht="15.75">
+    <row r="219" spans="1:45" ht="15.75" hidden="1">
       <c r="A219" s="195" t="s">
         <v>751</v>
       </c>
@@ -46210,7 +46211,7 @@
       <c r="AR219" s="176"/>
       <c r="AS219" s="176"/>
     </row>
-    <row r="220" spans="1:45" ht="15.75">
+    <row r="220" spans="1:45" ht="15.75" hidden="1">
       <c r="A220" s="195" t="s">
         <v>752</v>
       </c>
@@ -46265,7 +46266,7 @@
       <c r="AR220" s="176"/>
       <c r="AS220" s="176"/>
     </row>
-    <row r="221" spans="1:45" ht="15.75">
+    <row r="221" spans="1:45" ht="15.75" hidden="1">
       <c r="A221" s="195" t="s">
         <v>753</v>
       </c>
@@ -46320,7 +46321,7 @@
       <c r="AR221" s="176"/>
       <c r="AS221" s="176"/>
     </row>
-    <row r="222" spans="1:45" ht="15.75">
+    <row r="222" spans="1:45" ht="15.75" hidden="1">
       <c r="A222" s="195" t="s">
         <v>754</v>
       </c>
@@ -46375,7 +46376,7 @@
       <c r="AR222" s="176"/>
       <c r="AS222" s="176"/>
     </row>
-    <row r="223" spans="1:45" ht="15.75">
+    <row r="223" spans="1:45" ht="15.75" hidden="1">
       <c r="A223" s="197" t="s">
         <v>755</v>
       </c>
@@ -46430,7 +46431,7 @@
       <c r="AR223" s="176"/>
       <c r="AS223" s="176"/>
     </row>
-    <row r="224" spans="1:45" ht="15.75">
+    <row r="224" spans="1:45" ht="15.75" hidden="1">
       <c r="A224" s="197" t="s">
         <v>756</v>
       </c>
@@ -46489,7 +46490,7 @@
       <c r="AR224" s="176"/>
       <c r="AS224" s="176"/>
     </row>
-    <row r="225" spans="1:45" ht="15.75">
+    <row r="225" spans="1:45" ht="15.75" hidden="1">
       <c r="A225" s="197" t="s">
         <v>757</v>
       </c>
@@ -46548,7 +46549,7 @@
       <c r="AR225" s="176"/>
       <c r="AS225" s="176"/>
     </row>
-    <row r="226" spans="1:45" ht="15.75">
+    <row r="226" spans="1:45" ht="15.75" hidden="1">
       <c r="A226" s="197" t="s">
         <v>1000</v>
       </c>
@@ -46607,7 +46608,7 @@
       <c r="AR226" s="176"/>
       <c r="AS226" s="176"/>
     </row>
-    <row r="227" spans="1:45" ht="15.75">
+    <row r="227" spans="1:45" ht="15.75" hidden="1">
       <c r="A227" s="197" t="s">
         <v>758</v>
       </c>
@@ -46666,7 +46667,7 @@
       <c r="AR227" s="176"/>
       <c r="AS227" s="176"/>
     </row>
-    <row r="228" spans="1:45" ht="15.75">
+    <row r="228" spans="1:45" ht="15.75" hidden="1">
       <c r="A228" s="197" t="s">
         <v>759</v>
       </c>
@@ -46721,7 +46722,7 @@
       <c r="AR228" s="176"/>
       <c r="AS228" s="176"/>
     </row>
-    <row r="229" spans="1:45" ht="15.75">
+    <row r="229" spans="1:45" ht="15.75" hidden="1">
       <c r="A229" s="197" t="s">
         <v>760</v>
       </c>
@@ -46776,7 +46777,7 @@
       <c r="AR229" s="176"/>
       <c r="AS229" s="176"/>
     </row>
-    <row r="230" spans="1:45" ht="15.75">
+    <row r="230" spans="1:45" ht="15.75" hidden="1">
       <c r="A230" s="197" t="s">
         <v>761</v>
       </c>
@@ -46835,7 +46836,7 @@
       <c r="AR230" s="176"/>
       <c r="AS230" s="176"/>
     </row>
-    <row r="231" spans="1:45" ht="15.75">
+    <row r="231" spans="1:45" ht="15.75" hidden="1">
       <c r="A231" s="197" t="s">
         <v>762</v>
       </c>
@@ -46894,7 +46895,7 @@
       <c r="AR231" s="176"/>
       <c r="AS231" s="176"/>
     </row>
-    <row r="232" spans="1:45" ht="15.75">
+    <row r="232" spans="1:45" ht="15.75" hidden="1">
       <c r="A232" s="197" t="s">
         <v>763</v>
       </c>
@@ -46953,7 +46954,7 @@
       <c r="AR232" s="176"/>
       <c r="AS232" s="176"/>
     </row>
-    <row r="233" spans="1:45" ht="15.75">
+    <row r="233" spans="1:45" ht="15.75" hidden="1">
       <c r="A233" s="197" t="s">
         <v>764</v>
       </c>
@@ -47012,7 +47013,7 @@
       <c r="AR233" s="176"/>
       <c r="AS233" s="176"/>
     </row>
-    <row r="234" spans="1:45" ht="15.75">
+    <row r="234" spans="1:45" ht="15.75" hidden="1">
       <c r="A234" s="197" t="s">
         <v>765</v>
       </c>
@@ -47067,7 +47068,7 @@
       <c r="AR234" s="176"/>
       <c r="AS234" s="176"/>
     </row>
-    <row r="235" spans="1:45" ht="15.75">
+    <row r="235" spans="1:45" ht="15.75" hidden="1">
       <c r="A235" s="197" t="s">
         <v>766</v>
       </c>
@@ -47122,7 +47123,7 @@
       <c r="AR235" s="176"/>
       <c r="AS235" s="176"/>
     </row>
-    <row r="236" spans="1:45" ht="15.75">
+    <row r="236" spans="1:45" ht="15.75" hidden="1">
       <c r="A236" s="197" t="s">
         <v>767</v>
       </c>
@@ -47181,7 +47182,7 @@
       <c r="AR236" s="176"/>
       <c r="AS236" s="176"/>
     </row>
-    <row r="237" spans="1:45" ht="15.75">
+    <row r="237" spans="1:45" ht="15.75" hidden="1">
       <c r="A237" s="197" t="s">
         <v>768</v>
       </c>
@@ -47240,7 +47241,7 @@
       <c r="AR237" s="176"/>
       <c r="AS237" s="176"/>
     </row>
-    <row r="238" spans="1:45" ht="15.75">
+    <row r="238" spans="1:45" ht="15.75" hidden="1">
       <c r="A238" s="197" t="s">
         <v>769</v>
       </c>
@@ -47299,7 +47300,7 @@
       <c r="AR238" s="176"/>
       <c r="AS238" s="176"/>
     </row>
-    <row r="239" spans="1:45" ht="15.75">
+    <row r="239" spans="1:45" ht="15.75" hidden="1">
       <c r="A239" s="197" t="s">
         <v>770</v>
       </c>
@@ -47358,7 +47359,7 @@
       <c r="AR239" s="176"/>
       <c r="AS239" s="176"/>
     </row>
-    <row r="240" spans="1:45" ht="15.75">
+    <row r="240" spans="1:45" ht="15.75" hidden="1">
       <c r="A240" s="197" t="s">
         <v>771</v>
       </c>
@@ -47413,7 +47414,7 @@
       <c r="AR240" s="176"/>
       <c r="AS240" s="176"/>
     </row>
-    <row r="241" spans="1:45" ht="15.75">
+    <row r="241" spans="1:45" ht="15.75" hidden="1">
       <c r="A241" s="198" t="s">
         <v>772</v>
       </c>
@@ -47468,7 +47469,7 @@
       <c r="AR241" s="176"/>
       <c r="AS241" s="176"/>
     </row>
-    <row r="242" spans="1:45" ht="15.75">
+    <row r="242" spans="1:45" ht="15.75" hidden="1">
       <c r="A242" s="195" t="s">
         <v>773</v>
       </c>
@@ -47523,7 +47524,7 @@
       <c r="AR242" s="176"/>
       <c r="AS242" s="176"/>
     </row>
-    <row r="243" spans="1:45" ht="15.75">
+    <row r="243" spans="1:45" ht="15.75" hidden="1">
       <c r="A243" s="198" t="s">
         <v>774</v>
       </c>
@@ -47578,7 +47579,7 @@
       <c r="AR243" s="176"/>
       <c r="AS243" s="176"/>
     </row>
-    <row r="244" spans="1:45" ht="15.75">
+    <row r="244" spans="1:45" ht="15.75" hidden="1">
       <c r="A244" s="198" t="s">
         <v>775</v>
       </c>
@@ -47633,7 +47634,7 @@
       <c r="AR244" s="176"/>
       <c r="AS244" s="176"/>
     </row>
-    <row r="245" spans="1:45" ht="15.75">
+    <row r="245" spans="1:45" ht="15.75" hidden="1">
       <c r="A245" s="198" t="s">
         <v>776</v>
       </c>
@@ -47688,7 +47689,7 @@
       <c r="AR245" s="176"/>
       <c r="AS245" s="176"/>
     </row>
-    <row r="246" spans="1:45" ht="15.75">
+    <row r="246" spans="1:45" ht="15.75" hidden="1">
       <c r="A246" s="198" t="s">
         <v>777</v>
       </c>
@@ -47743,7 +47744,7 @@
       <c r="AR246" s="176"/>
       <c r="AS246" s="176"/>
     </row>
-    <row r="247" spans="1:45" ht="15.75">
+    <row r="247" spans="1:45" ht="15.75" hidden="1">
       <c r="A247" s="198" t="s">
         <v>778</v>
       </c>
@@ -47798,7 +47799,7 @@
       <c r="AR247" s="176"/>
       <c r="AS247" s="176"/>
     </row>
-    <row r="248" spans="1:45" ht="15.75">
+    <row r="248" spans="1:45" ht="15.75" hidden="1">
       <c r="A248" s="198" t="s">
         <v>779</v>
       </c>
@@ -47857,7 +47858,7 @@
       <c r="AR248" s="176"/>
       <c r="AS248" s="176"/>
     </row>
-    <row r="249" spans="1:45" ht="15.75">
+    <row r="249" spans="1:45" ht="15.75" hidden="1">
       <c r="A249" s="198" t="s">
         <v>780</v>
       </c>
@@ -47916,7 +47917,7 @@
       <c r="AR249" s="176"/>
       <c r="AS249" s="176"/>
     </row>
-    <row r="250" spans="1:45" ht="15.75">
+    <row r="250" spans="1:45" ht="15.75" hidden="1">
       <c r="A250" s="198" t="s">
         <v>781</v>
       </c>
@@ -47975,7 +47976,7 @@
       <c r="AR250" s="176"/>
       <c r="AS250" s="176"/>
     </row>
-    <row r="251" spans="1:45" ht="15.75">
+    <row r="251" spans="1:45" ht="15.75" hidden="1">
       <c r="A251" s="198" t="s">
         <v>782</v>
       </c>
@@ -48034,7 +48035,7 @@
       <c r="AR251" s="176"/>
       <c r="AS251" s="176"/>
     </row>
-    <row r="252" spans="1:45" ht="15.75">
+    <row r="252" spans="1:45" ht="15.75" hidden="1">
       <c r="A252" s="198" t="s">
         <v>783</v>
       </c>
@@ -48089,7 +48090,7 @@
       <c r="AR252" s="176"/>
       <c r="AS252" s="176"/>
     </row>
-    <row r="253" spans="1:45" ht="15.75">
+    <row r="253" spans="1:45" ht="15.75" hidden="1">
       <c r="A253" s="198" t="s">
         <v>784</v>
       </c>
@@ -48144,7 +48145,7 @@
       <c r="AR253" s="176"/>
       <c r="AS253" s="176"/>
     </row>
-    <row r="254" spans="1:45" ht="15.75">
+    <row r="254" spans="1:45" ht="15.75" hidden="1">
       <c r="A254" s="198" t="s">
         <v>785</v>
       </c>
@@ -48203,7 +48204,7 @@
       <c r="AR254" s="176"/>
       <c r="AS254" s="176"/>
     </row>
-    <row r="255" spans="1:45" ht="15.75">
+    <row r="255" spans="1:45" ht="15.75" hidden="1">
       <c r="A255" s="198" t="s">
         <v>786</v>
       </c>
@@ -48262,7 +48263,7 @@
       <c r="AR255" s="176"/>
       <c r="AS255" s="176"/>
     </row>
-    <row r="256" spans="1:45" ht="15.75">
+    <row r="256" spans="1:45" ht="15.75" hidden="1">
       <c r="A256" s="198" t="s">
         <v>787</v>
       </c>
@@ -48321,7 +48322,7 @@
       <c r="AR256" s="176"/>
       <c r="AS256" s="176"/>
     </row>
-    <row r="257" spans="1:45" ht="15.75">
+    <row r="257" spans="1:45" ht="15.75" hidden="1">
       <c r="A257" s="198" t="s">
         <v>788</v>
       </c>
@@ -48380,7 +48381,7 @@
       <c r="AR257" s="176"/>
       <c r="AS257" s="176"/>
     </row>
-    <row r="258" spans="1:45" ht="15.75">
+    <row r="258" spans="1:45" ht="15.75" hidden="1">
       <c r="A258" s="198" t="s">
         <v>789</v>
       </c>
@@ -48435,7 +48436,7 @@
       <c r="AR258" s="176"/>
       <c r="AS258" s="176"/>
     </row>
-    <row r="259" spans="1:45" ht="15.75">
+    <row r="259" spans="1:45" ht="15.75" hidden="1">
       <c r="A259" s="198" t="s">
         <v>790</v>
       </c>
@@ -48490,7 +48491,7 @@
       <c r="AR259" s="176"/>
       <c r="AS259" s="176"/>
     </row>
-    <row r="260" spans="1:45" ht="15.75">
+    <row r="260" spans="1:45" ht="15.75" hidden="1">
       <c r="A260" s="198" t="s">
         <v>791</v>
       </c>
@@ -48545,7 +48546,7 @@
       <c r="AR260" s="176"/>
       <c r="AS260" s="176"/>
     </row>
-    <row r="261" spans="1:45" ht="15.75">
+    <row r="261" spans="1:45" ht="15.75" hidden="1">
       <c r="A261" s="198" t="s">
         <v>792</v>
       </c>
@@ -48600,7 +48601,7 @@
       <c r="AR261" s="176"/>
       <c r="AS261" s="176"/>
     </row>
-    <row r="262" spans="1:45" ht="15.75">
+    <row r="262" spans="1:45" ht="15.75" hidden="1">
       <c r="A262" s="198" t="s">
         <v>793</v>
       </c>
@@ -48655,7 +48656,7 @@
       <c r="AR262" s="176"/>
       <c r="AS262" s="176"/>
     </row>
-    <row r="263" spans="1:45" ht="15.75">
+    <row r="263" spans="1:45" ht="15.75" hidden="1">
       <c r="A263" s="198" t="s">
         <v>794</v>
       </c>
@@ -48710,7 +48711,7 @@
       <c r="AR263" s="176"/>
       <c r="AS263" s="176"/>
     </row>
-    <row r="264" spans="1:45" ht="15.75">
+    <row r="264" spans="1:45" ht="15.75" hidden="1">
       <c r="A264" s="198" t="s">
         <v>795</v>
       </c>
@@ -48765,7 +48766,7 @@
       <c r="AR264" s="176"/>
       <c r="AS264" s="176"/>
     </row>
-    <row r="265" spans="1:45" ht="15.75">
+    <row r="265" spans="1:45" ht="15.75" hidden="1">
       <c r="A265" s="198" t="s">
         <v>796</v>
       </c>
@@ -48820,7 +48821,7 @@
       <c r="AR265" s="176"/>
       <c r="AS265" s="176"/>
     </row>
-    <row r="266" spans="1:45" ht="15.75">
+    <row r="266" spans="1:45" ht="15.75" hidden="1">
       <c r="A266" s="198" t="s">
         <v>797</v>
       </c>
@@ -48879,7 +48880,7 @@
       <c r="AR266" s="176"/>
       <c r="AS266" s="176"/>
     </row>
-    <row r="267" spans="1:45" ht="15.75">
+    <row r="267" spans="1:45" ht="15.75" hidden="1">
       <c r="A267" s="198" t="s">
         <v>798</v>
       </c>
@@ -48938,7 +48939,7 @@
       <c r="AR267" s="176"/>
       <c r="AS267" s="176"/>
     </row>
-    <row r="268" spans="1:45" ht="15.75">
+    <row r="268" spans="1:45" ht="15.75" hidden="1">
       <c r="A268" s="198" t="s">
         <v>799</v>
       </c>
@@ -48997,7 +48998,7 @@
       <c r="AR268" s="176"/>
       <c r="AS268" s="176"/>
     </row>
-    <row r="269" spans="1:45" ht="15.75">
+    <row r="269" spans="1:45" ht="15.75" hidden="1">
       <c r="A269" s="198" t="s">
         <v>800</v>
       </c>
@@ -49054,7 +49055,7 @@
       <c r="AR269" s="176"/>
       <c r="AS269" s="176"/>
     </row>
-    <row r="270" spans="1:45" ht="15.75">
+    <row r="270" spans="1:45" ht="15.75" hidden="1">
       <c r="A270" s="198" t="s">
         <v>803</v>
       </c>
@@ -49109,7 +49110,7 @@
       <c r="AR270" s="176"/>
       <c r="AS270" s="176"/>
     </row>
-    <row r="271" spans="1:45" ht="15.75">
+    <row r="271" spans="1:45" ht="15.75" hidden="1">
       <c r="A271" s="198" t="s">
         <v>801</v>
       </c>
@@ -49166,7 +49167,7 @@
       <c r="AR271" s="176"/>
       <c r="AS271" s="176"/>
     </row>
-    <row r="272" spans="1:45" ht="15.75">
+    <row r="272" spans="1:45" ht="15.75" hidden="1">
       <c r="A272" s="198" t="s">
         <v>802</v>
       </c>
@@ -49225,7 +49226,7 @@
       <c r="AR272" s="176"/>
       <c r="AS272" s="176"/>
     </row>
-    <row r="273" spans="1:45" ht="15.75">
+    <row r="273" spans="1:45" ht="15.75" hidden="1">
       <c r="A273" s="198" t="s">
         <v>804</v>
       </c>
@@ -49284,7 +49285,7 @@
       <c r="AR273" s="176"/>
       <c r="AS273" s="176"/>
     </row>
-    <row r="274" spans="1:45" ht="15.75">
+    <row r="274" spans="1:45" ht="15.75" hidden="1">
       <c r="A274" s="198" t="s">
         <v>805</v>
       </c>
@@ -49343,7 +49344,7 @@
       <c r="AR274" s="176"/>
       <c r="AS274" s="176"/>
     </row>
-    <row r="275" spans="1:45" ht="15.75">
+    <row r="275" spans="1:45" ht="15.75" hidden="1">
       <c r="A275" s="198" t="s">
         <v>806</v>
       </c>
@@ -49402,7 +49403,7 @@
       <c r="AR275" s="176"/>
       <c r="AS275" s="176"/>
     </row>
-    <row r="276" spans="1:45" ht="15.75">
+    <row r="276" spans="1:45" ht="15.75" hidden="1">
       <c r="A276" s="198" t="s">
         <v>807</v>
       </c>
@@ -49457,7 +49458,7 @@
       <c r="AR276" s="176"/>
       <c r="AS276" s="176"/>
     </row>
-    <row r="277" spans="1:45" ht="15.75">
+    <row r="277" spans="1:45" ht="15.75" hidden="1">
       <c r="A277" s="198" t="s">
         <v>808</v>
       </c>
@@ -49512,7 +49513,7 @@
       <c r="AR277" s="176"/>
       <c r="AS277" s="176"/>
     </row>
-    <row r="278" spans="1:45" ht="15.75">
+    <row r="278" spans="1:45" ht="15.75" hidden="1">
       <c r="A278" s="198" t="s">
         <v>809</v>
       </c>
@@ -49567,7 +49568,7 @@
       <c r="AR278" s="176"/>
       <c r="AS278" s="176"/>
     </row>
-    <row r="279" spans="1:45" ht="15.75">
+    <row r="279" spans="1:45" ht="15.75" hidden="1">
       <c r="A279" s="198" t="s">
         <v>810</v>
       </c>
@@ -49622,7 +49623,7 @@
       <c r="AR279" s="176"/>
       <c r="AS279" s="176"/>
     </row>
-    <row r="280" spans="1:45" ht="15.75">
+    <row r="280" spans="1:45" ht="15.75" hidden="1">
       <c r="A280" s="198" t="s">
         <v>811</v>
       </c>
@@ -49677,7 +49678,7 @@
       <c r="AR280" s="176"/>
       <c r="AS280" s="176"/>
     </row>
-    <row r="281" spans="1:45" ht="15.75">
+    <row r="281" spans="1:45" ht="15.75" hidden="1">
       <c r="A281" s="198" t="s">
         <v>812</v>
       </c>
@@ -49732,7 +49733,7 @@
       <c r="AR281" s="176"/>
       <c r="AS281" s="176"/>
     </row>
-    <row r="282" spans="1:45" ht="15.75">
+    <row r="282" spans="1:45" ht="15.75" hidden="1">
       <c r="A282" s="198" t="s">
         <v>813</v>
       </c>
@@ -49787,7 +49788,7 @@
       <c r="AR282" s="176"/>
       <c r="AS282" s="176"/>
     </row>
-    <row r="283" spans="1:45" ht="15.75">
+    <row r="283" spans="1:45" ht="15.75" hidden="1">
       <c r="A283" s="198" t="s">
         <v>814</v>
       </c>
@@ -49842,7 +49843,7 @@
       <c r="AR283" s="176"/>
       <c r="AS283" s="176"/>
     </row>
-    <row r="284" spans="1:45" ht="15.75">
+    <row r="284" spans="1:45" ht="15.75" hidden="1">
       <c r="A284" s="198" t="s">
         <v>815</v>
       </c>
@@ -49901,7 +49902,7 @@
       <c r="AR284" s="176"/>
       <c r="AS284" s="176"/>
     </row>
-    <row r="285" spans="1:45" ht="15.75">
+    <row r="285" spans="1:45" ht="15.75" hidden="1">
       <c r="A285" s="198" t="s">
         <v>816</v>
       </c>
@@ -49960,7 +49961,7 @@
       <c r="AR285" s="176"/>
       <c r="AS285" s="176"/>
     </row>
-    <row r="286" spans="1:45" ht="15.75">
+    <row r="286" spans="1:45" ht="15.75" hidden="1">
       <c r="A286" s="198" t="s">
         <v>817</v>
       </c>
@@ -50019,7 +50020,7 @@
       <c r="AR286" s="176"/>
       <c r="AS286" s="176"/>
     </row>
-    <row r="287" spans="1:45" ht="15.75">
+    <row r="287" spans="1:45" ht="15.75" hidden="1">
       <c r="A287" s="198" t="s">
         <v>818</v>
       </c>
@@ -50078,7 +50079,7 @@
       <c r="AR287" s="176"/>
       <c r="AS287" s="176"/>
     </row>
-    <row r="288" spans="1:45" ht="15.75">
+    <row r="288" spans="1:45" ht="15.75" hidden="1">
       <c r="A288" s="198" t="s">
         <v>819</v>
       </c>
@@ -50133,7 +50134,7 @@
       <c r="AR288" s="176"/>
       <c r="AS288" s="176"/>
     </row>
-    <row r="289" spans="1:45" ht="15.75">
+    <row r="289" spans="1:45" ht="15.75" hidden="1">
       <c r="A289" s="198" t="s">
         <v>820</v>
       </c>
@@ -50188,7 +50189,7 @@
       <c r="AR289" s="176"/>
       <c r="AS289" s="176"/>
     </row>
-    <row r="290" spans="1:45" ht="15.75">
+    <row r="290" spans="1:45" ht="15.75" hidden="1">
       <c r="A290" s="198" t="s">
         <v>821</v>
       </c>
@@ -50247,7 +50248,7 @@
       <c r="AR290" s="176"/>
       <c r="AS290" s="176"/>
     </row>
-    <row r="291" spans="1:45" ht="15.75">
+    <row r="291" spans="1:45" ht="15.75" hidden="1">
       <c r="A291" s="198" t="s">
         <v>822</v>
       </c>
@@ -50306,7 +50307,7 @@
       <c r="AR291" s="176"/>
       <c r="AS291" s="176"/>
     </row>
-    <row r="292" spans="1:45" ht="15.75">
+    <row r="292" spans="1:45" ht="15.75" hidden="1">
       <c r="A292" s="198" t="s">
         <v>823</v>
       </c>
@@ -50365,7 +50366,7 @@
       <c r="AR292" s="176"/>
       <c r="AS292" s="176"/>
     </row>
-    <row r="293" spans="1:45" ht="15.75">
+    <row r="293" spans="1:45" ht="15.75" hidden="1">
       <c r="A293" s="198" t="s">
         <v>824</v>
       </c>
@@ -50424,7 +50425,7 @@
       <c r="AR293" s="176"/>
       <c r="AS293" s="176"/>
     </row>
-    <row r="294" spans="1:45" ht="15.75">
+    <row r="294" spans="1:45" ht="15.75" hidden="1">
       <c r="A294" s="198" t="s">
         <v>825</v>
       </c>
@@ -50479,7 +50480,7 @@
       <c r="AR294" s="176"/>
       <c r="AS294" s="176"/>
     </row>
-    <row r="295" spans="1:45" ht="15.75">
+    <row r="295" spans="1:45" ht="15.75" hidden="1">
       <c r="A295" s="198" t="s">
         <v>826</v>
       </c>
@@ -50534,7 +50535,7 @@
       <c r="AR295" s="176"/>
       <c r="AS295" s="176"/>
     </row>
-    <row r="296" spans="1:45" ht="15.75">
+    <row r="296" spans="1:45" ht="15.75" hidden="1">
       <c r="A296" s="198" t="s">
         <v>827</v>
       </c>
@@ -50593,7 +50594,7 @@
       <c r="AR296" s="176"/>
       <c r="AS296" s="176"/>
     </row>
-    <row r="297" spans="1:45" ht="15.75">
+    <row r="297" spans="1:45" ht="15.75" hidden="1">
       <c r="A297" s="198" t="s">
         <v>828</v>
       </c>
@@ -50652,7 +50653,7 @@
       <c r="AR297" s="176"/>
       <c r="AS297" s="176"/>
     </row>
-    <row r="298" spans="1:45" ht="15.75">
+    <row r="298" spans="1:45" ht="15.75" hidden="1">
       <c r="A298" s="198" t="s">
         <v>829</v>
       </c>
@@ -50711,7 +50712,7 @@
       <c r="AR298" s="176"/>
       <c r="AS298" s="176"/>
     </row>
-    <row r="299" spans="1:45" ht="15.75">
+    <row r="299" spans="1:45" ht="15.75" hidden="1">
       <c r="A299" s="198" t="s">
         <v>830</v>
       </c>
@@ -50770,7 +50771,7 @@
       <c r="AR299" s="176"/>
       <c r="AS299" s="176"/>
     </row>
-    <row r="300" spans="1:45" ht="15.75">
+    <row r="300" spans="1:45" ht="15.75" hidden="1">
       <c r="A300" s="198" t="s">
         <v>831</v>
       </c>
@@ -50825,7 +50826,7 @@
       <c r="AR300" s="176"/>
       <c r="AS300" s="176"/>
     </row>
-    <row r="301" spans="1:45" ht="15.75">
+    <row r="301" spans="1:45" ht="15.75" hidden="1">
       <c r="A301" s="198" t="s">
         <v>832</v>
       </c>
@@ -50880,7 +50881,7 @@
       <c r="AR301" s="176"/>
       <c r="AS301" s="176"/>
     </row>
-    <row r="302" spans="1:45" ht="15.75">
+    <row r="302" spans="1:45" ht="15.75" hidden="1">
       <c r="A302" s="198" t="s">
         <v>833</v>
       </c>
@@ -50939,7 +50940,7 @@
       <c r="AR302" s="176"/>
       <c r="AS302" s="176"/>
     </row>
-    <row r="303" spans="1:45" ht="15.75">
+    <row r="303" spans="1:45" ht="15.75" hidden="1">
       <c r="A303" s="198" t="s">
         <v>834</v>
       </c>
@@ -50998,7 +50999,7 @@
       <c r="AR303" s="176"/>
       <c r="AS303" s="176"/>
     </row>
-    <row r="304" spans="1:45" ht="15.75">
+    <row r="304" spans="1:45" ht="15.75" hidden="1">
       <c r="A304" s="198" t="s">
         <v>835</v>
       </c>
@@ -51057,7 +51058,7 @@
       <c r="AR304" s="176"/>
       <c r="AS304" s="176"/>
     </row>
-    <row r="305" spans="1:45" ht="15.75">
+    <row r="305" spans="1:45" ht="15.75" hidden="1">
       <c r="A305" s="198" t="s">
         <v>836</v>
       </c>
@@ -51116,7 +51117,7 @@
       <c r="AR305" s="176"/>
       <c r="AS305" s="176"/>
     </row>
-    <row r="306" spans="1:45" ht="15.75">
+    <row r="306" spans="1:45" ht="15.75" hidden="1">
       <c r="A306" s="198" t="s">
         <v>837</v>
       </c>
@@ -51171,7 +51172,7 @@
       <c r="AR306" s="176"/>
       <c r="AS306" s="176"/>
     </row>
-    <row r="307" spans="1:45" ht="15.75">
+    <row r="307" spans="1:45" ht="15.75" hidden="1">
       <c r="A307" s="198" t="s">
         <v>838</v>
       </c>
@@ -51226,7 +51227,7 @@
       <c r="AR307" s="176"/>
       <c r="AS307" s="176"/>
     </row>
-    <row r="308" spans="1:45" ht="15.75">
+    <row r="308" spans="1:45" ht="15.75" hidden="1">
       <c r="A308" s="198" t="s">
         <v>839</v>
       </c>
@@ -51281,7 +51282,7 @@
       <c r="AR308" s="176"/>
       <c r="AS308" s="176"/>
     </row>
-    <row r="309" spans="1:45" ht="15.75">
+    <row r="309" spans="1:45" ht="15.75" hidden="1">
       <c r="A309" s="198" t="s">
         <v>840</v>
       </c>
@@ -51336,7 +51337,7 @@
       <c r="AR309" s="176"/>
       <c r="AS309" s="176"/>
     </row>
-    <row r="310" spans="1:45" ht="15.75">
+    <row r="310" spans="1:45" ht="15.75" hidden="1">
       <c r="A310" s="198" t="s">
         <v>841</v>
       </c>
@@ -51391,7 +51392,7 @@
       <c r="AR310" s="176"/>
       <c r="AS310" s="176"/>
     </row>
-    <row r="311" spans="1:45" ht="15.75">
+    <row r="311" spans="1:45" ht="15.75" hidden="1">
       <c r="A311" s="198" t="s">
         <v>842</v>
       </c>
@@ -51446,7 +51447,7 @@
       <c r="AR311" s="176"/>
       <c r="AS311" s="176"/>
     </row>
-    <row r="312" spans="1:45" ht="15.75">
+    <row r="312" spans="1:45" ht="15.75" hidden="1">
       <c r="A312" s="198" t="s">
         <v>843</v>
       </c>
@@ -51501,7 +51502,7 @@
       <c r="AR312" s="176"/>
       <c r="AS312" s="176"/>
     </row>
-    <row r="313" spans="1:45" ht="15.75">
+    <row r="313" spans="1:45" ht="15.75" hidden="1">
       <c r="A313" s="198" t="s">
         <v>844</v>
       </c>
@@ -51556,7 +51557,7 @@
       <c r="AR313" s="176"/>
       <c r="AS313" s="176"/>
     </row>
-    <row r="314" spans="1:45" ht="15.75">
+    <row r="314" spans="1:45" ht="15.75" hidden="1">
       <c r="A314" s="198" t="s">
         <v>845</v>
       </c>
@@ -51615,7 +51616,7 @@
       <c r="AR314" s="176"/>
       <c r="AS314" s="176"/>
     </row>
-    <row r="315" spans="1:45" ht="15.75">
+    <row r="315" spans="1:45" ht="15.75" hidden="1">
       <c r="A315" s="198" t="s">
         <v>846</v>
       </c>
@@ -51674,7 +51675,7 @@
       <c r="AR315" s="176"/>
       <c r="AS315" s="176"/>
     </row>
-    <row r="316" spans="1:45" ht="15.75">
+    <row r="316" spans="1:45" ht="15.75" hidden="1">
       <c r="A316" s="198" t="s">
         <v>847</v>
       </c>
@@ -51733,7 +51734,7 @@
       <c r="AR316" s="176"/>
       <c r="AS316" s="176"/>
     </row>
-    <row r="317" spans="1:45" ht="15.75">
+    <row r="317" spans="1:45" ht="15.75" hidden="1">
       <c r="A317" s="198" t="s">
         <v>848</v>
       </c>
@@ -51792,7 +51793,7 @@
       <c r="AR317" s="176"/>
       <c r="AS317" s="176"/>
     </row>
-    <row r="318" spans="1:45" ht="15.75">
+    <row r="318" spans="1:45" ht="15.75" hidden="1">
       <c r="A318" s="198" t="s">
         <v>849</v>
       </c>
@@ -51847,7 +51848,7 @@
       <c r="AR318" s="176"/>
       <c r="AS318" s="176"/>
     </row>
-    <row r="319" spans="1:45" ht="15.75">
+    <row r="319" spans="1:45" ht="15.75" hidden="1">
       <c r="A319" s="198" t="s">
         <v>850</v>
       </c>
@@ -51902,7 +51903,7 @@
       <c r="AR319" s="176"/>
       <c r="AS319" s="176"/>
     </row>
-    <row r="320" spans="1:45" ht="15.75">
+    <row r="320" spans="1:45" ht="15.75" hidden="1">
       <c r="A320" s="198" t="s">
         <v>851</v>
       </c>
@@ -51961,7 +51962,7 @@
       <c r="AR320" s="176"/>
       <c r="AS320" s="176"/>
     </row>
-    <row r="321" spans="1:45" ht="15.75">
+    <row r="321" spans="1:45" ht="15.75" hidden="1">
       <c r="A321" s="198" t="s">
         <v>852</v>
       </c>
@@ -52020,7 +52021,7 @@
       <c r="AR321" s="176"/>
       <c r="AS321" s="176"/>
     </row>
-    <row r="322" spans="1:45" ht="15.75">
+    <row r="322" spans="1:45" ht="15.75" hidden="1">
       <c r="A322" s="198" t="s">
         <v>853</v>
       </c>
@@ -52079,7 +52080,7 @@
       <c r="AR322" s="176"/>
       <c r="AS322" s="176"/>
     </row>
-    <row r="323" spans="1:45" ht="15.75">
+    <row r="323" spans="1:45" ht="15.75" hidden="1">
       <c r="A323" s="198" t="s">
         <v>854</v>
       </c>
@@ -52138,7 +52139,7 @@
       <c r="AR323" s="176"/>
       <c r="AS323" s="176"/>
     </row>
-    <row r="324" spans="1:45" ht="15.75">
+    <row r="324" spans="1:45" ht="15.75" hidden="1">
       <c r="A324" s="198" t="s">
         <v>855</v>
       </c>
@@ -52193,7 +52194,7 @@
       <c r="AR324" s="176"/>
       <c r="AS324" s="176"/>
     </row>
-    <row r="325" spans="1:45" ht="15.75">
+    <row r="325" spans="1:45" ht="15.75" hidden="1">
       <c r="A325" s="198" t="s">
         <v>856</v>
       </c>
@@ -52248,7 +52249,7 @@
       <c r="AR325" s="176"/>
       <c r="AS325" s="176"/>
     </row>
-    <row r="326" spans="1:45" ht="15.75">
+    <row r="326" spans="1:45" ht="15.75" hidden="1">
       <c r="A326" s="198" t="s">
         <v>857</v>
       </c>
@@ -52307,7 +52308,7 @@
       <c r="AR326" s="176"/>
       <c r="AS326" s="176"/>
     </row>
-    <row r="327" spans="1:45" ht="15.75">
+    <row r="327" spans="1:45" ht="15.75" hidden="1">
       <c r="A327" s="198" t="s">
         <v>858</v>
       </c>
@@ -52366,7 +52367,7 @@
       <c r="AR327" s="176"/>
       <c r="AS327" s="176"/>
     </row>
-    <row r="328" spans="1:45" ht="15.75">
+    <row r="328" spans="1:45" ht="15.75" hidden="1">
       <c r="A328" s="198" t="s">
         <v>859</v>
       </c>
@@ -52425,7 +52426,7 @@
       <c r="AR328" s="176"/>
       <c r="AS328" s="176"/>
     </row>
-    <row r="329" spans="1:45" ht="15.75">
+    <row r="329" spans="1:45" ht="15.75" hidden="1">
       <c r="A329" s="198" t="s">
         <v>860</v>
       </c>
@@ -52484,7 +52485,7 @@
       <c r="AR329" s="176"/>
       <c r="AS329" s="176"/>
     </row>
-    <row r="330" spans="1:45" ht="15.75">
+    <row r="330" spans="1:45" ht="15.75" hidden="1">
       <c r="A330" s="198" t="s">
         <v>861</v>
       </c>
@@ -52539,7 +52540,7 @@
       <c r="AR330" s="176"/>
       <c r="AS330" s="176"/>
     </row>
-    <row r="331" spans="1:45" ht="15.75">
+    <row r="331" spans="1:45" ht="15.75" hidden="1">
       <c r="A331" s="198" t="s">
         <v>862</v>
       </c>
@@ -52594,7 +52595,7 @@
       <c r="AR331" s="176"/>
       <c r="AS331" s="176"/>
     </row>
-    <row r="332" spans="1:45" ht="15.75">
+    <row r="332" spans="1:45" ht="15.75" hidden="1">
       <c r="A332" s="198" t="s">
         <v>863</v>
       </c>
@@ -52653,7 +52654,7 @@
       <c r="AR332" s="176"/>
       <c r="AS332" s="176"/>
     </row>
-    <row r="333" spans="1:45" ht="15.75">
+    <row r="333" spans="1:45" ht="15.75" hidden="1">
       <c r="A333" s="198" t="s">
         <v>864</v>
       </c>
@@ -52712,7 +52713,7 @@
       <c r="AR333" s="176"/>
       <c r="AS333" s="176"/>
     </row>
-    <row r="334" spans="1:45" ht="15.75">
+    <row r="334" spans="1:45" ht="15.75" hidden="1">
       <c r="A334" s="198" t="s">
         <v>865</v>
       </c>
@@ -52771,7 +52772,7 @@
       <c r="AR334" s="176"/>
       <c r="AS334" s="176"/>
     </row>
-    <row r="335" spans="1:45" ht="15.75">
+    <row r="335" spans="1:45" ht="15.75" hidden="1">
       <c r="A335" s="198" t="s">
         <v>866</v>
       </c>
@@ -52830,7 +52831,7 @@
       <c r="AR335" s="176"/>
       <c r="AS335" s="176"/>
     </row>
-    <row r="336" spans="1:45" ht="15.75">
+    <row r="336" spans="1:45" ht="15.75" hidden="1">
       <c r="A336" s="198" t="s">
         <v>867</v>
       </c>
@@ -52885,7 +52886,7 @@
       <c r="AR336" s="176"/>
       <c r="AS336" s="176"/>
     </row>
-    <row r="337" spans="1:45" ht="16.5" thickBot="1">
+    <row r="337" spans="1:45" ht="15.75" hidden="1">
       <c r="A337" s="443" t="s">
         <v>868</v>
       </c>
@@ -52940,7 +52941,7 @@
       <c r="AR337" s="444"/>
       <c r="AS337" s="444"/>
     </row>
-    <row r="338" spans="1:45" ht="15.75">
+    <row r="338" spans="1:45" ht="15.75" hidden="1">
       <c r="A338" s="449" t="s">
         <v>869</v>
       </c>
@@ -53001,7 +53002,7 @@
       <c r="AR338" s="447"/>
       <c r="AS338" s="447"/>
     </row>
-    <row r="339" spans="1:45" ht="15.75">
+    <row r="339" spans="1:45" ht="15.75" hidden="1">
       <c r="A339" s="450" t="s">
         <v>870</v>
       </c>
@@ -53068,7 +53069,7 @@
       <c r="AR339" s="176"/>
       <c r="AS339" s="176"/>
     </row>
-    <row r="340" spans="1:45" ht="15.75">
+    <row r="340" spans="1:45" ht="15.75" hidden="1">
       <c r="A340" s="450" t="s">
         <v>871</v>
       </c>
@@ -53129,7 +53130,7 @@
       <c r="AR340" s="176"/>
       <c r="AS340" s="176"/>
     </row>
-    <row r="341" spans="1:45" ht="16.5" thickBot="1">
+    <row r="341" spans="1:45" ht="16.5" hidden="1" thickBot="1">
       <c r="A341" s="451" t="s">
         <v>872</v>
       </c>
@@ -53190,7 +53191,7 @@
       <c r="AR341" s="448"/>
       <c r="AS341" s="448"/>
     </row>
-    <row r="342" spans="1:45" ht="15.75">
+    <row r="342" spans="1:45" ht="15.75" hidden="1">
       <c r="A342" s="445" t="s">
         <v>873</v>
       </c>
@@ -53245,7 +53246,7 @@
       <c r="AR342" s="446"/>
       <c r="AS342" s="446"/>
     </row>
-    <row r="343" spans="1:45" ht="15.75">
+    <row r="343" spans="1:45" ht="15.75" hidden="1">
       <c r="A343" s="198" t="s">
         <v>874</v>
       </c>
@@ -53300,7 +53301,7 @@
       <c r="AR343" s="176"/>
       <c r="AS343" s="176"/>
     </row>
-    <row r="344" spans="1:45" ht="15.75">
+    <row r="344" spans="1:45" ht="15.75" hidden="1">
       <c r="A344" s="198" t="s">
         <v>875</v>
       </c>
@@ -53359,7 +53360,7 @@
       <c r="AR344" s="176"/>
       <c r="AS344" s="176"/>
     </row>
-    <row r="345" spans="1:45" ht="15.75">
+    <row r="345" spans="1:45" ht="15.75" hidden="1">
       <c r="A345" s="198" t="s">
         <v>876</v>
       </c>
@@ -53418,7 +53419,7 @@
       <c r="AR345" s="176"/>
       <c r="AS345" s="176"/>
     </row>
-    <row r="346" spans="1:45" ht="15.75">
+    <row r="346" spans="1:45" ht="15.75" hidden="1">
       <c r="A346" s="198" t="s">
         <v>877</v>
       </c>
@@ -53477,7 +53478,7 @@
       <c r="AR346" s="176"/>
       <c r="AS346" s="176"/>
     </row>
-    <row r="347" spans="1:45" ht="15.75">
+    <row r="347" spans="1:45" ht="15.75" hidden="1">
       <c r="A347" s="198" t="s">
         <v>878</v>
       </c>
@@ -53536,7 +53537,7 @@
       <c r="AR347" s="176"/>
       <c r="AS347" s="176"/>
     </row>
-    <row r="348" spans="1:45" ht="15.75">
+    <row r="348" spans="1:45" ht="15.75" hidden="1">
       <c r="A348" s="198" t="s">
         <v>879</v>
       </c>
@@ -53591,7 +53592,7 @@
       <c r="AR348" s="176"/>
       <c r="AS348" s="176"/>
     </row>
-    <row r="349" spans="1:45" ht="15.75">
+    <row r="349" spans="1:45" ht="15.75" hidden="1">
       <c r="A349" s="198" t="s">
         <v>880</v>
       </c>
@@ -53646,7 +53647,7 @@
       <c r="AR349" s="176"/>
       <c r="AS349" s="176"/>
     </row>
-    <row r="350" spans="1:45" ht="15.75">
+    <row r="350" spans="1:45" ht="15.75" hidden="1">
       <c r="A350" s="198" t="s">
         <v>881</v>
       </c>
@@ -53705,7 +53706,7 @@
       <c r="AR350" s="176"/>
       <c r="AS350" s="176"/>
     </row>
-    <row r="351" spans="1:45" ht="15.75">
+    <row r="351" spans="1:45" ht="15.75" hidden="1">
       <c r="A351" s="198" t="s">
         <v>882</v>
       </c>
@@ -53764,7 +53765,7 @@
       <c r="AR351" s="176"/>
       <c r="AS351" s="176"/>
     </row>
-    <row r="352" spans="1:45" ht="15.75">
+    <row r="352" spans="1:45" ht="15.75" hidden="1">
       <c r="A352" s="198" t="s">
         <v>883</v>
       </c>
@@ -53823,7 +53824,7 @@
       <c r="AR352" s="176"/>
       <c r="AS352" s="176"/>
     </row>
-    <row r="353" spans="1:45" ht="15.75">
+    <row r="353" spans="1:45" ht="15.75" hidden="1">
       <c r="A353" s="198" t="s">
         <v>884</v>
       </c>
@@ -53880,7 +53881,7 @@
       <c r="AR353" s="176"/>
       <c r="AS353" s="176"/>
     </row>
-    <row r="354" spans="1:45" ht="15.75">
+    <row r="354" spans="1:45" ht="15.75" hidden="1">
       <c r="A354" s="198" t="s">
         <v>885</v>
       </c>
@@ -53935,7 +53936,7 @@
       <c r="AR354" s="176"/>
       <c r="AS354" s="176"/>
     </row>
-    <row r="355" spans="1:45" ht="15.75">
+    <row r="355" spans="1:45" ht="15.75" hidden="1">
       <c r="A355" s="198" t="s">
         <v>886</v>
       </c>
@@ -53992,7 +53993,7 @@
       <c r="AR355" s="176"/>
       <c r="AS355" s="176"/>
     </row>
-    <row r="356" spans="1:45" ht="15.75">
+    <row r="356" spans="1:45" ht="15.75" hidden="1">
       <c r="A356" s="198" t="s">
         <v>887</v>
       </c>
@@ -54051,7 +54052,7 @@
       <c r="AR356" s="176"/>
       <c r="AS356" s="176"/>
     </row>
-    <row r="357" spans="1:45" ht="15.75">
+    <row r="357" spans="1:45" ht="15.75" hidden="1">
       <c r="A357" s="198" t="s">
         <v>888</v>
       </c>
@@ -54110,7 +54111,7 @@
       <c r="AR357" s="176"/>
       <c r="AS357" s="176"/>
     </row>
-    <row r="358" spans="1:45" ht="15.75">
+    <row r="358" spans="1:45" ht="15.75" hidden="1">
       <c r="A358" s="198" t="s">
         <v>889</v>
       </c>
@@ -54169,7 +54170,7 @@
       <c r="AR358" s="176"/>
       <c r="AS358" s="176"/>
     </row>
-    <row r="359" spans="1:45" ht="15.75">
+    <row r="359" spans="1:45" ht="15.75" hidden="1">
       <c r="A359" s="198" t="s">
         <v>890</v>
       </c>
@@ -54228,7 +54229,7 @@
       <c r="AR359" s="176"/>
       <c r="AS359" s="176"/>
     </row>
-    <row r="360" spans="1:45" ht="15.75">
+    <row r="360" spans="1:45" ht="15.75" hidden="1">
       <c r="A360" s="198" t="s">
         <v>891</v>
       </c>
@@ -54283,7 +54284,7 @@
       <c r="AR360" s="176"/>
       <c r="AS360" s="176"/>
     </row>
-    <row r="361" spans="1:45" ht="15.75">
+    <row r="361" spans="1:45" ht="15.75" hidden="1">
       <c r="A361" s="198" t="s">
         <v>892</v>
       </c>
@@ -54338,7 +54339,7 @@
       <c r="AR361" s="176"/>
       <c r="AS361" s="176"/>
     </row>
-    <row r="362" spans="1:45" ht="15.75">
+    <row r="362" spans="1:45" ht="15.75" hidden="1">
       <c r="A362" s="198" t="s">
         <v>893</v>
       </c>
@@ -54397,7 +54398,7 @@
       <c r="AR362" s="176"/>
       <c r="AS362" s="176"/>
     </row>
-    <row r="363" spans="1:45" ht="15.75">
+    <row r="363" spans="1:45" ht="15.75" hidden="1">
       <c r="A363" s="198" t="s">
         <v>894</v>
       </c>
@@ -54456,7 +54457,7 @@
       <c r="AR363" s="176"/>
       <c r="AS363" s="176"/>
     </row>
-    <row r="364" spans="1:45" ht="15.75">
+    <row r="364" spans="1:45" ht="15.75" hidden="1">
       <c r="A364" s="198" t="s">
         <v>895</v>
       </c>
@@ -54515,7 +54516,7 @@
       <c r="AR364" s="176"/>
       <c r="AS364" s="176"/>
     </row>
-    <row r="365" spans="1:45" ht="15.75">
+    <row r="365" spans="1:45" ht="15.75" hidden="1">
       <c r="A365" s="198" t="s">
         <v>896</v>
       </c>
@@ -54574,7 +54575,7 @@
       <c r="AR365" s="176"/>
       <c r="AS365" s="176"/>
     </row>
-    <row r="366" spans="1:45" ht="15.75">
+    <row r="366" spans="1:45" ht="15.75" hidden="1">
       <c r="A366" s="198" t="s">
         <v>897</v>
       </c>
@@ -54629,7 +54630,7 @@
       <c r="AR366" s="176"/>
       <c r="AS366" s="176"/>
     </row>
-    <row r="367" spans="1:45" ht="15.75">
+    <row r="367" spans="1:45" ht="15.75" hidden="1">
       <c r="A367" s="198" t="s">
         <v>898</v>
       </c>
@@ -54684,7 +54685,7 @@
       <c r="AR367" s="176"/>
       <c r="AS367" s="176"/>
     </row>
-    <row r="368" spans="1:45" ht="15.75">
+    <row r="368" spans="1:45" ht="15.75" hidden="1">
       <c r="A368" s="198" t="s">
         <v>899</v>
       </c>
@@ -54743,7 +54744,7 @@
       <c r="AR368" s="176"/>
       <c r="AS368" s="176"/>
     </row>
-    <row r="369" spans="1:45" ht="15.75">
+    <row r="369" spans="1:45" ht="15.75" hidden="1">
       <c r="A369" s="198" t="s">
         <v>900</v>
       </c>
@@ -54802,7 +54803,7 @@
       <c r="AR369" s="176"/>
       <c r="AS369" s="176"/>
     </row>
-    <row r="370" spans="1:45" ht="15.75">
+    <row r="370" spans="1:45" ht="15.75" hidden="1">
       <c r="A370" s="198" t="s">
         <v>901</v>
       </c>
@@ -54861,7 +54862,7 @@
       <c r="AR370" s="176"/>
       <c r="AS370" s="176"/>
     </row>
-    <row r="371" spans="1:45" ht="15.75">
+    <row r="371" spans="1:45" ht="15.75" hidden="1">
       <c r="A371" s="198" t="s">
         <v>902</v>
       </c>
@@ -54920,7 +54921,7 @@
       <c r="AR371" s="176"/>
       <c r="AS371" s="176"/>
     </row>
-    <row r="372" spans="1:45" ht="15.75">
+    <row r="372" spans="1:45" ht="15.75" hidden="1">
       <c r="A372" s="198" t="s">
         <v>903</v>
       </c>
@@ -54975,7 +54976,7 @@
       <c r="AR372" s="176"/>
       <c r="AS372" s="176"/>
     </row>
-    <row r="373" spans="1:45" ht="15.75">
+    <row r="373" spans="1:45" ht="15.75" hidden="1">
       <c r="A373" s="198" t="s">
         <v>904</v>
       </c>
@@ -55030,7 +55031,7 @@
       <c r="AR373" s="176"/>
       <c r="AS373" s="176"/>
     </row>
-    <row r="374" spans="1:45" ht="15.75">
+    <row r="374" spans="1:45" ht="15.75" hidden="1">
       <c r="A374" s="198" t="s">
         <v>905</v>
       </c>
@@ -55089,7 +55090,7 @@
       <c r="AR374" s="176"/>
       <c r="AS374" s="176"/>
     </row>
-    <row r="375" spans="1:45" ht="15.75">
+    <row r="375" spans="1:45" ht="15.75" hidden="1">
       <c r="A375" s="198" t="s">
         <v>906</v>
       </c>
@@ -55148,7 +55149,7 @@
       <c r="AR375" s="176"/>
       <c r="AS375" s="176"/>
     </row>
-    <row r="376" spans="1:45" ht="15.75">
+    <row r="376" spans="1:45" ht="15.75" hidden="1">
       <c r="A376" s="198" t="s">
         <v>907</v>
       </c>
@@ -55207,7 +55208,7 @@
       <c r="AR376" s="176"/>
       <c r="AS376" s="176"/>
     </row>
-    <row r="377" spans="1:45" ht="15.75">
+    <row r="377" spans="1:45" ht="15.75" hidden="1">
       <c r="A377" s="198" t="s">
         <v>908</v>
       </c>
@@ -55266,7 +55267,7 @@
       <c r="AR377" s="176"/>
       <c r="AS377" s="176"/>
     </row>
-    <row r="378" spans="1:45" ht="15.75">
+    <row r="378" spans="1:45" ht="15.75" hidden="1">
       <c r="A378" s="198" t="s">
         <v>909</v>
       </c>
@@ -55321,7 +55322,7 @@
       <c r="AR378" s="176"/>
       <c r="AS378" s="176"/>
     </row>
-    <row r="379" spans="1:45" ht="15.75">
+    <row r="379" spans="1:45" ht="15.75" hidden="1">
       <c r="A379" s="198" t="s">
         <v>910</v>
       </c>
@@ -55376,7 +55377,7 @@
       <c r="AR379" s="176"/>
       <c r="AS379" s="176"/>
     </row>
-    <row r="380" spans="1:45" ht="15.75">
+    <row r="380" spans="1:45" ht="15.75" hidden="1">
       <c r="A380" s="198" t="s">
         <v>911</v>
       </c>
@@ -55435,7 +55436,7 @@
       <c r="AR380" s="176"/>
       <c r="AS380" s="176"/>
     </row>
-    <row r="381" spans="1:45" ht="15.75">
+    <row r="381" spans="1:45" ht="15.75" hidden="1">
       <c r="A381" s="198" t="s">
         <v>912</v>
       </c>
@@ -55494,7 +55495,7 @@
       <c r="AR381" s="176"/>
       <c r="AS381" s="176"/>
     </row>
-    <row r="382" spans="1:45" ht="15.75">
+    <row r="382" spans="1:45" ht="15.75" hidden="1">
       <c r="A382" s="198" t="s">
         <v>913</v>
       </c>
@@ -55553,7 +55554,7 @@
       <c r="AR382" s="176"/>
       <c r="AS382" s="176"/>
     </row>
-    <row r="383" spans="1:45" ht="15.75">
+    <row r="383" spans="1:45" ht="15.75" hidden="1">
       <c r="A383" s="198" t="s">
         <v>914</v>
       </c>
@@ -55612,7 +55613,7 @@
       <c r="AR383" s="176"/>
       <c r="AS383" s="176"/>
     </row>
-    <row r="384" spans="1:45" ht="15.75">
+    <row r="384" spans="1:45" ht="15.75" hidden="1">
       <c r="A384" s="198" t="s">
         <v>915</v>
       </c>
@@ -55667,7 +55668,7 @@
       <c r="AR384" s="176"/>
       <c r="AS384" s="176"/>
     </row>
-    <row r="385" spans="1:45" ht="15.75">
+    <row r="385" spans="1:45" ht="15.75" hidden="1">
       <c r="A385" s="198" t="s">
         <v>916</v>
       </c>
@@ -55722,7 +55723,7 @@
       <c r="AR385" s="176"/>
       <c r="AS385" s="176"/>
     </row>
-    <row r="386" spans="1:45" ht="15.75">
+    <row r="386" spans="1:45" ht="15.75" hidden="1">
       <c r="A386" s="198" t="s">
         <v>917</v>
       </c>
@@ -55777,7 +55778,7 @@
       <c r="AR386" s="176"/>
       <c r="AS386" s="176"/>
     </row>
-    <row r="387" spans="1:45" ht="15.75">
+    <row r="387" spans="1:45" ht="15.75" hidden="1">
       <c r="A387" s="198" t="s">
         <v>918</v>
       </c>
@@ -55832,7 +55833,7 @@
       <c r="AR387" s="176"/>
       <c r="AS387" s="176"/>
     </row>
-    <row r="388" spans="1:45" ht="15.75">
+    <row r="388" spans="1:45" ht="15.75" hidden="1">
       <c r="A388" s="198" t="s">
         <v>919</v>
       </c>
@@ -55887,7 +55888,7 @@
       <c r="AR388" s="176"/>
       <c r="AS388" s="176"/>
     </row>
-    <row r="389" spans="1:45" ht="15.75">
+    <row r="389" spans="1:45" ht="15.75" hidden="1">
       <c r="A389" s="198" t="s">
         <v>920</v>
       </c>
@@ -55942,7 +55943,7 @@
       <c r="AR389" s="176"/>
       <c r="AS389" s="176"/>
     </row>
-    <row r="390" spans="1:45" ht="15.75">
+    <row r="390" spans="1:45" ht="15.75" hidden="1">
       <c r="A390" s="198" t="s">
         <v>921</v>
       </c>
@@ -55997,7 +55998,7 @@
       <c r="AR390" s="176"/>
       <c r="AS390" s="176"/>
     </row>
-    <row r="391" spans="1:45" ht="15.75">
+    <row r="391" spans="1:45" ht="15.75" hidden="1">
       <c r="A391" s="198" t="s">
         <v>922</v>
       </c>
@@ -56052,7 +56053,7 @@
       <c r="AR391" s="176"/>
       <c r="AS391" s="176"/>
     </row>
-    <row r="392" spans="1:45" ht="15.75">
+    <row r="392" spans="1:45" ht="15.75" hidden="1">
       <c r="A392" s="198" t="s">
         <v>923</v>
       </c>
@@ -56107,7 +56108,7 @@
       <c r="AR392" s="176"/>
       <c r="AS392" s="176"/>
     </row>
-    <row r="393" spans="1:45" ht="15.75">
+    <row r="393" spans="1:45" ht="15.75" hidden="1">
       <c r="A393" s="198" t="s">
         <v>924</v>
       </c>
@@ -56162,7 +56163,7 @@
       <c r="AR393" s="176"/>
       <c r="AS393" s="176"/>
     </row>
-    <row r="394" spans="1:45" ht="15.75">
+    <row r="394" spans="1:45" ht="15.75" hidden="1">
       <c r="A394" s="198" t="s">
         <v>925</v>
       </c>
@@ -56217,7 +56218,7 @@
       <c r="AR394" s="176"/>
       <c r="AS394" s="176"/>
     </row>
-    <row r="395" spans="1:45" ht="15.75">
+    <row r="395" spans="1:45" ht="15.75" hidden="1">
       <c r="A395" s="198" t="s">
         <v>926</v>
       </c>
@@ -56272,7 +56273,7 @@
       <c r="AR395" s="176"/>
       <c r="AS395" s="176"/>
     </row>
-    <row r="396" spans="1:45" ht="15.75">
+    <row r="396" spans="1:45" ht="15.75" hidden="1">
       <c r="A396" s="198" t="s">
         <v>927</v>
       </c>
@@ -56327,7 +56328,7 @@
       <c r="AR396" s="176"/>
       <c r="AS396" s="176"/>
     </row>
-    <row r="397" spans="1:45" ht="15.75">
+    <row r="397" spans="1:45" ht="15.75" hidden="1">
       <c r="A397" s="198" t="s">
         <v>928</v>
       </c>
@@ -56382,7 +56383,7 @@
       <c r="AR397" s="176"/>
       <c r="AS397" s="176"/>
     </row>
-    <row r="398" spans="1:45" ht="15.75">
+    <row r="398" spans="1:45" ht="15.75" hidden="1">
       <c r="A398" s="198" t="s">
         <v>929</v>
       </c>
@@ -56437,7 +56438,7 @@
       <c r="AR398" s="176"/>
       <c r="AS398" s="176"/>
     </row>
-    <row r="399" spans="1:45" ht="15.75">
+    <row r="399" spans="1:45" ht="15.75" hidden="1">
       <c r="A399" s="198" t="s">
         <v>930</v>
       </c>
@@ -56492,7 +56493,7 @@
       <c r="AR399" s="176"/>
       <c r="AS399" s="176"/>
     </row>
-    <row r="400" spans="1:45" ht="15.75">
+    <row r="400" spans="1:45" ht="15.75" hidden="1">
       <c r="A400" s="198" t="s">
         <v>931</v>
       </c>
@@ -56547,7 +56548,7 @@
       <c r="AR400" s="176"/>
       <c r="AS400" s="176"/>
     </row>
-    <row r="401" spans="1:594" ht="15.75">
+    <row r="401" spans="1:594" ht="15.75" hidden="1">
       <c r="A401" s="198" t="s">
         <v>932</v>
       </c>
@@ -56602,7 +56603,7 @@
       <c r="AR401" s="176"/>
       <c r="AS401" s="176"/>
     </row>
-    <row r="402" spans="1:594" ht="15.75">
+    <row r="402" spans="1:594" ht="15.75" hidden="1">
       <c r="A402" s="198" t="s">
         <v>933</v>
       </c>
@@ -56657,7 +56658,7 @@
       <c r="AR402" s="176"/>
       <c r="AS402" s="176"/>
     </row>
-    <row r="403" spans="1:594" ht="15.75">
+    <row r="403" spans="1:594" ht="15.75" hidden="1">
       <c r="A403" s="199" t="s">
         <v>1005</v>
       </c>
@@ -56705,7 +56706,7 @@
       <c r="AR403" s="79"/>
       <c r="AS403" s="79"/>
     </row>
-    <row r="404" spans="1:594" ht="16.5" thickBot="1">
+    <row r="404" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A404" s="187" t="s">
         <v>710</v>
       </c>
@@ -56753,7 +56754,7 @@
       <c r="AR404" s="79"/>
       <c r="AS404" s="79"/>
     </row>
-    <row r="405" spans="1:594" ht="15.75">
+    <row r="405" spans="1:594" ht="15.75" hidden="1">
       <c r="A405" s="200" t="s">
         <v>1131</v>
       </c>
@@ -56812,7 +56813,7 @@
       <c r="AR405" s="267"/>
       <c r="AS405" s="267"/>
     </row>
-    <row r="406" spans="1:594" s="61" customFormat="1" ht="15.75">
+    <row r="406" spans="1:594" s="61" customFormat="1" ht="15.75" hidden="1">
       <c r="A406" s="200" t="s">
         <v>1102</v>
       </c>
@@ -57419,7 +57420,7 @@
       <c r="VU406" s="53"/>
       <c r="VV406" s="53"/>
     </row>
-    <row r="407" spans="1:594" s="61" customFormat="1" ht="15.75">
+    <row r="407" spans="1:594" s="61" customFormat="1" ht="15.75" hidden="1">
       <c r="A407" s="200" t="s">
         <v>1103</v>
       </c>
@@ -58026,7 +58027,7 @@
       <c r="VU407" s="53"/>
       <c r="VV407" s="53"/>
     </row>
-    <row r="408" spans="1:594" ht="15.75">
+    <row r="408" spans="1:594" ht="15.75" hidden="1">
       <c r="A408" s="200" t="s">
         <v>1104</v>
       </c>
@@ -58085,7 +58086,7 @@
       <c r="AR408" s="267"/>
       <c r="AS408" s="267"/>
     </row>
-    <row r="409" spans="1:594" s="61" customFormat="1" ht="15.75">
+    <row r="409" spans="1:594" s="61" customFormat="1" ht="15.75" hidden="1">
       <c r="A409" s="503" t="s">
         <v>1136</v>
       </c>
@@ -58692,7 +58693,7 @@
       <c r="VU409" s="53"/>
       <c r="VV409" s="53"/>
     </row>
-    <row r="410" spans="1:594" s="61" customFormat="1" ht="14.45" customHeight="1">
+    <row r="410" spans="1:594" s="61" customFormat="1" ht="14.45" hidden="1" customHeight="1">
       <c r="A410" s="200" t="s">
         <v>711</v>
       </c>
@@ -59301,7 +59302,7 @@
       <c r="VU410" s="53"/>
       <c r="VV410" s="53"/>
     </row>
-    <row r="411" spans="1:594" s="61" customFormat="1" ht="15.75">
+    <row r="411" spans="1:594" s="61" customFormat="1" ht="15.75" hidden="1">
       <c r="A411" s="200" t="s">
         <v>1105</v>
       </c>
@@ -59908,7 +59909,7 @@
       <c r="VU411" s="53"/>
       <c r="VV411" s="53"/>
     </row>
-    <row r="412" spans="1:594" s="61" customFormat="1" ht="15.75">
+    <row r="412" spans="1:594" s="61" customFormat="1" ht="15.75" hidden="1">
       <c r="A412" s="200" t="s">
         <v>1106</v>
       </c>
@@ -60515,7 +60516,7 @@
       <c r="VU412" s="53"/>
       <c r="VV412" s="53"/>
     </row>
-    <row r="413" spans="1:594" ht="15.75">
+    <row r="413" spans="1:594" ht="15.75" hidden="1">
       <c r="A413" s="270" t="s">
         <v>1107</v>
       </c>
@@ -60572,7 +60573,7 @@
       <c r="AR413" s="278"/>
       <c r="AS413" s="278"/>
     </row>
-    <row r="414" spans="1:594" ht="15.75">
+    <row r="414" spans="1:594" ht="15.75" hidden="1">
       <c r="A414" s="270" t="s">
         <v>1108</v>
       </c>
@@ -60629,7 +60630,7 @@
       <c r="AR414" s="278"/>
       <c r="AS414" s="278"/>
     </row>
-    <row r="415" spans="1:594" ht="15.75">
+    <row r="415" spans="1:594" ht="15.75" hidden="1">
       <c r="A415" s="270" t="s">
         <v>1109</v>
       </c>
@@ -60686,7 +60687,7 @@
       <c r="AR415" s="278"/>
       <c r="AS415" s="278"/>
     </row>
-    <row r="416" spans="1:594" ht="15.75">
+    <row r="416" spans="1:594" ht="15.75" hidden="1">
       <c r="A416" s="270" t="s">
         <v>1111</v>
       </c>
@@ -60743,7 +60744,7 @@
       <c r="AR416" s="278"/>
       <c r="AS416" s="278"/>
     </row>
-    <row r="417" spans="1:594" ht="15.75">
+    <row r="417" spans="1:594" ht="15.75" hidden="1">
       <c r="A417" s="270" t="s">
         <v>1110</v>
       </c>
@@ -60800,7 +60801,7 @@
       <c r="AR417" s="278"/>
       <c r="AS417" s="278"/>
     </row>
-    <row r="418" spans="1:594" ht="15.6" customHeight="1">
+    <row r="418" spans="1:594" ht="15.6" hidden="1" customHeight="1">
       <c r="A418" s="270" t="s">
         <v>1112</v>
       </c>
@@ -60857,7 +60858,7 @@
       <c r="AR418" s="278"/>
       <c r="AS418" s="278"/>
     </row>
-    <row r="419" spans="1:594" ht="15.75">
+    <row r="419" spans="1:594" ht="15.75" hidden="1">
       <c r="A419" s="270" t="s">
         <v>1113</v>
       </c>
@@ -60914,7 +60915,7 @@
       <c r="AR419" s="278"/>
       <c r="AS419" s="278"/>
     </row>
-    <row r="420" spans="1:594" ht="15" customHeight="1">
+    <row r="420" spans="1:594" ht="15" hidden="1" customHeight="1">
       <c r="A420" s="270" t="s">
         <v>1114</v>
       </c>
@@ -60971,7 +60972,7 @@
       <c r="AR420" s="278"/>
       <c r="AS420" s="278"/>
     </row>
-    <row r="421" spans="1:594" ht="11.45" customHeight="1" thickBot="1">
+    <row r="421" spans="1:594" ht="11.45" hidden="1" customHeight="1" thickBot="1">
       <c r="A421" s="270" t="s">
         <v>1115</v>
       </c>
@@ -61028,7 +61029,7 @@
       <c r="AR421" s="278"/>
       <c r="AS421" s="278"/>
     </row>
-    <row r="422" spans="1:594" ht="16.5" thickBot="1">
+    <row r="422" spans="1:594" ht="16.5" hidden="1" thickBot="1">
       <c r="A422" s="187" t="s">
         <v>1002</v>
       </c>
@@ -61078,7 +61079,7 @@
       <c r="AR422" s="79"/>
       <c r="AS422" s="79"/>
     </row>
-    <row r="423" spans="1:594" s="61" customFormat="1" ht="15.75">
+    <row r="423" spans="1:594" s="61" customFormat="1" ht="15.75" hidden="1">
       <c r="A423" s="200" t="s">
         <v>1004</v>
       </c>
@@ -61683,7 +61684,7 @@
       <c r="VU423" s="53"/>
       <c r="VV423" s="53"/>
     </row>
-    <row r="424" spans="1:594" ht="15.75">
+    <row r="424" spans="1:594" ht="15.75" hidden="1">
       <c r="A424" s="187" t="s">
         <v>1009</v>
       </c>
@@ -61726,7 +61727,7 @@
       <c r="AR424" s="79"/>
       <c r="AS424" s="79"/>
     </row>
-    <row r="425" spans="1:594" ht="15.75">
+    <row r="425" spans="1:594" ht="15.75" hidden="1">
       <c r="A425" s="187" t="s">
         <v>1013</v>
       </c>
@@ -61772,7 +61773,7 @@
       <c r="AR425" s="79"/>
       <c r="AS425" s="79"/>
     </row>
-    <row r="426" spans="1:594" ht="15.75">
+    <row r="426" spans="1:594" ht="15.75" hidden="1">
       <c r="A426" s="187" t="s">
         <v>1014</v>
       </c>
@@ -61818,7 +61819,7 @@
       <c r="AR426" s="79"/>
       <c r="AS426" s="79"/>
     </row>
-    <row r="427" spans="1:594" ht="23.45" customHeight="1" thickBot="1">
+    <row r="427" spans="1:594" ht="23.45" hidden="1" customHeight="1" thickBot="1">
       <c r="A427" s="201" t="s">
         <v>1015</v>
       </c>
@@ -61875,7 +61876,7 @@
       <c r="AR427" s="268"/>
       <c r="AS427" s="268"/>
     </row>
-    <row r="428" spans="1:594" ht="23.45" customHeight="1" thickBot="1">
+    <row r="428" spans="1:594" ht="23.45" hidden="1" customHeight="1" thickBot="1">
       <c r="A428" s="551" t="s">
         <v>1233</v>
       </c>
@@ -61932,7 +61933,7 @@
       <c r="AR428" s="559"/>
       <c r="AS428" s="559"/>
     </row>
-    <row r="429" spans="1:594" ht="15.75" thickBot="1">
+    <row r="429" spans="1:594" ht="15.75" hidden="1" thickBot="1">
       <c r="A429" s="298" t="s">
         <v>1181</v>
       </c>
@@ -62041,13 +62042,20 @@
       <c r="AS430" s="64"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AS429">
+    <filterColumn colId="40">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -62143,7 +62151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O403"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -73629,7 +73637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -73920,7 +73928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A264"/>
   <sheetViews>
     <sheetView topLeftCell="A246" workbookViewId="0">
@@ -75258,7 +75266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -75666,11 +75674,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -75905,13 +75913,13 @@
         <v>1258</v>
       </c>
       <c r="G8" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="28">
-        <v>2</v>
-      </c>
-      <c r="I8" s="597" t="s">
-        <v>1264</v>
+        <v>1</v>
+      </c>
+      <c r="I8" s="594" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/conductor_Covid.xlsx
+++ b/conductor_Covid.xlsx
@@ -16,14 +16,14 @@
     <sheet name="COMBI_FARMACOS" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">taulavariables!$A$1:$AS$429</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">taulavariables!$A$1:$AT$429</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="1268">
   <si>
     <t>camp</t>
   </si>
@@ -3821,10 +3821,13 @@
     <t>ACEI or ARB con estatinas</t>
   </si>
   <si>
-    <t>ajuste13.2</t>
-  </si>
-  <si>
-    <t>ajuste14.2</t>
+    <t>model1</t>
+  </si>
+  <si>
+    <t>model2</t>
+  </si>
+  <si>
+    <t>model3</t>
   </si>
 </sst>
 </file>
@@ -4810,7 +4813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="598">
+  <cellXfs count="599">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6237,6 +6240,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6514,7 +6518,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6523,18 +6527,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:VV430"/>
+  <dimension ref="A1:VS430"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A64" sqref="A64"/>
+      <selection pane="bottomRight" activeCell="AT81" sqref="AT81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" style="55" customWidth="1"/>
+    <col min="1" max="1" width="28" style="55" customWidth="1"/>
     <col min="2" max="2" width="21.140625" style="55" customWidth="1"/>
     <col min="3" max="3" width="58.7109375" style="55" customWidth="1"/>
     <col min="4" max="4" width="45.28515625" style="55" customWidth="1"/>
@@ -6562,12 +6566,10 @@
     <col min="33" max="34" width="9.140625" style="54"/>
     <col min="35" max="35" width="15.28515625" style="54" customWidth="1"/>
     <col min="36" max="42" width="27.7109375" style="53" customWidth="1"/>
-    <col min="43" max="43" width="9.140625" style="53"/>
-    <col min="44" max="45" width="27.7109375" style="53" customWidth="1"/>
-    <col min="46" max="16384" width="9.140625" style="53"/>
+    <col min="43" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="16.5" thickBot="1">
+    <row r="1" spans="1:46" ht="16.5" thickBot="1">
       <c r="A1" s="177" t="s">
         <v>0</v>
       </c>
@@ -6697,14 +6699,17 @@
       <c r="AQ1" s="251" t="s">
         <v>1138</v>
       </c>
-      <c r="AR1" s="251" t="s">
+      <c r="AR1" s="598" t="s">
         <v>1265</v>
       </c>
-      <c r="AS1" s="251" t="s">
+      <c r="AS1" s="598" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="2" spans="1:45" ht="15.75" customHeight="1">
+      <c r="AT1" s="598" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" ht="15.75" customHeight="1">
       <c r="A2" s="423" t="s">
         <v>10</v>
       </c>
@@ -6800,10 +6805,17 @@
         <v>1</v>
       </c>
       <c r="AQ2" s="371"/>
-      <c r="AR2" s="579"/>
-      <c r="AS2" s="579"/>
-    </row>
-    <row r="3" spans="1:45" ht="15" customHeight="1" thickBot="1">
+      <c r="AR2" s="53">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="53">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="433" t="s">
         <v>11</v>
       </c>
@@ -6901,10 +6913,17 @@
         <v>2</v>
       </c>
       <c r="AQ3" s="209"/>
-      <c r="AR3" s="580"/>
-      <c r="AS3" s="580"/>
-    </row>
-    <row r="4" spans="1:45" ht="15" hidden="1" customHeight="1">
+      <c r="AR3" s="53">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="53">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" ht="15" hidden="1" customHeight="1">
       <c r="A4" s="269" t="s">
         <v>1179</v>
       </c>
@@ -6960,10 +6979,8 @@
       <c r="AO4" s="252"/>
       <c r="AP4" s="252"/>
       <c r="AQ4" s="210"/>
-      <c r="AR4" s="252"/>
-      <c r="AS4" s="252"/>
-    </row>
-    <row r="5" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="5" spans="1:46" ht="15.75" hidden="1">
       <c r="A5" s="184" t="s">
         <v>12</v>
       </c>
@@ -7025,10 +7042,8 @@
       <c r="AO5" s="253"/>
       <c r="AP5" s="253"/>
       <c r="AQ5" s="208"/>
-      <c r="AR5" s="253"/>
-      <c r="AS5" s="253"/>
-    </row>
-    <row r="6" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="6" spans="1:46" ht="16.5" hidden="1" thickBot="1">
       <c r="A6" s="185" t="s">
         <v>13</v>
       </c>
@@ -7090,10 +7105,8 @@
       <c r="AO6" s="253"/>
       <c r="AP6" s="253"/>
       <c r="AQ6" s="208"/>
-      <c r="AR6" s="253"/>
-      <c r="AS6" s="253"/>
-    </row>
-    <row r="7" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="7" spans="1:46" ht="15.75">
       <c r="A7" s="182" t="s">
         <v>14</v>
       </c>
@@ -7155,10 +7168,8 @@
       <c r="AO7" s="253"/>
       <c r="AP7" s="253"/>
       <c r="AQ7" s="208"/>
-      <c r="AR7" s="253"/>
-      <c r="AS7" s="253"/>
-    </row>
-    <row r="8" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="8" spans="1:46" ht="15.75">
       <c r="A8" s="183" t="s">
         <v>15</v>
       </c>
@@ -7220,10 +7231,8 @@
       <c r="AO8" s="253"/>
       <c r="AP8" s="253"/>
       <c r="AQ8" s="208"/>
-      <c r="AR8" s="253"/>
-      <c r="AS8" s="253"/>
-    </row>
-    <row r="9" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="9" spans="1:46" ht="15.75">
       <c r="A9" s="183" t="s">
         <v>16</v>
       </c>
@@ -7285,10 +7294,8 @@
       <c r="AO9" s="253"/>
       <c r="AP9" s="253"/>
       <c r="AQ9" s="208"/>
-      <c r="AR9" s="253"/>
-      <c r="AS9" s="253"/>
-    </row>
-    <row r="10" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="10" spans="1:46" ht="15.75" hidden="1">
       <c r="A10" s="183" t="s">
         <v>17</v>
       </c>
@@ -7350,10 +7357,8 @@
       <c r="AO10" s="253"/>
       <c r="AP10" s="253"/>
       <c r="AQ10" s="208"/>
-      <c r="AR10" s="253"/>
-      <c r="AS10" s="253"/>
-    </row>
-    <row r="11" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="11" spans="1:46" ht="15.75" hidden="1">
       <c r="A11" s="183" t="s">
         <v>18</v>
       </c>
@@ -7417,10 +7422,8 @@
       <c r="AO11" s="253"/>
       <c r="AP11" s="253"/>
       <c r="AQ11" s="208"/>
-      <c r="AR11" s="253"/>
-      <c r="AS11" s="253"/>
-    </row>
-    <row r="12" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="12" spans="1:46" ht="15.75" hidden="1">
       <c r="A12" s="183" t="s">
         <v>19</v>
       </c>
@@ -7482,10 +7485,8 @@
       <c r="AO12" s="253"/>
       <c r="AP12" s="253"/>
       <c r="AQ12" s="208"/>
-      <c r="AR12" s="253"/>
-      <c r="AS12" s="253"/>
-    </row>
-    <row r="13" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="13" spans="1:46" ht="15.75" hidden="1">
       <c r="A13" s="183" t="s">
         <v>20</v>
       </c>
@@ -7543,10 +7544,8 @@
       <c r="AO13" s="253"/>
       <c r="AP13" s="253"/>
       <c r="AQ13" s="208"/>
-      <c r="AR13" s="253"/>
-      <c r="AS13" s="253"/>
-    </row>
-    <row r="14" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="14" spans="1:46" ht="15.75" hidden="1">
       <c r="A14" s="183" t="s">
         <v>21</v>
       </c>
@@ -7606,10 +7605,8 @@
       <c r="AO14" s="253"/>
       <c r="AP14" s="253"/>
       <c r="AQ14" s="208"/>
-      <c r="AR14" s="253"/>
-      <c r="AS14" s="253"/>
-    </row>
-    <row r="15" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="15" spans="1:46" ht="15.75" hidden="1">
       <c r="A15" s="183" t="s">
         <v>22</v>
       </c>
@@ -7669,10 +7666,8 @@
       <c r="AO15" s="253"/>
       <c r="AP15" s="253"/>
       <c r="AQ15" s="208"/>
-      <c r="AR15" s="253"/>
-      <c r="AS15" s="253"/>
-    </row>
-    <row r="16" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="16" spans="1:46" ht="15.75" hidden="1">
       <c r="A16" s="183" t="s">
         <v>23</v>
       </c>
@@ -7732,10 +7727,8 @@
       <c r="AO16" s="253"/>
       <c r="AP16" s="253"/>
       <c r="AQ16" s="208"/>
-      <c r="AR16" s="253"/>
-      <c r="AS16" s="253"/>
-    </row>
-    <row r="17" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="17" spans="1:43" ht="15.75" hidden="1">
       <c r="A17" s="183" t="s">
         <v>24</v>
       </c>
@@ -7793,10 +7786,8 @@
       <c r="AO17" s="253"/>
       <c r="AP17" s="253"/>
       <c r="AQ17" s="208"/>
-      <c r="AR17" s="253"/>
-      <c r="AS17" s="253"/>
-    </row>
-    <row r="18" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="18" spans="1:43" ht="15.75" hidden="1">
       <c r="A18" s="183" t="s">
         <v>25</v>
       </c>
@@ -7856,10 +7847,8 @@
       <c r="AO18" s="253"/>
       <c r="AP18" s="253"/>
       <c r="AQ18" s="208"/>
-      <c r="AR18" s="253"/>
-      <c r="AS18" s="253"/>
-    </row>
-    <row r="19" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="19" spans="1:43" ht="15.75" hidden="1">
       <c r="A19" s="183" t="s">
         <v>26</v>
       </c>
@@ -7919,10 +7908,8 @@
       <c r="AO19" s="253"/>
       <c r="AP19" s="253"/>
       <c r="AQ19" s="208"/>
-      <c r="AR19" s="253"/>
-      <c r="AS19" s="253"/>
-    </row>
-    <row r="20" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="20" spans="1:43" ht="15.75" hidden="1">
       <c r="A20" s="183" t="s">
         <v>27</v>
       </c>
@@ -7982,10 +7969,8 @@
       <c r="AO20" s="253"/>
       <c r="AP20" s="253"/>
       <c r="AQ20" s="208"/>
-      <c r="AR20" s="253"/>
-      <c r="AS20" s="253"/>
-    </row>
-    <row r="21" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="21" spans="1:43" ht="15.75" hidden="1">
       <c r="A21" s="183" t="s">
         <v>28</v>
       </c>
@@ -8045,10 +8030,8 @@
       <c r="AO21" s="253"/>
       <c r="AP21" s="253"/>
       <c r="AQ21" s="208"/>
-      <c r="AR21" s="253"/>
-      <c r="AS21" s="253"/>
-    </row>
-    <row r="22" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="22" spans="1:43" ht="15.75" hidden="1">
       <c r="A22" s="183" t="s">
         <v>29</v>
       </c>
@@ -8108,10 +8091,8 @@
       <c r="AO22" s="253"/>
       <c r="AP22" s="253"/>
       <c r="AQ22" s="208"/>
-      <c r="AR22" s="253"/>
-      <c r="AS22" s="253"/>
-    </row>
-    <row r="23" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="23" spans="1:43" ht="15.75" hidden="1">
       <c r="A23" s="183" t="s">
         <v>30</v>
       </c>
@@ -8171,10 +8152,8 @@
       <c r="AO23" s="253"/>
       <c r="AP23" s="253"/>
       <c r="AQ23" s="208"/>
-      <c r="AR23" s="253"/>
-      <c r="AS23" s="253"/>
-    </row>
-    <row r="24" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="24" spans="1:43" ht="15.75" hidden="1">
       <c r="A24" s="183" t="s">
         <v>31</v>
       </c>
@@ -8232,10 +8211,8 @@
       <c r="AO24" s="253"/>
       <c r="AP24" s="253"/>
       <c r="AQ24" s="208"/>
-      <c r="AR24" s="253"/>
-      <c r="AS24" s="253"/>
-    </row>
-    <row r="25" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="25" spans="1:43" ht="15.75" hidden="1">
       <c r="A25" s="183" t="s">
         <v>32</v>
       </c>
@@ -8295,10 +8272,8 @@
       <c r="AO25" s="253"/>
       <c r="AP25" s="253"/>
       <c r="AQ25" s="208"/>
-      <c r="AR25" s="253"/>
-      <c r="AS25" s="253"/>
-    </row>
-    <row r="26" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="26" spans="1:43" ht="15.75" hidden="1">
       <c r="A26" s="183" t="s">
         <v>33</v>
       </c>
@@ -8358,10 +8333,8 @@
       <c r="AO26" s="253"/>
       <c r="AP26" s="253"/>
       <c r="AQ26" s="208"/>
-      <c r="AR26" s="253"/>
-      <c r="AS26" s="253"/>
-    </row>
-    <row r="27" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="27" spans="1:43" ht="15.75" hidden="1">
       <c r="A27" s="183" t="s">
         <v>34</v>
       </c>
@@ -8421,10 +8394,8 @@
       <c r="AO27" s="253"/>
       <c r="AP27" s="253"/>
       <c r="AQ27" s="208"/>
-      <c r="AR27" s="253"/>
-      <c r="AS27" s="253"/>
-    </row>
-    <row r="28" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="28" spans="1:43" ht="15.75" hidden="1">
       <c r="A28" s="183" t="s">
         <v>35</v>
       </c>
@@ -8484,10 +8455,8 @@
       <c r="AO28" s="253"/>
       <c r="AP28" s="253"/>
       <c r="AQ28" s="208"/>
-      <c r="AR28" s="253"/>
-      <c r="AS28" s="253"/>
-    </row>
-    <row r="29" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="29" spans="1:43" ht="15.75" hidden="1">
       <c r="A29" s="183" t="s">
         <v>36</v>
       </c>
@@ -8547,10 +8516,8 @@
       <c r="AO29" s="253"/>
       <c r="AP29" s="253"/>
       <c r="AQ29" s="208"/>
-      <c r="AR29" s="253"/>
-      <c r="AS29" s="253"/>
-    </row>
-    <row r="30" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="30" spans="1:43" ht="15.75" hidden="1">
       <c r="A30" s="183" t="s">
         <v>37</v>
       </c>
@@ -8610,10 +8577,8 @@
       <c r="AO30" s="253"/>
       <c r="AP30" s="253"/>
       <c r="AQ30" s="208"/>
-      <c r="AR30" s="253"/>
-      <c r="AS30" s="253"/>
-    </row>
-    <row r="31" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="31" spans="1:43" ht="15.75" hidden="1">
       <c r="A31" s="183" t="s">
         <v>70</v>
       </c>
@@ -8667,10 +8632,8 @@
       <c r="AO31" s="253"/>
       <c r="AP31" s="253"/>
       <c r="AQ31" s="208"/>
-      <c r="AR31" s="253"/>
-      <c r="AS31" s="253"/>
-    </row>
-    <row r="32" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="32" spans="1:43" ht="15.75" hidden="1">
       <c r="A32" s="183" t="s">
         <v>71</v>
       </c>
@@ -8724,10 +8687,8 @@
       <c r="AO32" s="253"/>
       <c r="AP32" s="253"/>
       <c r="AQ32" s="208"/>
-      <c r="AR32" s="253"/>
-      <c r="AS32" s="253"/>
-    </row>
-    <row r="33" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="33" spans="1:591" ht="15.75" hidden="1">
       <c r="A33" s="183" t="s">
         <v>72</v>
       </c>
@@ -8781,10 +8742,8 @@
       <c r="AO33" s="253"/>
       <c r="AP33" s="253"/>
       <c r="AQ33" s="208"/>
-      <c r="AR33" s="253"/>
-      <c r="AS33" s="253"/>
-    </row>
-    <row r="34" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="34" spans="1:591" ht="15.75" hidden="1">
       <c r="A34" s="183" t="s">
         <v>73</v>
       </c>
@@ -8838,10 +8797,8 @@
       <c r="AO34" s="253"/>
       <c r="AP34" s="253"/>
       <c r="AQ34" s="208"/>
-      <c r="AR34" s="253"/>
-      <c r="AS34" s="253"/>
-    </row>
-    <row r="35" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="35" spans="1:591" ht="15.75" hidden="1">
       <c r="A35" s="183" t="s">
         <v>74</v>
       </c>
@@ -8895,10 +8852,8 @@
       <c r="AO35" s="253"/>
       <c r="AP35" s="253"/>
       <c r="AQ35" s="208"/>
-      <c r="AR35" s="253"/>
-      <c r="AS35" s="253"/>
-    </row>
-    <row r="36" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="36" spans="1:591" ht="15.75" hidden="1">
       <c r="A36" s="183" t="s">
         <v>75</v>
       </c>
@@ -8952,10 +8907,8 @@
       <c r="AO36" s="253"/>
       <c r="AP36" s="253"/>
       <c r="AQ36" s="208"/>
-      <c r="AR36" s="253"/>
-      <c r="AS36" s="253"/>
-    </row>
-    <row r="37" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="37" spans="1:591" ht="15.75" hidden="1">
       <c r="A37" s="183" t="s">
         <v>76</v>
       </c>
@@ -9009,10 +8962,8 @@
       <c r="AO37" s="253"/>
       <c r="AP37" s="253"/>
       <c r="AQ37" s="208"/>
-      <c r="AR37" s="253"/>
-      <c r="AS37" s="253"/>
-    </row>
-    <row r="38" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="38" spans="1:591" ht="16.5" hidden="1" thickBot="1">
       <c r="A38" s="183" t="s">
         <v>77</v>
       </c>
@@ -9066,10 +9017,8 @@
       <c r="AO38" s="253"/>
       <c r="AP38" s="253"/>
       <c r="AQ38" s="208"/>
-      <c r="AR38" s="253"/>
-      <c r="AS38" s="253"/>
-    </row>
-    <row r="39" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="39" spans="1:591" s="59" customFormat="1" ht="15.75" hidden="1">
       <c r="A39" s="186" t="s">
         <v>1082</v>
       </c>
@@ -9128,8 +9077,8 @@
       <c r="AO39" s="254"/>
       <c r="AP39" s="254"/>
       <c r="AQ39" s="208"/>
-      <c r="AR39" s="254"/>
-      <c r="AS39" s="254"/>
+      <c r="AR39" s="53"/>
+      <c r="AS39" s="53"/>
       <c r="AT39" s="53"/>
       <c r="AU39" s="53"/>
       <c r="AV39" s="53"/>
@@ -9676,11 +9625,8 @@
       <c r="VQ39" s="53"/>
       <c r="VR39" s="53"/>
       <c r="VS39" s="53"/>
-      <c r="VT39" s="53"/>
-      <c r="VU39" s="53"/>
-      <c r="VV39" s="53"/>
-    </row>
-    <row r="40" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="40" spans="1:591" s="59" customFormat="1" ht="15.75" hidden="1">
       <c r="A40" s="186" t="s">
         <v>1083</v>
       </c>
@@ -9739,8 +9685,8 @@
       <c r="AO40" s="254"/>
       <c r="AP40" s="254"/>
       <c r="AQ40" s="208"/>
-      <c r="AR40" s="254"/>
-      <c r="AS40" s="254"/>
+      <c r="AR40" s="53"/>
+      <c r="AS40" s="53"/>
       <c r="AT40" s="53"/>
       <c r="AU40" s="53"/>
       <c r="AV40" s="53"/>
@@ -10287,11 +10233,8 @@
       <c r="VQ40" s="53"/>
       <c r="VR40" s="53"/>
       <c r="VS40" s="53"/>
-      <c r="VT40" s="53"/>
-      <c r="VU40" s="53"/>
-      <c r="VV40" s="53"/>
-    </row>
-    <row r="41" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="41" spans="1:591" s="59" customFormat="1" ht="15.75" hidden="1">
       <c r="A41" s="186" t="s">
         <v>1084</v>
       </c>
@@ -10350,8 +10293,8 @@
       <c r="AO41" s="254"/>
       <c r="AP41" s="254"/>
       <c r="AQ41" s="208"/>
-      <c r="AR41" s="254"/>
-      <c r="AS41" s="254"/>
+      <c r="AR41" s="53"/>
+      <c r="AS41" s="53"/>
       <c r="AT41" s="53"/>
       <c r="AU41" s="53"/>
       <c r="AV41" s="53"/>
@@ -10898,11 +10841,8 @@
       <c r="VQ41" s="53"/>
       <c r="VR41" s="53"/>
       <c r="VS41" s="53"/>
-      <c r="VT41" s="53"/>
-      <c r="VU41" s="53"/>
-      <c r="VV41" s="53"/>
-    </row>
-    <row r="42" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="42" spans="1:591" s="59" customFormat="1" ht="15.75" hidden="1">
       <c r="A42" s="186" t="s">
         <v>1085</v>
       </c>
@@ -10961,8 +10901,8 @@
       <c r="AO42" s="254"/>
       <c r="AP42" s="254"/>
       <c r="AQ42" s="208"/>
-      <c r="AR42" s="254"/>
-      <c r="AS42" s="254"/>
+      <c r="AR42" s="53"/>
+      <c r="AS42" s="53"/>
       <c r="AT42" s="53"/>
       <c r="AU42" s="53"/>
       <c r="AV42" s="53"/>
@@ -11509,11 +11449,8 @@
       <c r="VQ42" s="53"/>
       <c r="VR42" s="53"/>
       <c r="VS42" s="53"/>
-      <c r="VT42" s="53"/>
-      <c r="VU42" s="53"/>
-      <c r="VV42" s="53"/>
-    </row>
-    <row r="43" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="43" spans="1:591" s="59" customFormat="1" ht="15.75" hidden="1">
       <c r="A43" s="186" t="s">
         <v>1086</v>
       </c>
@@ -11572,8 +11509,8 @@
       <c r="AO43" s="254"/>
       <c r="AP43" s="254"/>
       <c r="AQ43" s="208"/>
-      <c r="AR43" s="254"/>
-      <c r="AS43" s="254"/>
+      <c r="AR43" s="53"/>
+      <c r="AS43" s="53"/>
       <c r="AT43" s="53"/>
       <c r="AU43" s="53"/>
       <c r="AV43" s="53"/>
@@ -12120,11 +12057,8 @@
       <c r="VQ43" s="53"/>
       <c r="VR43" s="53"/>
       <c r="VS43" s="53"/>
-      <c r="VT43" s="53"/>
-      <c r="VU43" s="53"/>
-      <c r="VV43" s="53"/>
-    </row>
-    <row r="44" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="44" spans="1:591" s="59" customFormat="1" ht="15.75" hidden="1">
       <c r="A44" s="186" t="s">
         <v>1087</v>
       </c>
@@ -12183,8 +12117,8 @@
       <c r="AO44" s="254"/>
       <c r="AP44" s="254"/>
       <c r="AQ44" s="208"/>
-      <c r="AR44" s="254"/>
-      <c r="AS44" s="254"/>
+      <c r="AR44" s="53"/>
+      <c r="AS44" s="53"/>
       <c r="AT44" s="53"/>
       <c r="AU44" s="53"/>
       <c r="AV44" s="53"/>
@@ -12731,11 +12665,8 @@
       <c r="VQ44" s="53"/>
       <c r="VR44" s="53"/>
       <c r="VS44" s="53"/>
-      <c r="VT44" s="53"/>
-      <c r="VU44" s="53"/>
-      <c r="VV44" s="53"/>
-    </row>
-    <row r="45" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="45" spans="1:591" s="59" customFormat="1" ht="15.75" hidden="1">
       <c r="A45" s="186" t="s">
         <v>1088</v>
       </c>
@@ -12794,8 +12725,8 @@
       <c r="AO45" s="254"/>
       <c r="AP45" s="254"/>
       <c r="AQ45" s="208"/>
-      <c r="AR45" s="254"/>
-      <c r="AS45" s="254"/>
+      <c r="AR45" s="53"/>
+      <c r="AS45" s="53"/>
       <c r="AT45" s="53"/>
       <c r="AU45" s="53"/>
       <c r="AV45" s="53"/>
@@ -13342,11 +13273,8 @@
       <c r="VQ45" s="53"/>
       <c r="VR45" s="53"/>
       <c r="VS45" s="53"/>
-      <c r="VT45" s="53"/>
-      <c r="VU45" s="53"/>
-      <c r="VV45" s="53"/>
-    </row>
-    <row r="46" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="46" spans="1:591" s="59" customFormat="1" ht="15.75" hidden="1">
       <c r="A46" s="186" t="s">
         <v>1089</v>
       </c>
@@ -13405,8 +13333,8 @@
       <c r="AO46" s="254"/>
       <c r="AP46" s="254"/>
       <c r="AQ46" s="208"/>
-      <c r="AR46" s="254"/>
-      <c r="AS46" s="254"/>
+      <c r="AR46" s="53"/>
+      <c r="AS46" s="53"/>
       <c r="AT46" s="53"/>
       <c r="AU46" s="53"/>
       <c r="AV46" s="53"/>
@@ -13953,11 +13881,8 @@
       <c r="VQ46" s="53"/>
       <c r="VR46" s="53"/>
       <c r="VS46" s="53"/>
-      <c r="VT46" s="53"/>
-      <c r="VU46" s="53"/>
-      <c r="VV46" s="53"/>
-    </row>
-    <row r="47" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="47" spans="1:591" s="59" customFormat="1" ht="15.75" hidden="1">
       <c r="A47" s="186" t="s">
         <v>1090</v>
       </c>
@@ -14016,8 +13941,8 @@
       <c r="AO47" s="254"/>
       <c r="AP47" s="254"/>
       <c r="AQ47" s="208"/>
-      <c r="AR47" s="254"/>
-      <c r="AS47" s="254"/>
+      <c r="AR47" s="53"/>
+      <c r="AS47" s="53"/>
       <c r="AT47" s="53"/>
       <c r="AU47" s="53"/>
       <c r="AV47" s="53"/>
@@ -14564,11 +14489,8 @@
       <c r="VQ47" s="53"/>
       <c r="VR47" s="53"/>
       <c r="VS47" s="53"/>
-      <c r="VT47" s="53"/>
-      <c r="VU47" s="53"/>
-      <c r="VV47" s="53"/>
-    </row>
-    <row r="48" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="48" spans="1:591" s="59" customFormat="1" ht="15.75" hidden="1">
       <c r="A48" s="186" t="s">
         <v>1091</v>
       </c>
@@ -14627,8 +14549,8 @@
       <c r="AO48" s="254"/>
       <c r="AP48" s="254"/>
       <c r="AQ48" s="208"/>
-      <c r="AR48" s="254"/>
-      <c r="AS48" s="254"/>
+      <c r="AR48" s="53"/>
+      <c r="AS48" s="53"/>
       <c r="AT48" s="53"/>
       <c r="AU48" s="53"/>
       <c r="AV48" s="53"/>
@@ -15175,11 +15097,8 @@
       <c r="VQ48" s="53"/>
       <c r="VR48" s="53"/>
       <c r="VS48" s="53"/>
-      <c r="VT48" s="53"/>
-      <c r="VU48" s="53"/>
-      <c r="VV48" s="53"/>
-    </row>
-    <row r="49" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="49" spans="1:591" s="59" customFormat="1" ht="15.75" hidden="1">
       <c r="A49" s="186" t="s">
         <v>1092</v>
       </c>
@@ -15238,8 +15157,8 @@
       <c r="AO49" s="254"/>
       <c r="AP49" s="254"/>
       <c r="AQ49" s="208"/>
-      <c r="AR49" s="254"/>
-      <c r="AS49" s="254"/>
+      <c r="AR49" s="53"/>
+      <c r="AS49" s="53"/>
       <c r="AT49" s="53"/>
       <c r="AU49" s="53"/>
       <c r="AV49" s="53"/>
@@ -15786,11 +15705,8 @@
       <c r="VQ49" s="53"/>
       <c r="VR49" s="53"/>
       <c r="VS49" s="53"/>
-      <c r="VT49" s="53"/>
-      <c r="VU49" s="53"/>
-      <c r="VV49" s="53"/>
-    </row>
-    <row r="50" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="50" spans="1:591" s="59" customFormat="1" ht="15.75" hidden="1">
       <c r="A50" s="186" t="s">
         <v>1093</v>
       </c>
@@ -15849,8 +15765,8 @@
       <c r="AO50" s="254"/>
       <c r="AP50" s="254"/>
       <c r="AQ50" s="208"/>
-      <c r="AR50" s="254"/>
-      <c r="AS50" s="254"/>
+      <c r="AR50" s="53"/>
+      <c r="AS50" s="53"/>
       <c r="AT50" s="53"/>
       <c r="AU50" s="53"/>
       <c r="AV50" s="53"/>
@@ -16397,11 +16313,8 @@
       <c r="VQ50" s="53"/>
       <c r="VR50" s="53"/>
       <c r="VS50" s="53"/>
-      <c r="VT50" s="53"/>
-      <c r="VU50" s="53"/>
-      <c r="VV50" s="53"/>
-    </row>
-    <row r="51" spans="1:594" s="59" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="51" spans="1:591" s="59" customFormat="1" ht="15.75" hidden="1">
       <c r="A51" s="186" t="s">
         <v>1202</v>
       </c>
@@ -16458,8 +16371,8 @@
       <c r="AO51" s="254"/>
       <c r="AP51" s="254"/>
       <c r="AQ51" s="208"/>
-      <c r="AR51" s="254"/>
-      <c r="AS51" s="254"/>
+      <c r="AR51" s="53"/>
+      <c r="AS51" s="53"/>
       <c r="AT51" s="53"/>
       <c r="AU51" s="53"/>
       <c r="AV51" s="53"/>
@@ -17006,11 +16919,8 @@
       <c r="VQ51" s="53"/>
       <c r="VR51" s="53"/>
       <c r="VS51" s="53"/>
-      <c r="VT51" s="53"/>
-      <c r="VU51" s="53"/>
-      <c r="VV51" s="53"/>
-    </row>
-    <row r="52" spans="1:594" s="59" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    </row>
+    <row r="52" spans="1:591" s="59" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A52" s="186" t="s">
         <v>1094</v>
       </c>
@@ -17069,8 +16979,8 @@
       <c r="AO52" s="254"/>
       <c r="AP52" s="254"/>
       <c r="AQ52" s="208"/>
-      <c r="AR52" s="254"/>
-      <c r="AS52" s="254"/>
+      <c r="AR52" s="53"/>
+      <c r="AS52" s="53"/>
       <c r="AT52" s="53"/>
       <c r="AU52" s="53"/>
       <c r="AV52" s="53"/>
@@ -17617,11 +17527,8 @@
       <c r="VQ52" s="53"/>
       <c r="VR52" s="53"/>
       <c r="VS52" s="53"/>
-      <c r="VT52" s="53"/>
-      <c r="VU52" s="53"/>
-      <c r="VV52" s="53"/>
-    </row>
-    <row r="53" spans="1:594" s="59" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    </row>
+    <row r="53" spans="1:591" s="59" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A53" s="186" t="s">
         <v>1095</v>
       </c>
@@ -17680,8 +17587,8 @@
       <c r="AO53" s="254"/>
       <c r="AP53" s="254"/>
       <c r="AQ53" s="208"/>
-      <c r="AR53" s="254"/>
-      <c r="AS53" s="254"/>
+      <c r="AR53" s="53"/>
+      <c r="AS53" s="53"/>
       <c r="AT53" s="53"/>
       <c r="AU53" s="53"/>
       <c r="AV53" s="53"/>
@@ -18228,11 +18135,8 @@
       <c r="VQ53" s="53"/>
       <c r="VR53" s="53"/>
       <c r="VS53" s="53"/>
-      <c r="VT53" s="53"/>
-      <c r="VU53" s="53"/>
-      <c r="VV53" s="53"/>
-    </row>
-    <row r="54" spans="1:594" s="59" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    </row>
+    <row r="54" spans="1:591" s="59" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A54" s="186" t="s">
         <v>1096</v>
       </c>
@@ -18291,8 +18195,8 @@
       <c r="AO54" s="254"/>
       <c r="AP54" s="254"/>
       <c r="AQ54" s="208"/>
-      <c r="AR54" s="254"/>
-      <c r="AS54" s="254"/>
+      <c r="AR54" s="53"/>
+      <c r="AS54" s="53"/>
       <c r="AT54" s="53"/>
       <c r="AU54" s="53"/>
       <c r="AV54" s="53"/>
@@ -18839,11 +18743,8 @@
       <c r="VQ54" s="53"/>
       <c r="VR54" s="53"/>
       <c r="VS54" s="53"/>
-      <c r="VT54" s="53"/>
-      <c r="VU54" s="53"/>
-      <c r="VV54" s="53"/>
-    </row>
-    <row r="55" spans="1:594" s="59" customFormat="1" ht="15.6" hidden="1" customHeight="1">
+    </row>
+    <row r="55" spans="1:591" s="59" customFormat="1" ht="15.6" hidden="1" customHeight="1">
       <c r="A55" s="186" t="s">
         <v>1097</v>
       </c>
@@ -18902,8 +18803,8 @@
       <c r="AO55" s="254"/>
       <c r="AP55" s="254"/>
       <c r="AQ55" s="208"/>
-      <c r="AR55" s="254"/>
-      <c r="AS55" s="254"/>
+      <c r="AR55" s="53"/>
+      <c r="AS55" s="53"/>
       <c r="AT55" s="53"/>
       <c r="AU55" s="53"/>
       <c r="AV55" s="53"/>
@@ -19450,11 +19351,8 @@
       <c r="VQ55" s="53"/>
       <c r="VR55" s="53"/>
       <c r="VS55" s="53"/>
-      <c r="VT55" s="53"/>
-      <c r="VU55" s="53"/>
-      <c r="VV55" s="53"/>
-    </row>
-    <row r="56" spans="1:594" s="59" customFormat="1" ht="15.6" hidden="1" customHeight="1">
+    </row>
+    <row r="56" spans="1:591" s="59" customFormat="1" ht="15.6" hidden="1" customHeight="1">
       <c r="A56" s="186" t="s">
         <v>1098</v>
       </c>
@@ -19513,8 +19411,8 @@
       <c r="AO56" s="254"/>
       <c r="AP56" s="254"/>
       <c r="AQ56" s="208"/>
-      <c r="AR56" s="254"/>
-      <c r="AS56" s="254"/>
+      <c r="AR56" s="53"/>
+      <c r="AS56" s="53"/>
       <c r="AT56" s="53"/>
       <c r="AU56" s="53"/>
       <c r="AV56" s="53"/>
@@ -20061,11 +19959,8 @@
       <c r="VQ56" s="53"/>
       <c r="VR56" s="53"/>
       <c r="VS56" s="53"/>
-      <c r="VT56" s="53"/>
-      <c r="VU56" s="53"/>
-      <c r="VV56" s="53"/>
-    </row>
-    <row r="57" spans="1:594" s="59" customFormat="1" ht="15.6" hidden="1" customHeight="1">
+    </row>
+    <row r="57" spans="1:591" s="59" customFormat="1" ht="15.6" hidden="1" customHeight="1">
       <c r="A57" s="186" t="s">
         <v>1099</v>
       </c>
@@ -20124,8 +20019,8 @@
       <c r="AO57" s="254"/>
       <c r="AP57" s="254"/>
       <c r="AQ57" s="208"/>
-      <c r="AR57" s="254"/>
-      <c r="AS57" s="254"/>
+      <c r="AR57" s="53"/>
+      <c r="AS57" s="53"/>
       <c r="AT57" s="53"/>
       <c r="AU57" s="53"/>
       <c r="AV57" s="53"/>
@@ -20672,11 +20567,8 @@
       <c r="VQ57" s="53"/>
       <c r="VR57" s="53"/>
       <c r="VS57" s="53"/>
-      <c r="VT57" s="53"/>
-      <c r="VU57" s="53"/>
-      <c r="VV57" s="53"/>
-    </row>
-    <row r="58" spans="1:594" s="59" customFormat="1" ht="15.6" hidden="1" customHeight="1">
+    </row>
+    <row r="58" spans="1:591" s="59" customFormat="1" ht="15.6" hidden="1" customHeight="1">
       <c r="A58" s="186" t="s">
         <v>1100</v>
       </c>
@@ -20735,8 +20627,8 @@
       <c r="AO58" s="254"/>
       <c r="AP58" s="254"/>
       <c r="AQ58" s="208"/>
-      <c r="AR58" s="254"/>
-      <c r="AS58" s="254"/>
+      <c r="AR58" s="53"/>
+      <c r="AS58" s="53"/>
       <c r="AT58" s="53"/>
       <c r="AU58" s="53"/>
       <c r="AV58" s="53"/>
@@ -21283,11 +21175,8 @@
       <c r="VQ58" s="53"/>
       <c r="VR58" s="53"/>
       <c r="VS58" s="53"/>
-      <c r="VT58" s="53"/>
-      <c r="VU58" s="53"/>
-      <c r="VV58" s="53"/>
-    </row>
-    <row r="59" spans="1:594" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1">
+    </row>
+    <row r="59" spans="1:591" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1">
       <c r="A59" s="186" t="s">
         <v>1101</v>
       </c>
@@ -21346,8 +21235,8 @@
       <c r="AO59" s="254"/>
       <c r="AP59" s="254"/>
       <c r="AQ59" s="208"/>
-      <c r="AR59" s="254"/>
-      <c r="AS59" s="254"/>
+      <c r="AR59" s="53"/>
+      <c r="AS59" s="53"/>
       <c r="AT59" s="53"/>
       <c r="AU59" s="53"/>
       <c r="AV59" s="53"/>
@@ -21894,11 +21783,8 @@
       <c r="VQ59" s="53"/>
       <c r="VR59" s="53"/>
       <c r="VS59" s="53"/>
-      <c r="VT59" s="53"/>
-      <c r="VU59" s="53"/>
-      <c r="VV59" s="53"/>
-    </row>
-    <row r="60" spans="1:594" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1">
+    </row>
+    <row r="60" spans="1:591" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1">
       <c r="A60" s="186" t="s">
         <v>1177</v>
       </c>
@@ -21957,8 +21843,8 @@
       <c r="AO60" s="254"/>
       <c r="AP60" s="254"/>
       <c r="AQ60" s="208"/>
-      <c r="AR60" s="254"/>
-      <c r="AS60" s="254"/>
+      <c r="AR60" s="53"/>
+      <c r="AS60" s="53"/>
       <c r="AT60" s="53"/>
       <c r="AU60" s="53"/>
       <c r="AV60" s="53"/>
@@ -22505,11 +22391,8 @@
       <c r="VQ60" s="53"/>
       <c r="VR60" s="53"/>
       <c r="VS60" s="53"/>
-      <c r="VT60" s="53"/>
-      <c r="VU60" s="53"/>
-      <c r="VV60" s="53"/>
-    </row>
-    <row r="61" spans="1:594" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1">
+    </row>
+    <row r="61" spans="1:591" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1">
       <c r="A61" s="348" t="s">
         <v>1193</v>
       </c>
@@ -22567,8 +22450,8 @@
       <c r="AO61" s="351"/>
       <c r="AP61" s="351"/>
       <c r="AQ61" s="359"/>
-      <c r="AR61" s="351"/>
-      <c r="AS61" s="351"/>
+      <c r="AR61" s="53"/>
+      <c r="AS61" s="53"/>
       <c r="AT61" s="53"/>
       <c r="AU61" s="53"/>
       <c r="AV61" s="53"/>
@@ -23115,11 +22998,8 @@
       <c r="VQ61" s="53"/>
       <c r="VR61" s="53"/>
       <c r="VS61" s="53"/>
-      <c r="VT61" s="53"/>
-      <c r="VU61" s="53"/>
-      <c r="VV61" s="53"/>
-    </row>
-    <row r="62" spans="1:594" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1" thickBot="1">
+    </row>
+    <row r="62" spans="1:591" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1" thickBot="1">
       <c r="A62" s="348" t="s">
         <v>1207</v>
       </c>
@@ -23177,8 +23057,8 @@
       <c r="AO62" s="492"/>
       <c r="AP62" s="492"/>
       <c r="AQ62" s="500"/>
-      <c r="AR62" s="492"/>
-      <c r="AS62" s="492"/>
+      <c r="AR62" s="53"/>
+      <c r="AS62" s="53"/>
       <c r="AT62" s="53"/>
       <c r="AU62" s="53"/>
       <c r="AV62" s="53"/>
@@ -23725,11 +23605,8 @@
       <c r="VQ62" s="53"/>
       <c r="VR62" s="53"/>
       <c r="VS62" s="53"/>
-      <c r="VT62" s="53"/>
-      <c r="VU62" s="53"/>
-      <c r="VV62" s="53"/>
-    </row>
-    <row r="63" spans="1:594" s="59" customFormat="1" ht="18.95" customHeight="1">
+    </row>
+    <row r="63" spans="1:591" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1">
       <c r="A63" s="514" t="s">
         <v>1225</v>
       </c>
@@ -23797,8 +23674,8 @@
         <v>3</v>
       </c>
       <c r="AQ63" s="524"/>
-      <c r="AR63" s="524"/>
-      <c r="AS63" s="524"/>
+      <c r="AR63" s="53"/>
+      <c r="AS63" s="53"/>
       <c r="AT63" s="53"/>
       <c r="AU63" s="53"/>
       <c r="AV63" s="53"/>
@@ -24345,11 +24222,8 @@
       <c r="VQ63" s="53"/>
       <c r="VR63" s="53"/>
       <c r="VS63" s="53"/>
-      <c r="VT63" s="53"/>
-      <c r="VU63" s="53"/>
-      <c r="VV63" s="53"/>
-    </row>
-    <row r="64" spans="1:594" s="59" customFormat="1" ht="18.95" customHeight="1">
+    </row>
+    <row r="64" spans="1:591" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1">
       <c r="A64" s="525" t="s">
         <v>1244</v>
       </c>
@@ -24409,8 +24283,8 @@
         <v>4</v>
       </c>
       <c r="AQ64" s="535"/>
-      <c r="AR64" s="535"/>
-      <c r="AS64" s="535"/>
+      <c r="AR64" s="53"/>
+      <c r="AS64" s="53"/>
       <c r="AT64" s="53"/>
       <c r="AU64" s="53"/>
       <c r="AV64" s="53"/>
@@ -24957,11 +24831,8 @@
       <c r="VQ64" s="53"/>
       <c r="VR64" s="53"/>
       <c r="VS64" s="53"/>
-      <c r="VT64" s="53"/>
-      <c r="VU64" s="53"/>
-      <c r="VV64" s="53"/>
-    </row>
-    <row r="65" spans="1:594" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1">
+    </row>
+    <row r="65" spans="1:591" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1">
       <c r="A65" s="525" t="s">
         <v>1226</v>
       </c>
@@ -25021,8 +24892,8 @@
       <c r="AO65" s="534"/>
       <c r="AP65" s="534"/>
       <c r="AQ65" s="535"/>
-      <c r="AR65" s="534"/>
-      <c r="AS65" s="534"/>
+      <c r="AR65" s="53"/>
+      <c r="AS65" s="53"/>
       <c r="AT65" s="53"/>
       <c r="AU65" s="53"/>
       <c r="AV65" s="53"/>
@@ -25569,11 +25440,8 @@
       <c r="VQ65" s="53"/>
       <c r="VR65" s="53"/>
       <c r="VS65" s="53"/>
-      <c r="VT65" s="53"/>
-      <c r="VU65" s="53"/>
-      <c r="VV65" s="53"/>
-    </row>
-    <row r="66" spans="1:594" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1" thickBot="1">
+    </row>
+    <row r="66" spans="1:591" s="59" customFormat="1" ht="18.95" hidden="1" customHeight="1" thickBot="1">
       <c r="A66" s="536" t="s">
         <v>1227</v>
       </c>
@@ -25637,8 +25505,8 @@
       <c r="AO66" s="546"/>
       <c r="AP66" s="546"/>
       <c r="AQ66" s="546"/>
-      <c r="AR66" s="546"/>
-      <c r="AS66" s="546"/>
+      <c r="AR66" s="53"/>
+      <c r="AS66" s="53"/>
       <c r="AT66" s="53"/>
       <c r="AU66" s="53"/>
       <c r="AV66" s="53"/>
@@ -26185,11 +26053,8 @@
       <c r="VQ66" s="53"/>
       <c r="VR66" s="53"/>
       <c r="VS66" s="53"/>
-      <c r="VT66" s="53"/>
-      <c r="VU66" s="53"/>
-      <c r="VV66" s="53"/>
-    </row>
-    <row r="67" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="67" spans="1:591" ht="15.75" hidden="1">
       <c r="A67" s="194" t="s">
         <v>103</v>
       </c>
@@ -26247,10 +26112,8 @@
       <c r="AO67" s="266"/>
       <c r="AP67" s="266"/>
       <c r="AQ67" s="210"/>
-      <c r="AR67" s="266"/>
-      <c r="AS67" s="266"/>
-    </row>
-    <row r="68" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="68" spans="1:591" ht="15.75" hidden="1">
       <c r="A68" s="187" t="s">
         <v>104</v>
       </c>
@@ -26293,10 +26156,8 @@
       <c r="AO68" s="79"/>
       <c r="AP68" s="79"/>
       <c r="AQ68" s="208"/>
-      <c r="AR68" s="79"/>
-      <c r="AS68" s="79"/>
-    </row>
-    <row r="69" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="69" spans="1:591" ht="15.75" hidden="1">
       <c r="A69" s="187" t="s">
         <v>105</v>
       </c>
@@ -26344,10 +26205,8 @@
       <c r="AO69" s="79"/>
       <c r="AP69" s="79"/>
       <c r="AQ69" s="208"/>
-      <c r="AR69" s="79"/>
-      <c r="AS69" s="79"/>
-    </row>
-    <row r="70" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="70" spans="1:591" ht="15.75" hidden="1">
       <c r="A70" s="187" t="s">
         <v>106</v>
       </c>
@@ -26395,10 +26254,8 @@
       <c r="AO70" s="79"/>
       <c r="AP70" s="79"/>
       <c r="AQ70" s="208"/>
-      <c r="AR70" s="79"/>
-      <c r="AS70" s="79"/>
-    </row>
-    <row r="71" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="71" spans="1:591" ht="15.75" hidden="1">
       <c r="A71" s="187" t="s">
         <v>107</v>
       </c>
@@ -26446,10 +26303,8 @@
       <c r="AO71" s="79"/>
       <c r="AP71" s="79"/>
       <c r="AQ71" s="208"/>
-      <c r="AR71" s="79"/>
-      <c r="AS71" s="79"/>
-    </row>
-    <row r="72" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="72" spans="1:591" ht="15.75" hidden="1">
       <c r="A72" s="187" t="s">
         <v>108</v>
       </c>
@@ -26497,10 +26352,8 @@
       <c r="AO72" s="79"/>
       <c r="AP72" s="79"/>
       <c r="AQ72" s="208"/>
-      <c r="AR72" s="79"/>
-      <c r="AS72" s="79"/>
-    </row>
-    <row r="73" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="73" spans="1:591" ht="15.75" hidden="1">
       <c r="A73" s="187" t="s">
         <v>109</v>
       </c>
@@ -26548,10 +26401,8 @@
       <c r="AO73" s="79"/>
       <c r="AP73" s="79"/>
       <c r="AQ73" s="208"/>
-      <c r="AR73" s="79"/>
-      <c r="AS73" s="79"/>
-    </row>
-    <row r="74" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="74" spans="1:591" ht="15.75" hidden="1">
       <c r="A74" s="187" t="s">
         <v>110</v>
       </c>
@@ -26599,10 +26450,8 @@
       <c r="AO74" s="79"/>
       <c r="AP74" s="79"/>
       <c r="AQ74" s="208"/>
-      <c r="AR74" s="79"/>
-      <c r="AS74" s="79"/>
-    </row>
-    <row r="75" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="75" spans="1:591" ht="15.75" hidden="1">
       <c r="A75" s="187" t="s">
         <v>111</v>
       </c>
@@ -26645,10 +26494,8 @@
       <c r="AO75" s="79"/>
       <c r="AP75" s="79"/>
       <c r="AQ75" s="208"/>
-      <c r="AR75" s="79"/>
-      <c r="AS75" s="79"/>
-    </row>
-    <row r="76" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="76" spans="1:591" ht="15.75" hidden="1">
       <c r="A76" s="187" t="s">
         <v>112</v>
       </c>
@@ -26696,10 +26543,8 @@
       <c r="AO76" s="79"/>
       <c r="AP76" s="79"/>
       <c r="AQ76" s="208"/>
-      <c r="AR76" s="79"/>
-      <c r="AS76" s="79"/>
-    </row>
-    <row r="77" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="77" spans="1:591" ht="15.75" hidden="1">
       <c r="A77" s="187" t="s">
         <v>113</v>
       </c>
@@ -26742,10 +26587,8 @@
       <c r="AO77" s="79"/>
       <c r="AP77" s="79"/>
       <c r="AQ77" s="208"/>
-      <c r="AR77" s="79"/>
-      <c r="AS77" s="79"/>
-    </row>
-    <row r="78" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="78" spans="1:591" ht="15.75" hidden="1">
       <c r="A78" s="187" t="s">
         <v>114</v>
       </c>
@@ -26793,10 +26636,8 @@
       <c r="AO78" s="79"/>
       <c r="AP78" s="79"/>
       <c r="AQ78" s="208"/>
-      <c r="AR78" s="79"/>
-      <c r="AS78" s="79"/>
-    </row>
-    <row r="79" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="79" spans="1:591" ht="15.75" hidden="1">
       <c r="A79" s="187" t="s">
         <v>115</v>
       </c>
@@ -26839,10 +26680,8 @@
       <c r="AO79" s="79"/>
       <c r="AP79" s="79"/>
       <c r="AQ79" s="208"/>
-      <c r="AR79" s="79"/>
-      <c r="AS79" s="79"/>
-    </row>
-    <row r="80" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="80" spans="1:591" ht="16.5" hidden="1" thickBot="1">
       <c r="A80" s="201" t="s">
         <v>116</v>
       </c>
@@ -26896,10 +26735,8 @@
       <c r="AO80" s="268"/>
       <c r="AP80" s="268"/>
       <c r="AQ80" s="209"/>
-      <c r="AR80" s="268"/>
-      <c r="AS80" s="268"/>
-    </row>
-    <row r="81" spans="1:594" ht="16.5" thickBot="1">
+    </row>
+    <row r="81" spans="1:591" ht="16.5" thickBot="1">
       <c r="A81" s="583" t="s">
         <v>1245</v>
       </c>
@@ -26965,10 +26802,11 @@
         <v>8</v>
       </c>
       <c r="AQ81" s="500"/>
-      <c r="AR81" s="592"/>
-      <c r="AS81" s="592"/>
-    </row>
-    <row r="82" spans="1:594" s="57" customFormat="1" ht="16.5" thickBot="1">
+      <c r="AT81" s="53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:591" s="57" customFormat="1" ht="16.5" thickBot="1">
       <c r="A82" s="360" t="s">
         <v>1116</v>
       </c>
@@ -27058,9 +26896,13 @@
         <v>7</v>
       </c>
       <c r="AQ82" s="210"/>
-      <c r="AR82" s="370"/>
-      <c r="AS82" s="370"/>
-      <c r="AT82" s="53"/>
+      <c r="AR82" s="53"/>
+      <c r="AS82" s="53">
+        <v>5</v>
+      </c>
+      <c r="AT82" s="53">
+        <v>5</v>
+      </c>
       <c r="AU82" s="53"/>
       <c r="AV82" s="53"/>
       <c r="AW82" s="53"/>
@@ -27606,11 +27448,8 @@
       <c r="VQ82" s="53"/>
       <c r="VR82" s="53"/>
       <c r="VS82" s="53"/>
-      <c r="VT82" s="53"/>
-      <c r="VU82" s="53"/>
-      <c r="VV82" s="53"/>
-    </row>
-    <row r="83" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="83" spans="1:591" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A83" s="179" t="s">
         <v>1117</v>
       </c>
@@ -27686,8 +27525,8 @@
       <c r="AO83" s="255"/>
       <c r="AP83" s="255"/>
       <c r="AQ83" s="208"/>
-      <c r="AR83" s="255"/>
-      <c r="AS83" s="255"/>
+      <c r="AR83" s="53"/>
+      <c r="AS83" s="53"/>
       <c r="AT83" s="53"/>
       <c r="AU83" s="53"/>
       <c r="AV83" s="53"/>
@@ -28234,11 +28073,8 @@
       <c r="VQ83" s="53"/>
       <c r="VR83" s="53"/>
       <c r="VS83" s="53"/>
-      <c r="VT83" s="53"/>
-      <c r="VU83" s="53"/>
-      <c r="VV83" s="53"/>
-    </row>
-    <row r="84" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="84" spans="1:591" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A84" s="180" t="s">
         <v>1119</v>
       </c>
@@ -28314,8 +28150,8 @@
       <c r="AO84" s="255"/>
       <c r="AP84" s="255"/>
       <c r="AQ84" s="208"/>
-      <c r="AR84" s="255"/>
-      <c r="AS84" s="255"/>
+      <c r="AR84" s="53"/>
+      <c r="AS84" s="53"/>
       <c r="AT84" s="53"/>
       <c r="AU84" s="53"/>
       <c r="AV84" s="53"/>
@@ -28862,11 +28698,8 @@
       <c r="VQ84" s="53"/>
       <c r="VR84" s="53"/>
       <c r="VS84" s="53"/>
-      <c r="VT84" s="53"/>
-      <c r="VU84" s="53"/>
-      <c r="VV84" s="53"/>
-    </row>
-    <row r="85" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="85" spans="1:591" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A85" s="180" t="s">
         <v>1121</v>
       </c>
@@ -28938,8 +28771,8 @@
       <c r="AO85" s="255"/>
       <c r="AP85" s="255"/>
       <c r="AQ85" s="208"/>
-      <c r="AR85" s="255"/>
-      <c r="AS85" s="255"/>
+      <c r="AR85" s="53"/>
+      <c r="AS85" s="53"/>
       <c r="AT85" s="53"/>
       <c r="AU85" s="53"/>
       <c r="AV85" s="53"/>
@@ -29486,11 +29319,8 @@
       <c r="VQ85" s="53"/>
       <c r="VR85" s="53"/>
       <c r="VS85" s="53"/>
-      <c r="VT85" s="53"/>
-      <c r="VU85" s="53"/>
-      <c r="VV85" s="53"/>
-    </row>
-    <row r="86" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="86" spans="1:591" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A86" s="180" t="s">
         <v>136</v>
       </c>
@@ -29552,8 +29382,8 @@
       <c r="AO86" s="255"/>
       <c r="AP86" s="255"/>
       <c r="AQ86" s="208"/>
-      <c r="AR86" s="255"/>
-      <c r="AS86" s="255"/>
+      <c r="AR86" s="53"/>
+      <c r="AS86" s="53"/>
       <c r="AT86" s="53"/>
       <c r="AU86" s="53"/>
       <c r="AV86" s="53"/>
@@ -30100,11 +29930,8 @@
       <c r="VQ86" s="53"/>
       <c r="VR86" s="53"/>
       <c r="VS86" s="53"/>
-      <c r="VT86" s="53"/>
-      <c r="VU86" s="53"/>
-      <c r="VV86" s="53"/>
-    </row>
-    <row r="87" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="87" spans="1:591" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A87" s="180" t="s">
         <v>137</v>
       </c>
@@ -30166,8 +29993,8 @@
       <c r="AO87" s="255"/>
       <c r="AP87" s="255"/>
       <c r="AQ87" s="208"/>
-      <c r="AR87" s="255"/>
-      <c r="AS87" s="255"/>
+      <c r="AR87" s="53"/>
+      <c r="AS87" s="53"/>
       <c r="AT87" s="53"/>
       <c r="AU87" s="53"/>
       <c r="AV87" s="53"/>
@@ -30714,11 +30541,8 @@
       <c r="VQ87" s="53"/>
       <c r="VR87" s="53"/>
       <c r="VS87" s="53"/>
-      <c r="VT87" s="53"/>
-      <c r="VU87" s="53"/>
-      <c r="VV87" s="53"/>
-    </row>
-    <row r="88" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="88" spans="1:591" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A88" s="180" t="s">
         <v>138</v>
       </c>
@@ -30778,8 +30602,8 @@
       <c r="AO88" s="255"/>
       <c r="AP88" s="255"/>
       <c r="AQ88" s="208"/>
-      <c r="AR88" s="255"/>
-      <c r="AS88" s="255"/>
+      <c r="AR88" s="53"/>
+      <c r="AS88" s="53"/>
       <c r="AT88" s="53"/>
       <c r="AU88" s="53"/>
       <c r="AV88" s="53"/>
@@ -31326,11 +31150,8 @@
       <c r="VQ88" s="53"/>
       <c r="VR88" s="53"/>
       <c r="VS88" s="53"/>
-      <c r="VT88" s="53"/>
-      <c r="VU88" s="53"/>
-      <c r="VV88" s="53"/>
-    </row>
-    <row r="89" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="89" spans="1:591" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A89" s="180" t="s">
         <v>1123</v>
       </c>
@@ -31402,8 +31223,8 @@
       <c r="AO89" s="255"/>
       <c r="AP89" s="255"/>
       <c r="AQ89" s="208"/>
-      <c r="AR89" s="255"/>
-      <c r="AS89" s="255"/>
+      <c r="AR89" s="53"/>
+      <c r="AS89" s="53"/>
       <c r="AT89" s="53"/>
       <c r="AU89" s="53"/>
       <c r="AV89" s="53"/>
@@ -31950,11 +31771,8 @@
       <c r="VQ89" s="53"/>
       <c r="VR89" s="53"/>
       <c r="VS89" s="53"/>
-      <c r="VT89" s="53"/>
-      <c r="VU89" s="53"/>
-      <c r="VV89" s="53"/>
-    </row>
-    <row r="90" spans="1:594" s="61" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="90" spans="1:591" s="61" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A90" s="180" t="s">
         <v>139</v>
       </c>
@@ -32016,8 +31834,8 @@
       <c r="AO90" s="255"/>
       <c r="AP90" s="255"/>
       <c r="AQ90" s="208"/>
-      <c r="AR90" s="255"/>
-      <c r="AS90" s="255"/>
+      <c r="AR90" s="53"/>
+      <c r="AS90" s="53"/>
       <c r="AT90" s="53"/>
       <c r="AU90" s="53"/>
       <c r="AV90" s="53"/>
@@ -32564,11 +32382,8 @@
       <c r="VQ90" s="53"/>
       <c r="VR90" s="53"/>
       <c r="VS90" s="53"/>
-      <c r="VT90" s="53"/>
-      <c r="VU90" s="53"/>
-      <c r="VV90" s="53"/>
-    </row>
-    <row r="91" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="91" spans="1:591" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A91" s="180" t="s">
         <v>140</v>
       </c>
@@ -32640,8 +32455,8 @@
       <c r="AO91" s="255"/>
       <c r="AP91" s="255"/>
       <c r="AQ91" s="208"/>
-      <c r="AR91" s="255"/>
-      <c r="AS91" s="255"/>
+      <c r="AR91" s="53"/>
+      <c r="AS91" s="53"/>
       <c r="AT91" s="53"/>
       <c r="AU91" s="53"/>
       <c r="AV91" s="53"/>
@@ -33188,11 +33003,8 @@
       <c r="VQ91" s="53"/>
       <c r="VR91" s="53"/>
       <c r="VS91" s="53"/>
-      <c r="VT91" s="53"/>
-      <c r="VU91" s="53"/>
-      <c r="VV91" s="53"/>
-    </row>
-    <row r="92" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="92" spans="1:591" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A92" s="180" t="s">
         <v>155</v>
       </c>
@@ -33262,8 +33074,8 @@
       <c r="AO92" s="255"/>
       <c r="AP92" s="255"/>
       <c r="AQ92" s="208"/>
-      <c r="AR92" s="255"/>
-      <c r="AS92" s="255"/>
+      <c r="AR92" s="53"/>
+      <c r="AS92" s="53"/>
       <c r="AT92" s="53"/>
       <c r="AU92" s="53"/>
       <c r="AV92" s="53"/>
@@ -33810,11 +33622,8 @@
       <c r="VQ92" s="53"/>
       <c r="VR92" s="53"/>
       <c r="VS92" s="53"/>
-      <c r="VT92" s="53"/>
-      <c r="VU92" s="53"/>
-      <c r="VV92" s="53"/>
-    </row>
-    <row r="93" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="93" spans="1:591" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A93" s="180" t="s">
         <v>1130</v>
       </c>
@@ -33876,8 +33685,8 @@
       <c r="AO93" s="255"/>
       <c r="AP93" s="255"/>
       <c r="AQ93" s="208"/>
-      <c r="AR93" s="255"/>
-      <c r="AS93" s="255"/>
+      <c r="AR93" s="53"/>
+      <c r="AS93" s="53"/>
       <c r="AT93" s="53"/>
       <c r="AU93" s="53"/>
       <c r="AV93" s="53"/>
@@ -34424,11 +34233,8 @@
       <c r="VQ93" s="53"/>
       <c r="VR93" s="53"/>
       <c r="VS93" s="53"/>
-      <c r="VT93" s="53"/>
-      <c r="VU93" s="53"/>
-      <c r="VV93" s="53"/>
-    </row>
-    <row r="94" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="94" spans="1:591" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A94" s="180" t="s">
         <v>1125</v>
       </c>
@@ -34490,8 +34296,8 @@
       <c r="AO94" s="255"/>
       <c r="AP94" s="255"/>
       <c r="AQ94" s="208"/>
-      <c r="AR94" s="255"/>
-      <c r="AS94" s="255"/>
+      <c r="AR94" s="53"/>
+      <c r="AS94" s="53"/>
       <c r="AT94" s="53"/>
       <c r="AU94" s="53"/>
       <c r="AV94" s="53"/>
@@ -35038,11 +34844,8 @@
       <c r="VQ94" s="53"/>
       <c r="VR94" s="53"/>
       <c r="VS94" s="53"/>
-      <c r="VT94" s="53"/>
-      <c r="VU94" s="53"/>
-      <c r="VV94" s="53"/>
-    </row>
-    <row r="95" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="95" spans="1:591" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A95" s="180" t="s">
         <v>1126</v>
       </c>
@@ -35104,8 +34907,8 @@
       <c r="AO95" s="255"/>
       <c r="AP95" s="255"/>
       <c r="AQ95" s="208"/>
-      <c r="AR95" s="255"/>
-      <c r="AS95" s="255"/>
+      <c r="AR95" s="53"/>
+      <c r="AS95" s="53"/>
       <c r="AT95" s="53"/>
       <c r="AU95" s="53"/>
       <c r="AV95" s="53"/>
@@ -35652,11 +35455,8 @@
       <c r="VQ95" s="53"/>
       <c r="VR95" s="53"/>
       <c r="VS95" s="53"/>
-      <c r="VT95" s="53"/>
-      <c r="VU95" s="53"/>
-      <c r="VV95" s="53"/>
-    </row>
-    <row r="96" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="96" spans="1:591" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A96" s="202" t="s">
         <v>1137</v>
       </c>
@@ -35718,8 +35518,8 @@
       <c r="AQ96" s="208">
         <v>1</v>
       </c>
-      <c r="AR96" s="256"/>
-      <c r="AS96" s="256"/>
+      <c r="AR96" s="53"/>
+      <c r="AS96" s="53"/>
       <c r="AT96" s="53"/>
       <c r="AU96" s="53"/>
       <c r="AV96" s="53"/>
@@ -36266,11 +36066,8 @@
       <c r="VQ96" s="53"/>
       <c r="VR96" s="53"/>
       <c r="VS96" s="53"/>
-      <c r="VT96" s="53"/>
-      <c r="VU96" s="53"/>
-      <c r="VV96" s="53"/>
-    </row>
-    <row r="97" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="97" spans="1:591" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A97" s="181" t="s">
         <v>1133</v>
       </c>
@@ -36326,8 +36123,8 @@
       <c r="AO97" s="256"/>
       <c r="AP97" s="256"/>
       <c r="AQ97" s="208"/>
-      <c r="AR97" s="256"/>
-      <c r="AS97" s="256"/>
+      <c r="AR97" s="53"/>
+      <c r="AS97" s="53"/>
       <c r="AT97" s="53"/>
       <c r="AU97" s="53"/>
       <c r="AV97" s="53"/>
@@ -36874,11 +36671,8 @@
       <c r="VQ97" s="53"/>
       <c r="VR97" s="53"/>
       <c r="VS97" s="53"/>
-      <c r="VT97" s="53"/>
-      <c r="VU97" s="53"/>
-      <c r="VV97" s="53"/>
-    </row>
-    <row r="98" spans="1:594" s="57" customFormat="1" ht="16.5" thickBot="1">
+    </row>
+    <row r="98" spans="1:591" s="57" customFormat="1" ht="16.5" thickBot="1">
       <c r="A98" s="202" t="s">
         <v>1184</v>
       </c>
@@ -36956,9 +36750,15 @@
         <v>6</v>
       </c>
       <c r="AQ98" s="208"/>
-      <c r="AR98" s="256"/>
-      <c r="AS98" s="256"/>
-      <c r="AT98" s="53"/>
+      <c r="AR98" s="53">
+        <v>4</v>
+      </c>
+      <c r="AS98" s="53">
+        <v>4</v>
+      </c>
+      <c r="AT98" s="53">
+        <v>4</v>
+      </c>
       <c r="AU98" s="53"/>
       <c r="AV98" s="53"/>
       <c r="AW98" s="53"/>
@@ -37504,11 +37304,8 @@
       <c r="VQ98" s="53"/>
       <c r="VR98" s="53"/>
       <c r="VS98" s="53"/>
-      <c r="VT98" s="53"/>
-      <c r="VU98" s="53"/>
-      <c r="VV98" s="53"/>
-    </row>
-    <row r="99" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="99" spans="1:591" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A99" s="181" t="s">
         <v>1185</v>
       </c>
@@ -37582,8 +37379,8 @@
       <c r="AO99" s="256"/>
       <c r="AP99" s="256"/>
       <c r="AQ99" s="208"/>
-      <c r="AR99" s="256"/>
-      <c r="AS99" s="256"/>
+      <c r="AR99" s="53"/>
+      <c r="AS99" s="53"/>
       <c r="AT99" s="53"/>
       <c r="AU99" s="53"/>
       <c r="AV99" s="53"/>
@@ -38130,11 +37927,8 @@
       <c r="VQ99" s="53"/>
       <c r="VR99" s="53"/>
       <c r="VS99" s="53"/>
-      <c r="VT99" s="53"/>
-      <c r="VU99" s="53"/>
-      <c r="VV99" s="53"/>
-    </row>
-    <row r="100" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="100" spans="1:591" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A100" s="180" t="s">
         <v>1190</v>
       </c>
@@ -38198,8 +37992,8 @@
       <c r="AO100" s="336"/>
       <c r="AP100" s="336"/>
       <c r="AQ100" s="208"/>
-      <c r="AR100" s="336"/>
-      <c r="AS100" s="336"/>
+      <c r="AR100" s="53"/>
+      <c r="AS100" s="53"/>
       <c r="AT100" s="53"/>
       <c r="AU100" s="53"/>
       <c r="AV100" s="53"/>
@@ -38746,11 +38540,8 @@
       <c r="VQ100" s="53"/>
       <c r="VR100" s="53"/>
       <c r="VS100" s="53"/>
-      <c r="VT100" s="53"/>
-      <c r="VU100" s="53"/>
-      <c r="VV100" s="53"/>
-    </row>
-    <row r="101" spans="1:594" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="101" spans="1:591" s="57" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A101" s="202" t="s">
         <v>1191</v>
       </c>
@@ -38814,8 +38605,8 @@
       <c r="AO101" s="336"/>
       <c r="AP101" s="336"/>
       <c r="AQ101" s="359"/>
-      <c r="AR101" s="336"/>
-      <c r="AS101" s="336"/>
+      <c r="AR101" s="53"/>
+      <c r="AS101" s="53"/>
       <c r="AT101" s="53"/>
       <c r="AU101" s="53"/>
       <c r="AV101" s="53"/>
@@ -39362,11 +39153,8 @@
       <c r="VQ101" s="53"/>
       <c r="VR101" s="53"/>
       <c r="VS101" s="53"/>
-      <c r="VT101" s="53"/>
-      <c r="VU101" s="53"/>
-      <c r="VV101" s="53"/>
-    </row>
-    <row r="102" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="102" spans="1:591" ht="16.5" hidden="1" thickBot="1">
       <c r="A102" s="373" t="s">
         <v>122</v>
       </c>
@@ -39424,10 +39212,8 @@
       <c r="AO102" s="376"/>
       <c r="AP102" s="376"/>
       <c r="AQ102" s="376"/>
-      <c r="AR102" s="376"/>
-      <c r="AS102" s="376"/>
-    </row>
-    <row r="103" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="103" spans="1:591" ht="16.5" hidden="1" thickBot="1">
       <c r="A103" s="200" t="s">
         <v>123</v>
       </c>
@@ -39485,10 +39271,8 @@
       <c r="AO103" s="378"/>
       <c r="AP103" s="378"/>
       <c r="AQ103" s="378"/>
-      <c r="AR103" s="378"/>
-      <c r="AS103" s="378"/>
-    </row>
-    <row r="104" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="104" spans="1:591" ht="16.5" hidden="1" thickBot="1">
       <c r="A104" s="200" t="s">
         <v>124</v>
       </c>
@@ -39546,10 +39330,8 @@
       <c r="AO104" s="378"/>
       <c r="AP104" s="378"/>
       <c r="AQ104" s="378"/>
-      <c r="AR104" s="378"/>
-      <c r="AS104" s="378"/>
-    </row>
-    <row r="105" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="105" spans="1:591" ht="16.5" hidden="1" thickBot="1">
       <c r="A105" s="200" t="s">
         <v>125</v>
       </c>
@@ -39607,10 +39389,8 @@
       <c r="AO105" s="378"/>
       <c r="AP105" s="378"/>
       <c r="AQ105" s="378"/>
-      <c r="AR105" s="378"/>
-      <c r="AS105" s="378"/>
-    </row>
-    <row r="106" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="106" spans="1:591" ht="16.5" hidden="1" thickBot="1">
       <c r="A106" s="379" t="s">
         <v>1204</v>
       </c>
@@ -39666,10 +39446,8 @@
       <c r="AO106" s="382"/>
       <c r="AP106" s="382"/>
       <c r="AQ106" s="382"/>
-      <c r="AR106" s="382"/>
-      <c r="AS106" s="382"/>
-    </row>
-    <row r="107" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="107" spans="1:591" ht="16.5" hidden="1" thickBot="1">
       <c r="A107" s="188" t="s">
         <v>934</v>
       </c>
@@ -39721,10 +39499,8 @@
       <c r="AO107" s="258"/>
       <c r="AP107" s="258"/>
       <c r="AQ107" s="371"/>
-      <c r="AR107" s="258"/>
-      <c r="AS107" s="258"/>
-    </row>
-    <row r="108" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="108" spans="1:591" ht="16.5" hidden="1" thickBot="1">
       <c r="A108" s="189" t="s">
         <v>935</v>
       </c>
@@ -39776,10 +39552,8 @@
       <c r="AO108" s="259"/>
       <c r="AP108" s="259"/>
       <c r="AQ108" s="208"/>
-      <c r="AR108" s="259"/>
-      <c r="AS108" s="259"/>
-    </row>
-    <row r="109" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="109" spans="1:591" ht="16.5" hidden="1" thickBot="1">
       <c r="A109" s="189" t="s">
         <v>950</v>
       </c>
@@ -39837,10 +39611,8 @@
       <c r="AO109" s="259"/>
       <c r="AP109" s="259"/>
       <c r="AQ109" s="208"/>
-      <c r="AR109" s="259"/>
-      <c r="AS109" s="259"/>
-    </row>
-    <row r="110" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="110" spans="1:591" ht="16.5" hidden="1" thickBot="1">
       <c r="A110" s="189" t="s">
         <v>936</v>
       </c>
@@ -39898,10 +39670,8 @@
       <c r="AO110" s="259"/>
       <c r="AP110" s="259"/>
       <c r="AQ110" s="208"/>
-      <c r="AR110" s="259"/>
-      <c r="AS110" s="259"/>
-    </row>
-    <row r="111" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="111" spans="1:591" ht="16.5" hidden="1" thickBot="1">
       <c r="A111" s="189" t="s">
         <v>937</v>
       </c>
@@ -39959,10 +39729,8 @@
       <c r="AO111" s="259"/>
       <c r="AP111" s="259"/>
       <c r="AQ111" s="208"/>
-      <c r="AR111" s="259"/>
-      <c r="AS111" s="259"/>
-    </row>
-    <row r="112" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="112" spans="1:591" ht="16.5" hidden="1" thickBot="1">
       <c r="A112" s="190" t="s">
         <v>951</v>
       </c>
@@ -40020,10 +39788,8 @@
       <c r="AO112" s="260"/>
       <c r="AP112" s="260"/>
       <c r="AQ112" s="209"/>
-      <c r="AR112" s="260"/>
-      <c r="AS112" s="260"/>
-    </row>
-    <row r="113" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="113" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A113" s="188" t="s">
         <v>938</v>
       </c>
@@ -40075,10 +39841,8 @@
       <c r="AO113" s="258"/>
       <c r="AP113" s="258"/>
       <c r="AQ113" s="371"/>
-      <c r="AR113" s="258"/>
-      <c r="AS113" s="258"/>
-    </row>
-    <row r="114" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="114" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A114" s="189" t="s">
         <v>939</v>
       </c>
@@ -40134,10 +39898,8 @@
       <c r="AO114" s="259"/>
       <c r="AP114" s="259"/>
       <c r="AQ114" s="208"/>
-      <c r="AR114" s="259"/>
-      <c r="AS114" s="259"/>
-    </row>
-    <row r="115" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="115" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A115" s="189" t="s">
         <v>952</v>
       </c>
@@ -40195,10 +39957,8 @@
       <c r="AO115" s="259"/>
       <c r="AP115" s="259"/>
       <c r="AQ115" s="208"/>
-      <c r="AR115" s="259"/>
-      <c r="AS115" s="259"/>
-    </row>
-    <row r="116" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="116" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A116" s="189" t="s">
         <v>940</v>
       </c>
@@ -40256,10 +40016,8 @@
       <c r="AO116" s="259"/>
       <c r="AP116" s="259"/>
       <c r="AQ116" s="208"/>
-      <c r="AR116" s="259"/>
-      <c r="AS116" s="259"/>
-    </row>
-    <row r="117" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="117" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A117" s="189" t="s">
         <v>941</v>
       </c>
@@ -40317,10 +40075,8 @@
       <c r="AO117" s="259"/>
       <c r="AP117" s="259"/>
       <c r="AQ117" s="208"/>
-      <c r="AR117" s="259"/>
-      <c r="AS117" s="259"/>
-    </row>
-    <row r="118" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="118" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A118" s="190" t="s">
         <v>953</v>
       </c>
@@ -40374,10 +40130,8 @@
       <c r="AO118" s="260"/>
       <c r="AP118" s="260"/>
       <c r="AQ118" s="209"/>
-      <c r="AR118" s="260"/>
-      <c r="AS118" s="260"/>
-    </row>
-    <row r="119" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="119" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A119" s="188" t="s">
         <v>942</v>
       </c>
@@ -40429,10 +40183,8 @@
       <c r="AO119" s="258"/>
       <c r="AP119" s="258"/>
       <c r="AQ119" s="371"/>
-      <c r="AR119" s="258"/>
-      <c r="AS119" s="258"/>
-    </row>
-    <row r="120" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="120" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A120" s="189" t="s">
         <v>943</v>
       </c>
@@ -40484,10 +40236,8 @@
       <c r="AO120" s="259"/>
       <c r="AP120" s="259"/>
       <c r="AQ120" s="208"/>
-      <c r="AR120" s="259"/>
-      <c r="AS120" s="259"/>
-    </row>
-    <row r="121" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="121" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A121" s="189" t="s">
         <v>954</v>
       </c>
@@ -40545,10 +40295,8 @@
       <c r="AO121" s="259"/>
       <c r="AP121" s="259"/>
       <c r="AQ121" s="208"/>
-      <c r="AR121" s="259"/>
-      <c r="AS121" s="259"/>
-    </row>
-    <row r="122" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="122" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A122" s="189" t="s">
         <v>944</v>
       </c>
@@ -40606,10 +40354,8 @@
       <c r="AO122" s="259"/>
       <c r="AP122" s="259"/>
       <c r="AQ122" s="208"/>
-      <c r="AR122" s="259"/>
-      <c r="AS122" s="259"/>
-    </row>
-    <row r="123" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="123" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A123" s="189" t="s">
         <v>945</v>
       </c>
@@ -40667,10 +40413,8 @@
       <c r="AO123" s="259"/>
       <c r="AP123" s="259"/>
       <c r="AQ123" s="208"/>
-      <c r="AR123" s="259"/>
-      <c r="AS123" s="259"/>
-    </row>
-    <row r="124" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="124" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A124" s="189" t="s">
         <v>955</v>
       </c>
@@ -40728,10 +40472,8 @@
       <c r="AO124" s="259"/>
       <c r="AP124" s="259"/>
       <c r="AQ124" s="208"/>
-      <c r="AR124" s="259"/>
-      <c r="AS124" s="259"/>
-    </row>
-    <row r="125" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="125" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A125" s="190" t="s">
         <v>946</v>
       </c>
@@ -40783,10 +40525,8 @@
       <c r="AO125" s="260"/>
       <c r="AP125" s="260"/>
       <c r="AQ125" s="209"/>
-      <c r="AR125" s="260"/>
-      <c r="AS125" s="260"/>
-    </row>
-    <row r="126" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="126" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A126" s="188" t="s">
         <v>947</v>
       </c>
@@ -40838,10 +40578,8 @@
       <c r="AO126" s="258"/>
       <c r="AP126" s="258"/>
       <c r="AQ126" s="371"/>
-      <c r="AR126" s="258"/>
-      <c r="AS126" s="258"/>
-    </row>
-    <row r="127" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="127" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A127" s="189" t="s">
         <v>956</v>
       </c>
@@ -40899,10 +40637,8 @@
       <c r="AO127" s="259"/>
       <c r="AP127" s="259"/>
       <c r="AQ127" s="208"/>
-      <c r="AR127" s="259"/>
-      <c r="AS127" s="259"/>
-    </row>
-    <row r="128" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="128" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A128" s="189" t="s">
         <v>948</v>
       </c>
@@ -40960,10 +40696,8 @@
       <c r="AO128" s="259"/>
       <c r="AP128" s="259"/>
       <c r="AQ128" s="208"/>
-      <c r="AR128" s="259"/>
-      <c r="AS128" s="259"/>
-    </row>
-    <row r="129" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="129" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A129" s="189" t="s">
         <v>949</v>
       </c>
@@ -41021,10 +40755,8 @@
       <c r="AO129" s="259"/>
       <c r="AP129" s="259"/>
       <c r="AQ129" s="208"/>
-      <c r="AR129" s="259"/>
-      <c r="AS129" s="259"/>
-    </row>
-    <row r="130" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="130" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A130" s="190" t="s">
         <v>957</v>
       </c>
@@ -41082,10 +40814,8 @@
       <c r="AO130" s="260"/>
       <c r="AP130" s="260"/>
       <c r="AQ130" s="209"/>
-      <c r="AR130" s="260"/>
-      <c r="AS130" s="260"/>
-    </row>
-    <row r="131" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="131" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A131" s="407" t="s">
         <v>1194</v>
       </c>
@@ -41139,10 +40869,8 @@
       <c r="AO131" s="416"/>
       <c r="AP131" s="416"/>
       <c r="AQ131" s="371"/>
-      <c r="AR131" s="416"/>
-      <c r="AS131" s="416"/>
-    </row>
-    <row r="132" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="132" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A132" s="338" t="s">
         <v>1195</v>
       </c>
@@ -41196,10 +40924,8 @@
       <c r="AO132" s="347"/>
       <c r="AP132" s="347"/>
       <c r="AQ132" s="208"/>
-      <c r="AR132" s="347"/>
-      <c r="AS132" s="347"/>
-    </row>
-    <row r="133" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="133" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A133" s="338" t="s">
         <v>1196</v>
       </c>
@@ -41253,10 +40979,8 @@
       <c r="AO133" s="347"/>
       <c r="AP133" s="347"/>
       <c r="AQ133" s="208"/>
-      <c r="AR133" s="347"/>
-      <c r="AS133" s="347"/>
-    </row>
-    <row r="134" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="134" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A134" s="190" t="s">
         <v>1197</v>
       </c>
@@ -41314,10 +41038,8 @@
       <c r="AO134" s="260"/>
       <c r="AP134" s="260"/>
       <c r="AQ134" s="209"/>
-      <c r="AR134" s="260"/>
-      <c r="AS134" s="260"/>
-    </row>
-    <row r="135" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="135" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A135" s="191" t="s">
         <v>224</v>
       </c>
@@ -41369,10 +41091,8 @@
       <c r="AO135" s="261"/>
       <c r="AP135" s="261"/>
       <c r="AQ135" s="210"/>
-      <c r="AR135" s="261"/>
-      <c r="AS135" s="261"/>
-    </row>
-    <row r="136" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="136" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A136" s="192" t="s">
         <v>206</v>
       </c>
@@ -41428,10 +41148,8 @@
       <c r="AO136" s="262"/>
       <c r="AP136" s="262"/>
       <c r="AQ136" s="208"/>
-      <c r="AR136" s="262"/>
-      <c r="AS136" s="262"/>
-    </row>
-    <row r="137" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="137" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A137" s="192" t="s">
         <v>207</v>
       </c>
@@ -41483,10 +41201,8 @@
       <c r="AO137" s="262"/>
       <c r="AP137" s="262"/>
       <c r="AQ137" s="208"/>
-      <c r="AR137" s="262"/>
-      <c r="AS137" s="262"/>
-    </row>
-    <row r="138" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="138" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A138" s="192" t="s">
         <v>178</v>
       </c>
@@ -41542,10 +41258,8 @@
       <c r="AO138" s="262"/>
       <c r="AP138" s="262"/>
       <c r="AQ138" s="208"/>
-      <c r="AR138" s="262"/>
-      <c r="AS138" s="262"/>
-    </row>
-    <row r="139" spans="1:45" ht="18.95" hidden="1" customHeight="1">
+    </row>
+    <row r="139" spans="1:43" ht="18.95" hidden="1" customHeight="1">
       <c r="A139" s="192" t="s">
         <v>208</v>
       </c>
@@ -41601,10 +41315,8 @@
       <c r="AO139" s="262"/>
       <c r="AP139" s="262"/>
       <c r="AQ139" s="208"/>
-      <c r="AR139" s="262"/>
-      <c r="AS139" s="262"/>
-    </row>
-    <row r="140" spans="1:45" ht="18.600000000000001" hidden="1" customHeight="1">
+    </row>
+    <row r="140" spans="1:43" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A140" s="192" t="s">
         <v>225</v>
       </c>
@@ -41660,10 +41372,8 @@
       <c r="AO140" s="262"/>
       <c r="AP140" s="262"/>
       <c r="AQ140" s="208"/>
-      <c r="AR140" s="262"/>
-      <c r="AS140" s="262"/>
-    </row>
-    <row r="141" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="141" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A141" s="192" t="s">
         <v>209</v>
       </c>
@@ -41715,10 +41425,8 @@
       <c r="AO141" s="262"/>
       <c r="AP141" s="262"/>
       <c r="AQ141" s="208"/>
-      <c r="AR141" s="262"/>
-      <c r="AS141" s="262"/>
-    </row>
-    <row r="142" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="142" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A142" s="192" t="s">
         <v>179</v>
       </c>
@@ -41774,10 +41482,8 @@
       <c r="AO142" s="262"/>
       <c r="AP142" s="262"/>
       <c r="AQ142" s="208"/>
-      <c r="AR142" s="262"/>
-      <c r="AS142" s="262"/>
-    </row>
-    <row r="143" spans="1:45" ht="17.100000000000001" hidden="1" customHeight="1">
+    </row>
+    <row r="143" spans="1:43" ht="17.100000000000001" hidden="1" customHeight="1">
       <c r="A143" s="192" t="s">
         <v>226</v>
       </c>
@@ -41833,10 +41539,8 @@
       <c r="AO143" s="262"/>
       <c r="AP143" s="262"/>
       <c r="AQ143" s="208"/>
-      <c r="AR143" s="262"/>
-      <c r="AS143" s="262"/>
-    </row>
-    <row r="144" spans="1:45" ht="15.6" hidden="1" customHeight="1">
+    </row>
+    <row r="144" spans="1:43" ht="15.6" hidden="1" customHeight="1">
       <c r="A144" s="192" t="s">
         <v>227</v>
       </c>
@@ -41892,10 +41596,8 @@
       <c r="AO144" s="262"/>
       <c r="AP144" s="262"/>
       <c r="AQ144" s="208"/>
-      <c r="AR144" s="262"/>
-      <c r="AS144" s="262"/>
-    </row>
-    <row r="145" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="145" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A145" s="192" t="s">
         <v>210</v>
       </c>
@@ -41947,10 +41649,8 @@
       <c r="AO145" s="262"/>
       <c r="AP145" s="262"/>
       <c r="AQ145" s="208"/>
-      <c r="AR145" s="262"/>
-      <c r="AS145" s="262"/>
-    </row>
-    <row r="146" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="146" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A146" s="192" t="s">
         <v>180</v>
       </c>
@@ -42006,10 +41706,8 @@
       <c r="AO146" s="262"/>
       <c r="AP146" s="262"/>
       <c r="AQ146" s="208"/>
-      <c r="AR146" s="262"/>
-      <c r="AS146" s="262"/>
-    </row>
-    <row r="147" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="147" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A147" s="192" t="s">
         <v>211</v>
       </c>
@@ -42065,10 +41763,8 @@
       <c r="AO147" s="262"/>
       <c r="AP147" s="262"/>
       <c r="AQ147" s="208"/>
-      <c r="AR147" s="262"/>
-      <c r="AS147" s="262"/>
-    </row>
-    <row r="148" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="148" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A148" s="192" t="s">
         <v>212</v>
       </c>
@@ -42120,10 +41816,8 @@
       <c r="AO148" s="262"/>
       <c r="AP148" s="262"/>
       <c r="AQ148" s="208"/>
-      <c r="AR148" s="262"/>
-      <c r="AS148" s="262"/>
-    </row>
-    <row r="149" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="149" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A149" s="192" t="s">
         <v>213</v>
       </c>
@@ -42179,10 +41873,8 @@
       <c r="AO149" s="262"/>
       <c r="AP149" s="262"/>
       <c r="AQ149" s="208"/>
-      <c r="AR149" s="262"/>
-      <c r="AS149" s="262"/>
-    </row>
-    <row r="150" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="150" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A150" s="192" t="s">
         <v>214</v>
       </c>
@@ -42238,10 +41930,8 @@
       <c r="AO150" s="262"/>
       <c r="AP150" s="262"/>
       <c r="AQ150" s="208"/>
-      <c r="AR150" s="262"/>
-      <c r="AS150" s="262"/>
-    </row>
-    <row r="151" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="151" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A151" s="192" t="s">
         <v>215</v>
       </c>
@@ -42293,10 +41983,8 @@
       <c r="AO151" s="262"/>
       <c r="AP151" s="262"/>
       <c r="AQ151" s="208"/>
-      <c r="AR151" s="262"/>
-      <c r="AS151" s="262"/>
-    </row>
-    <row r="152" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="152" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A152" s="192" t="s">
         <v>216</v>
       </c>
@@ -42352,10 +42040,8 @@
       <c r="AO152" s="262"/>
       <c r="AP152" s="262"/>
       <c r="AQ152" s="208"/>
-      <c r="AR152" s="262"/>
-      <c r="AS152" s="262"/>
-    </row>
-    <row r="153" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="153" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A153" s="192" t="s">
         <v>217</v>
       </c>
@@ -42411,10 +42097,8 @@
       <c r="AO153" s="262"/>
       <c r="AP153" s="262"/>
       <c r="AQ153" s="208"/>
-      <c r="AR153" s="262"/>
-      <c r="AS153" s="262"/>
-    </row>
-    <row r="154" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="154" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A154" s="192" t="s">
         <v>228</v>
       </c>
@@ -42470,10 +42154,8 @@
       <c r="AO154" s="262"/>
       <c r="AP154" s="262"/>
       <c r="AQ154" s="208"/>
-      <c r="AR154" s="262"/>
-      <c r="AS154" s="262"/>
-    </row>
-    <row r="155" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="155" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A155" s="192" t="s">
         <v>229</v>
       </c>
@@ -42529,10 +42211,8 @@
       <c r="AO155" s="262"/>
       <c r="AP155" s="262"/>
       <c r="AQ155" s="208"/>
-      <c r="AR155" s="262"/>
-      <c r="AS155" s="262"/>
-    </row>
-    <row r="156" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="156" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A156" s="192" t="s">
         <v>218</v>
       </c>
@@ -42584,10 +42264,8 @@
       <c r="AO156" s="262"/>
       <c r="AP156" s="262"/>
       <c r="AQ156" s="208"/>
-      <c r="AR156" s="262"/>
-      <c r="AS156" s="262"/>
-    </row>
-    <row r="157" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="157" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A157" s="192" t="s">
         <v>230</v>
       </c>
@@ -42643,10 +42321,8 @@
       <c r="AO157" s="262"/>
       <c r="AP157" s="262"/>
       <c r="AQ157" s="208"/>
-      <c r="AR157" s="262"/>
-      <c r="AS157" s="262"/>
-    </row>
-    <row r="158" spans="1:45" ht="24.6" hidden="1" customHeight="1">
+    </row>
+    <row r="158" spans="1:43" ht="24.6" hidden="1" customHeight="1">
       <c r="A158" s="192" t="s">
         <v>231</v>
       </c>
@@ -42702,10 +42378,8 @@
       <c r="AO158" s="262"/>
       <c r="AP158" s="262"/>
       <c r="AQ158" s="208"/>
-      <c r="AR158" s="262"/>
-      <c r="AS158" s="262"/>
-    </row>
-    <row r="159" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="159" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A159" s="192" t="s">
         <v>232</v>
       </c>
@@ -42761,10 +42435,8 @@
       <c r="AO159" s="262"/>
       <c r="AP159" s="262"/>
       <c r="AQ159" s="208"/>
-      <c r="AR159" s="262"/>
-      <c r="AS159" s="262"/>
-    </row>
-    <row r="160" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="160" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A160" s="193" t="s">
         <v>233</v>
       </c>
@@ -42820,10 +42492,8 @@
       <c r="AO160" s="263"/>
       <c r="AP160" s="263"/>
       <c r="AQ160" s="208"/>
-      <c r="AR160" s="263"/>
-      <c r="AS160" s="263"/>
-    </row>
-    <row r="161" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="161" spans="1:46" ht="16.5" hidden="1" thickBot="1">
       <c r="A161" s="452" t="s">
         <v>234</v>
       </c>
@@ -42881,10 +42551,8 @@
       <c r="AO161" s="575"/>
       <c r="AP161" s="575"/>
       <c r="AQ161" s="208"/>
-      <c r="AR161" s="575"/>
-      <c r="AS161" s="575"/>
-    </row>
-    <row r="162" spans="1:45" ht="24.95" hidden="1" customHeight="1">
+    </row>
+    <row r="162" spans="1:46" ht="24.95" hidden="1" customHeight="1">
       <c r="A162" s="191" t="s">
         <v>235</v>
       </c>
@@ -42940,10 +42608,8 @@
       <c r="AO162" s="261"/>
       <c r="AP162" s="261"/>
       <c r="AQ162" s="208"/>
-      <c r="AR162" s="261"/>
-      <c r="AS162" s="261"/>
-    </row>
-    <row r="163" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="163" spans="1:46" ht="16.5" hidden="1" thickBot="1">
       <c r="A163" s="192" t="s">
         <v>1007</v>
       </c>
@@ -42995,10 +42661,8 @@
       <c r="AO163" s="262"/>
       <c r="AP163" s="262"/>
       <c r="AQ163" s="208"/>
-      <c r="AR163" s="262"/>
-      <c r="AS163" s="262"/>
-    </row>
-    <row r="164" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="164" spans="1:46" ht="16.5" hidden="1" thickBot="1">
       <c r="A164" s="192" t="s">
         <v>219</v>
       </c>
@@ -43054,10 +42718,8 @@
       <c r="AO164" s="262"/>
       <c r="AP164" s="262"/>
       <c r="AQ164" s="208"/>
-      <c r="AR164" s="262"/>
-      <c r="AS164" s="262"/>
-    </row>
-    <row r="165" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="165" spans="1:46" ht="16.5" hidden="1" thickBot="1">
       <c r="A165" s="192" t="s">
         <v>220</v>
       </c>
@@ -43113,10 +42775,8 @@
       <c r="AO165" s="262"/>
       <c r="AP165" s="262"/>
       <c r="AQ165" s="208"/>
-      <c r="AR165" s="262"/>
-      <c r="AS165" s="262"/>
-    </row>
-    <row r="166" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="166" spans="1:46" ht="16.5" hidden="1" thickBot="1">
       <c r="A166" s="192" t="s">
         <v>236</v>
       </c>
@@ -43172,10 +42832,8 @@
       <c r="AO166" s="262"/>
       <c r="AP166" s="262"/>
       <c r="AQ166" s="208"/>
-      <c r="AR166" s="262"/>
-      <c r="AS166" s="262"/>
-    </row>
-    <row r="167" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="167" spans="1:46" ht="16.5" hidden="1" thickBot="1">
       <c r="A167" s="192" t="s">
         <v>221</v>
       </c>
@@ -43231,10 +42889,8 @@
       <c r="AO167" s="262"/>
       <c r="AP167" s="262"/>
       <c r="AQ167" s="208"/>
-      <c r="AR167" s="262"/>
-      <c r="AS167" s="262"/>
-    </row>
-    <row r="168" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="168" spans="1:46" ht="16.5" hidden="1" thickBot="1">
       <c r="A168" s="192" t="s">
         <v>237</v>
       </c>
@@ -43290,10 +42946,8 @@
       <c r="AO168" s="262"/>
       <c r="AP168" s="262"/>
       <c r="AQ168" s="208"/>
-      <c r="AR168" s="262"/>
-      <c r="AS168" s="262"/>
-    </row>
-    <row r="169" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="169" spans="1:46" ht="16.5" hidden="1" thickBot="1">
       <c r="A169" s="192" t="s">
         <v>222</v>
       </c>
@@ -43349,10 +43003,8 @@
       <c r="AO169" s="262"/>
       <c r="AP169" s="262"/>
       <c r="AQ169" s="208"/>
-      <c r="AR169" s="262"/>
-      <c r="AS169" s="262"/>
-    </row>
-    <row r="170" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="170" spans="1:46" ht="16.5" hidden="1" thickBot="1">
       <c r="A170" s="192" t="s">
         <v>223</v>
       </c>
@@ -43404,10 +43056,8 @@
       <c r="AO170" s="262"/>
       <c r="AP170" s="262"/>
       <c r="AQ170" s="208"/>
-      <c r="AR170" s="262"/>
-      <c r="AS170" s="262"/>
-    </row>
-    <row r="171" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="171" spans="1:46" ht="16.5" hidden="1" thickBot="1">
       <c r="A171" s="192" t="s">
         <v>238</v>
       </c>
@@ -43459,10 +43109,8 @@
       <c r="AO171" s="262"/>
       <c r="AP171" s="262"/>
       <c r="AQ171" s="208"/>
-      <c r="AR171" s="262"/>
-      <c r="AS171" s="262"/>
-    </row>
-    <row r="172" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="172" spans="1:46" ht="16.5" hidden="1" thickBot="1">
       <c r="A172" s="192" t="s">
         <v>239</v>
       </c>
@@ -43514,10 +43162,8 @@
       <c r="AO172" s="262"/>
       <c r="AP172" s="262"/>
       <c r="AQ172" s="208"/>
-      <c r="AR172" s="262"/>
-      <c r="AS172" s="262"/>
-    </row>
-    <row r="173" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="173" spans="1:46" ht="16.5" hidden="1" thickBot="1">
       <c r="A173" s="193" t="s">
         <v>1068</v>
       </c>
@@ -43573,10 +43219,8 @@
       <c r="AO173" s="263"/>
       <c r="AP173" s="263"/>
       <c r="AQ173" s="208"/>
-      <c r="AR173" s="263"/>
-      <c r="AS173" s="263"/>
-    </row>
-    <row r="174" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="174" spans="1:46" ht="16.5" hidden="1" thickBot="1">
       <c r="A174" s="178" t="s">
         <v>128</v>
       </c>
@@ -43632,10 +43276,8 @@
       <c r="AO174" s="576"/>
       <c r="AP174" s="576"/>
       <c r="AQ174" s="208"/>
-      <c r="AR174" s="576"/>
-      <c r="AS174" s="576"/>
-    </row>
-    <row r="175" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="175" spans="1:46" ht="16.5" hidden="1" thickBot="1">
       <c r="A175" s="181" t="s">
         <v>129</v>
       </c>
@@ -43691,10 +43333,8 @@
       <c r="AO175" s="577"/>
       <c r="AP175" s="577"/>
       <c r="AQ175" s="208"/>
-      <c r="AR175" s="577"/>
-      <c r="AS175" s="577"/>
-    </row>
-    <row r="176" spans="1:45" ht="15.75">
+    </row>
+    <row r="176" spans="1:46" ht="15.75">
       <c r="A176" s="194" t="s">
         <v>1128</v>
       </c>
@@ -43764,12 +43404,17 @@
       </c>
       <c r="AP176" s="266"/>
       <c r="AQ176" s="208"/>
-      <c r="AR176" s="581">
-        <v>5</v>
-      </c>
-      <c r="AS176" s="266"/>
-    </row>
-    <row r="177" spans="1:45" ht="15.75" hidden="1">
+      <c r="AR176" s="53">
+        <v>3</v>
+      </c>
+      <c r="AS176" s="53">
+        <v>3</v>
+      </c>
+      <c r="AT176" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:43" ht="15.75" hidden="1">
       <c r="A177" s="504" t="s">
         <v>1175</v>
       </c>
@@ -43823,10 +43468,8 @@
       <c r="AO177" s="513"/>
       <c r="AP177" s="513"/>
       <c r="AQ177" s="378"/>
-      <c r="AR177" s="513"/>
-      <c r="AS177" s="513"/>
-    </row>
-    <row r="178" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="178" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A178" s="504" t="s">
         <v>1223</v>
       </c>
@@ -43886,10 +43529,8 @@
       <c r="AO178" s="582"/>
       <c r="AP178" s="582"/>
       <c r="AQ178" s="378"/>
-      <c r="AR178" s="582"/>
-      <c r="AS178" s="582"/>
-    </row>
-    <row r="179" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="179" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A179" s="504" t="s">
         <v>1243</v>
       </c>
@@ -43947,12 +43588,8 @@
         <v>5</v>
       </c>
       <c r="AQ179" s="378"/>
-      <c r="AR179" s="582"/>
-      <c r="AS179" s="582">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="180" spans="1:43" ht="15.75" hidden="1">
       <c r="A180" s="187" t="s">
         <v>133</v>
       </c>
@@ -43999,10 +43636,8 @@
       <c r="AO180" s="79"/>
       <c r="AP180" s="79"/>
       <c r="AQ180" s="208"/>
-      <c r="AR180" s="79"/>
-      <c r="AS180" s="79"/>
-    </row>
-    <row r="181" spans="1:45" ht="18.95" hidden="1" customHeight="1">
+    </row>
+    <row r="181" spans="1:43" ht="18.95" hidden="1" customHeight="1">
       <c r="A181" s="195" t="s">
         <v>713</v>
       </c>
@@ -44054,10 +43689,8 @@
       <c r="AO181" s="176"/>
       <c r="AP181" s="176"/>
       <c r="AQ181" s="208"/>
-      <c r="AR181" s="176"/>
-      <c r="AS181" s="176"/>
-    </row>
-    <row r="182" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="182" spans="1:43" ht="15.75" hidden="1">
       <c r="A182" s="195" t="s">
         <v>714</v>
       </c>
@@ -44109,10 +43742,8 @@
       <c r="AO182" s="176"/>
       <c r="AP182" s="176"/>
       <c r="AQ182" s="208"/>
-      <c r="AR182" s="176"/>
-      <c r="AS182" s="176"/>
-    </row>
-    <row r="183" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="183" spans="1:43" ht="15.75" hidden="1">
       <c r="A183" s="195" t="s">
         <v>715</v>
       </c>
@@ -44164,10 +43795,8 @@
       <c r="AO183" s="176"/>
       <c r="AP183" s="176"/>
       <c r="AQ183" s="208"/>
-      <c r="AR183" s="176"/>
-      <c r="AS183" s="176"/>
-    </row>
-    <row r="184" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="184" spans="1:43" ht="15.75" hidden="1">
       <c r="A184" s="195" t="s">
         <v>716</v>
       </c>
@@ -44219,10 +43848,8 @@
       <c r="AO184" s="176"/>
       <c r="AP184" s="176"/>
       <c r="AQ184" s="208"/>
-      <c r="AR184" s="176"/>
-      <c r="AS184" s="176"/>
-    </row>
-    <row r="185" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="185" spans="1:43" ht="15.75" hidden="1">
       <c r="A185" s="195" t="s">
         <v>717</v>
       </c>
@@ -44274,10 +43901,8 @@
       <c r="AO185" s="176"/>
       <c r="AP185" s="176"/>
       <c r="AQ185" s="208"/>
-      <c r="AR185" s="176"/>
-      <c r="AS185" s="176"/>
-    </row>
-    <row r="186" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="186" spans="1:43" ht="15.75" hidden="1">
       <c r="A186" s="195" t="s">
         <v>718</v>
       </c>
@@ -44329,10 +43954,8 @@
       <c r="AO186" s="176"/>
       <c r="AP186" s="176"/>
       <c r="AQ186" s="208"/>
-      <c r="AR186" s="176"/>
-      <c r="AS186" s="176"/>
-    </row>
-    <row r="187" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="187" spans="1:43" ht="15.75" hidden="1">
       <c r="A187" s="195" t="s">
         <v>719</v>
       </c>
@@ -44384,10 +44007,8 @@
       <c r="AO187" s="176"/>
       <c r="AP187" s="176"/>
       <c r="AQ187" s="208"/>
-      <c r="AR187" s="176"/>
-      <c r="AS187" s="176"/>
-    </row>
-    <row r="188" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="188" spans="1:43" ht="15.75" hidden="1">
       <c r="A188" s="196" t="s">
         <v>720</v>
       </c>
@@ -44443,10 +44064,8 @@
       <c r="AO188" s="176"/>
       <c r="AP188" s="176"/>
       <c r="AQ188" s="208"/>
-      <c r="AR188" s="176"/>
-      <c r="AS188" s="176"/>
-    </row>
-    <row r="189" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="189" spans="1:43" ht="15.75" hidden="1">
       <c r="A189" s="195" t="s">
         <v>721</v>
       </c>
@@ -44502,10 +44121,8 @@
       <c r="AO189" s="176"/>
       <c r="AP189" s="176"/>
       <c r="AQ189" s="208"/>
-      <c r="AR189" s="176"/>
-      <c r="AS189" s="176"/>
-    </row>
-    <row r="190" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="190" spans="1:43" ht="15.75" hidden="1">
       <c r="A190" s="195" t="s">
         <v>722</v>
       </c>
@@ -44561,10 +44178,8 @@
       <c r="AO190" s="176"/>
       <c r="AP190" s="176"/>
       <c r="AQ190" s="208"/>
-      <c r="AR190" s="176"/>
-      <c r="AS190" s="176"/>
-    </row>
-    <row r="191" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="191" spans="1:43" ht="15.75" hidden="1">
       <c r="A191" s="195" t="s">
         <v>723</v>
       </c>
@@ -44620,10 +44235,8 @@
       <c r="AO191" s="176"/>
       <c r="AP191" s="176"/>
       <c r="AQ191" s="208"/>
-      <c r="AR191" s="176"/>
-      <c r="AS191" s="176"/>
-    </row>
-    <row r="192" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="192" spans="1:43" ht="15.75" hidden="1">
       <c r="A192" s="195" t="s">
         <v>724</v>
       </c>
@@ -44675,10 +44288,8 @@
       <c r="AO192" s="176"/>
       <c r="AP192" s="176"/>
       <c r="AQ192" s="208"/>
-      <c r="AR192" s="176"/>
-      <c r="AS192" s="176"/>
-    </row>
-    <row r="193" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="193" spans="1:43" ht="15.75" hidden="1">
       <c r="A193" s="195" t="s">
         <v>725</v>
       </c>
@@ -44730,10 +44341,8 @@
       <c r="AO193" s="176"/>
       <c r="AP193" s="176"/>
       <c r="AQ193" s="208"/>
-      <c r="AR193" s="176"/>
-      <c r="AS193" s="176"/>
-    </row>
-    <row r="194" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="194" spans="1:43" ht="15.75" hidden="1">
       <c r="A194" s="195" t="s">
         <v>726</v>
       </c>
@@ -44785,10 +44394,8 @@
       <c r="AO194" s="176"/>
       <c r="AP194" s="176"/>
       <c r="AQ194" s="208"/>
-      <c r="AR194" s="176"/>
-      <c r="AS194" s="176"/>
-    </row>
-    <row r="195" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="195" spans="1:43" ht="15.75" hidden="1">
       <c r="A195" s="195" t="s">
         <v>727</v>
       </c>
@@ -44840,10 +44447,8 @@
       <c r="AO195" s="176"/>
       <c r="AP195" s="176"/>
       <c r="AQ195" s="208"/>
-      <c r="AR195" s="176"/>
-      <c r="AS195" s="176"/>
-    </row>
-    <row r="196" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="196" spans="1:43" ht="15.75" hidden="1">
       <c r="A196" s="195" t="s">
         <v>728</v>
       </c>
@@ -44895,10 +44500,8 @@
       <c r="AO196" s="176"/>
       <c r="AP196" s="176"/>
       <c r="AQ196" s="208"/>
-      <c r="AR196" s="176"/>
-      <c r="AS196" s="176"/>
-    </row>
-    <row r="197" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="197" spans="1:43" ht="15.75" hidden="1">
       <c r="A197" s="195" t="s">
         <v>729</v>
       </c>
@@ -44950,10 +44553,8 @@
       <c r="AO197" s="176"/>
       <c r="AP197" s="176"/>
       <c r="AQ197" s="208"/>
-      <c r="AR197" s="176"/>
-      <c r="AS197" s="176"/>
-    </row>
-    <row r="198" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="198" spans="1:43" ht="15.75" hidden="1">
       <c r="A198" s="195" t="s">
         <v>730</v>
       </c>
@@ -45005,10 +44606,8 @@
       <c r="AO198" s="176"/>
       <c r="AP198" s="176"/>
       <c r="AQ198" s="208"/>
-      <c r="AR198" s="176"/>
-      <c r="AS198" s="176"/>
-    </row>
-    <row r="199" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="199" spans="1:43" ht="15.75" hidden="1">
       <c r="A199" s="195" t="s">
         <v>731</v>
       </c>
@@ -45060,10 +44659,8 @@
       <c r="AO199" s="176"/>
       <c r="AP199" s="176"/>
       <c r="AQ199" s="208"/>
-      <c r="AR199" s="176"/>
-      <c r="AS199" s="176"/>
-    </row>
-    <row r="200" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="200" spans="1:43" ht="15.75" hidden="1">
       <c r="A200" s="195" t="s">
         <v>732</v>
       </c>
@@ -45119,10 +44716,8 @@
       <c r="AO200" s="176"/>
       <c r="AP200" s="176"/>
       <c r="AQ200" s="208"/>
-      <c r="AR200" s="176"/>
-      <c r="AS200" s="176"/>
-    </row>
-    <row r="201" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="201" spans="1:43" ht="15.75" hidden="1">
       <c r="A201" s="195" t="s">
         <v>733</v>
       </c>
@@ -45178,10 +44773,8 @@
       <c r="AO201" s="176"/>
       <c r="AP201" s="176"/>
       <c r="AQ201" s="208"/>
-      <c r="AR201" s="176"/>
-      <c r="AS201" s="176"/>
-    </row>
-    <row r="202" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="202" spans="1:43" ht="15.75" hidden="1">
       <c r="A202" s="195" t="s">
         <v>734</v>
       </c>
@@ -45237,10 +44830,8 @@
       <c r="AO202" s="176"/>
       <c r="AP202" s="176"/>
       <c r="AQ202" s="208"/>
-      <c r="AR202" s="176"/>
-      <c r="AS202" s="176"/>
-    </row>
-    <row r="203" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="203" spans="1:43" ht="15.75" hidden="1">
       <c r="A203" s="195" t="s">
         <v>735</v>
       </c>
@@ -45296,10 +44887,8 @@
       <c r="AO203" s="176"/>
       <c r="AP203" s="176"/>
       <c r="AQ203" s="208"/>
-      <c r="AR203" s="176"/>
-      <c r="AS203" s="176"/>
-    </row>
-    <row r="204" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="204" spans="1:43" ht="15.75" hidden="1">
       <c r="A204" s="195" t="s">
         <v>736</v>
       </c>
@@ -45351,10 +44940,8 @@
       <c r="AO204" s="176"/>
       <c r="AP204" s="176"/>
       <c r="AQ204" s="208"/>
-      <c r="AR204" s="176"/>
-      <c r="AS204" s="176"/>
-    </row>
-    <row r="205" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="205" spans="1:43" ht="15.75" hidden="1">
       <c r="A205" s="195" t="s">
         <v>737</v>
       </c>
@@ -45406,10 +44993,8 @@
       <c r="AO205" s="176"/>
       <c r="AP205" s="176"/>
       <c r="AQ205" s="208"/>
-      <c r="AR205" s="176"/>
-      <c r="AS205" s="176"/>
-    </row>
-    <row r="206" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="206" spans="1:43" ht="15.75" hidden="1">
       <c r="A206" s="195" t="s">
         <v>738</v>
       </c>
@@ -45465,10 +45050,8 @@
       <c r="AO206" s="176"/>
       <c r="AP206" s="176"/>
       <c r="AQ206" s="208"/>
-      <c r="AR206" s="176"/>
-      <c r="AS206" s="176"/>
-    </row>
-    <row r="207" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="207" spans="1:43" ht="15.75" hidden="1">
       <c r="A207" s="195" t="s">
         <v>739</v>
       </c>
@@ -45524,10 +45107,8 @@
       <c r="AO207" s="176"/>
       <c r="AP207" s="176"/>
       <c r="AQ207" s="208"/>
-      <c r="AR207" s="176"/>
-      <c r="AS207" s="176"/>
-    </row>
-    <row r="208" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="208" spans="1:43" ht="15.75" hidden="1">
       <c r="A208" s="195" t="s">
         <v>740</v>
       </c>
@@ -45583,10 +45164,8 @@
       <c r="AO208" s="176"/>
       <c r="AP208" s="176"/>
       <c r="AQ208" s="208"/>
-      <c r="AR208" s="176"/>
-      <c r="AS208" s="176"/>
-    </row>
-    <row r="209" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="209" spans="1:43" ht="15.75" hidden="1">
       <c r="A209" s="195" t="s">
         <v>741</v>
       </c>
@@ -45642,10 +45221,8 @@
       <c r="AO209" s="176"/>
       <c r="AP209" s="176"/>
       <c r="AQ209" s="208"/>
-      <c r="AR209" s="176"/>
-      <c r="AS209" s="176"/>
-    </row>
-    <row r="210" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="210" spans="1:43" ht="15.75" hidden="1">
       <c r="A210" s="195" t="s">
         <v>742</v>
       </c>
@@ -45697,10 +45274,8 @@
       <c r="AO210" s="176"/>
       <c r="AP210" s="176"/>
       <c r="AQ210" s="208"/>
-      <c r="AR210" s="176"/>
-      <c r="AS210" s="176"/>
-    </row>
-    <row r="211" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="211" spans="1:43" ht="15.75" hidden="1">
       <c r="A211" s="195" t="s">
         <v>743</v>
       </c>
@@ -45752,10 +45327,8 @@
       <c r="AO211" s="176"/>
       <c r="AP211" s="176"/>
       <c r="AQ211" s="208"/>
-      <c r="AR211" s="176"/>
-      <c r="AS211" s="176"/>
-    </row>
-    <row r="212" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="212" spans="1:43" ht="15.75" hidden="1">
       <c r="A212" s="195" t="s">
         <v>744</v>
       </c>
@@ -45811,10 +45384,8 @@
       <c r="AO212" s="176"/>
       <c r="AP212" s="176"/>
       <c r="AQ212" s="208"/>
-      <c r="AR212" s="176"/>
-      <c r="AS212" s="176"/>
-    </row>
-    <row r="213" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="213" spans="1:43" ht="15.75" hidden="1">
       <c r="A213" s="195" t="s">
         <v>745</v>
       </c>
@@ -45870,10 +45441,8 @@
       <c r="AO213" s="176"/>
       <c r="AP213" s="176"/>
       <c r="AQ213" s="208"/>
-      <c r="AR213" s="176"/>
-      <c r="AS213" s="176"/>
-    </row>
-    <row r="214" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="214" spans="1:43" ht="15.75" hidden="1">
       <c r="A214" s="195" t="s">
         <v>746</v>
       </c>
@@ -45929,10 +45498,8 @@
       <c r="AO214" s="176"/>
       <c r="AP214" s="176"/>
       <c r="AQ214" s="208"/>
-      <c r="AR214" s="176"/>
-      <c r="AS214" s="176"/>
-    </row>
-    <row r="215" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="215" spans="1:43" ht="15.75" hidden="1">
       <c r="A215" s="195" t="s">
         <v>747</v>
       </c>
@@ -45988,10 +45555,8 @@
       <c r="AO215" s="176"/>
       <c r="AP215" s="176"/>
       <c r="AQ215" s="208"/>
-      <c r="AR215" s="176"/>
-      <c r="AS215" s="176"/>
-    </row>
-    <row r="216" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="216" spans="1:43" ht="15.75" hidden="1">
       <c r="A216" s="195" t="s">
         <v>748</v>
       </c>
@@ -46043,10 +45608,8 @@
       <c r="AO216" s="176"/>
       <c r="AP216" s="176"/>
       <c r="AQ216" s="208"/>
-      <c r="AR216" s="176"/>
-      <c r="AS216" s="176"/>
-    </row>
-    <row r="217" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="217" spans="1:43" ht="15.75" hidden="1">
       <c r="A217" s="195" t="s">
         <v>749</v>
       </c>
@@ -46098,10 +45661,8 @@
       <c r="AO217" s="176"/>
       <c r="AP217" s="176"/>
       <c r="AQ217" s="208"/>
-      <c r="AR217" s="176"/>
-      <c r="AS217" s="176"/>
-    </row>
-    <row r="218" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="218" spans="1:43" ht="15.75" hidden="1">
       <c r="A218" s="195" t="s">
         <v>750</v>
       </c>
@@ -46153,10 +45714,8 @@
       <c r="AO218" s="176"/>
       <c r="AP218" s="176"/>
       <c r="AQ218" s="208"/>
-      <c r="AR218" s="176"/>
-      <c r="AS218" s="176"/>
-    </row>
-    <row r="219" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="219" spans="1:43" ht="15.75" hidden="1">
       <c r="A219" s="195" t="s">
         <v>751</v>
       </c>
@@ -46208,10 +45767,8 @@
       <c r="AO219" s="176"/>
       <c r="AP219" s="176"/>
       <c r="AQ219" s="208"/>
-      <c r="AR219" s="176"/>
-      <c r="AS219" s="176"/>
-    </row>
-    <row r="220" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="220" spans="1:43" ht="15.75" hidden="1">
       <c r="A220" s="195" t="s">
         <v>752</v>
       </c>
@@ -46263,10 +45820,8 @@
       <c r="AO220" s="176"/>
       <c r="AP220" s="176"/>
       <c r="AQ220" s="208"/>
-      <c r="AR220" s="176"/>
-      <c r="AS220" s="176"/>
-    </row>
-    <row r="221" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="221" spans="1:43" ht="15.75" hidden="1">
       <c r="A221" s="195" t="s">
         <v>753</v>
       </c>
@@ -46318,10 +45873,8 @@
       <c r="AO221" s="176"/>
       <c r="AP221" s="176"/>
       <c r="AQ221" s="208"/>
-      <c r="AR221" s="176"/>
-      <c r="AS221" s="176"/>
-    </row>
-    <row r="222" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="222" spans="1:43" ht="15.75" hidden="1">
       <c r="A222" s="195" t="s">
         <v>754</v>
       </c>
@@ -46373,10 +45926,8 @@
       <c r="AO222" s="176"/>
       <c r="AP222" s="176"/>
       <c r="AQ222" s="208"/>
-      <c r="AR222" s="176"/>
-      <c r="AS222" s="176"/>
-    </row>
-    <row r="223" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="223" spans="1:43" ht="31.5" hidden="1">
       <c r="A223" s="197" t="s">
         <v>755</v>
       </c>
@@ -46428,10 +45979,8 @@
       <c r="AO223" s="176"/>
       <c r="AP223" s="176"/>
       <c r="AQ223" s="208"/>
-      <c r="AR223" s="176"/>
-      <c r="AS223" s="176"/>
-    </row>
-    <row r="224" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="224" spans="1:43" ht="31.5" hidden="1">
       <c r="A224" s="197" t="s">
         <v>756</v>
       </c>
@@ -46487,10 +46036,8 @@
       <c r="AO224" s="176"/>
       <c r="AP224" s="176"/>
       <c r="AQ224" s="208"/>
-      <c r="AR224" s="176"/>
-      <c r="AS224" s="176"/>
-    </row>
-    <row r="225" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="225" spans="1:43" ht="31.5" hidden="1">
       <c r="A225" s="197" t="s">
         <v>757</v>
       </c>
@@ -46546,10 +46093,8 @@
       <c r="AO225" s="176"/>
       <c r="AP225" s="176"/>
       <c r="AQ225" s="208"/>
-      <c r="AR225" s="176"/>
-      <c r="AS225" s="176"/>
-    </row>
-    <row r="226" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="226" spans="1:43" ht="31.5" hidden="1">
       <c r="A226" s="197" t="s">
         <v>1000</v>
       </c>
@@ -46605,10 +46150,8 @@
       <c r="AO226" s="176"/>
       <c r="AP226" s="176"/>
       <c r="AQ226" s="208"/>
-      <c r="AR226" s="176"/>
-      <c r="AS226" s="176"/>
-    </row>
-    <row r="227" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="227" spans="1:43" ht="31.5" hidden="1">
       <c r="A227" s="197" t="s">
         <v>758</v>
       </c>
@@ -46664,10 +46207,8 @@
       <c r="AO227" s="176"/>
       <c r="AP227" s="176"/>
       <c r="AQ227" s="208"/>
-      <c r="AR227" s="176"/>
-      <c r="AS227" s="176"/>
-    </row>
-    <row r="228" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="228" spans="1:43" ht="31.5" hidden="1">
       <c r="A228" s="197" t="s">
         <v>759</v>
       </c>
@@ -46719,10 +46260,8 @@
       <c r="AO228" s="176"/>
       <c r="AP228" s="176"/>
       <c r="AQ228" s="208"/>
-      <c r="AR228" s="176"/>
-      <c r="AS228" s="176"/>
-    </row>
-    <row r="229" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="229" spans="1:43" ht="31.5" hidden="1">
       <c r="A229" s="197" t="s">
         <v>760</v>
       </c>
@@ -46774,10 +46313,8 @@
       <c r="AO229" s="176"/>
       <c r="AP229" s="176"/>
       <c r="AQ229" s="208"/>
-      <c r="AR229" s="176"/>
-      <c r="AS229" s="176"/>
-    </row>
-    <row r="230" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="230" spans="1:43" ht="31.5" hidden="1">
       <c r="A230" s="197" t="s">
         <v>761</v>
       </c>
@@ -46833,10 +46370,8 @@
       <c r="AO230" s="176"/>
       <c r="AP230" s="176"/>
       <c r="AQ230" s="208"/>
-      <c r="AR230" s="176"/>
-      <c r="AS230" s="176"/>
-    </row>
-    <row r="231" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="231" spans="1:43" ht="31.5" hidden="1">
       <c r="A231" s="197" t="s">
         <v>762</v>
       </c>
@@ -46892,10 +46427,8 @@
       <c r="AO231" s="176"/>
       <c r="AP231" s="176"/>
       <c r="AQ231" s="208"/>
-      <c r="AR231" s="176"/>
-      <c r="AS231" s="176"/>
-    </row>
-    <row r="232" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="232" spans="1:43" ht="31.5" hidden="1">
       <c r="A232" s="197" t="s">
         <v>763</v>
       </c>
@@ -46951,10 +46484,8 @@
       <c r="AO232" s="176"/>
       <c r="AP232" s="176"/>
       <c r="AQ232" s="208"/>
-      <c r="AR232" s="176"/>
-      <c r="AS232" s="176"/>
-    </row>
-    <row r="233" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="233" spans="1:43" ht="31.5" hidden="1">
       <c r="A233" s="197" t="s">
         <v>764</v>
       </c>
@@ -47010,10 +46541,8 @@
       <c r="AO233" s="176"/>
       <c r="AP233" s="176"/>
       <c r="AQ233" s="208"/>
-      <c r="AR233" s="176"/>
-      <c r="AS233" s="176"/>
-    </row>
-    <row r="234" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="234" spans="1:43" ht="31.5" hidden="1">
       <c r="A234" s="197" t="s">
         <v>765</v>
       </c>
@@ -47065,10 +46594,8 @@
       <c r="AO234" s="176"/>
       <c r="AP234" s="176"/>
       <c r="AQ234" s="208"/>
-      <c r="AR234" s="176"/>
-      <c r="AS234" s="176"/>
-    </row>
-    <row r="235" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="235" spans="1:43" ht="31.5" hidden="1">
       <c r="A235" s="197" t="s">
         <v>766</v>
       </c>
@@ -47120,10 +46647,8 @@
       <c r="AO235" s="176"/>
       <c r="AP235" s="176"/>
       <c r="AQ235" s="208"/>
-      <c r="AR235" s="176"/>
-      <c r="AS235" s="176"/>
-    </row>
-    <row r="236" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="236" spans="1:43" ht="31.5" hidden="1">
       <c r="A236" s="197" t="s">
         <v>767</v>
       </c>
@@ -47179,10 +46704,8 @@
       <c r="AO236" s="176"/>
       <c r="AP236" s="176"/>
       <c r="AQ236" s="208"/>
-      <c r="AR236" s="176"/>
-      <c r="AS236" s="176"/>
-    </row>
-    <row r="237" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="237" spans="1:43" ht="31.5" hidden="1">
       <c r="A237" s="197" t="s">
         <v>768</v>
       </c>
@@ -47238,10 +46761,8 @@
       <c r="AO237" s="176"/>
       <c r="AP237" s="176"/>
       <c r="AQ237" s="208"/>
-      <c r="AR237" s="176"/>
-      <c r="AS237" s="176"/>
-    </row>
-    <row r="238" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="238" spans="1:43" ht="31.5" hidden="1">
       <c r="A238" s="197" t="s">
         <v>769</v>
       </c>
@@ -47297,10 +46818,8 @@
       <c r="AO238" s="176"/>
       <c r="AP238" s="176"/>
       <c r="AQ238" s="208"/>
-      <c r="AR238" s="176"/>
-      <c r="AS238" s="176"/>
-    </row>
-    <row r="239" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="239" spans="1:43" ht="31.5" hidden="1">
       <c r="A239" s="197" t="s">
         <v>770</v>
       </c>
@@ -47356,10 +46875,8 @@
       <c r="AO239" s="176"/>
       <c r="AP239" s="176"/>
       <c r="AQ239" s="208"/>
-      <c r="AR239" s="176"/>
-      <c r="AS239" s="176"/>
-    </row>
-    <row r="240" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="240" spans="1:43" ht="31.5" hidden="1">
       <c r="A240" s="197" t="s">
         <v>771</v>
       </c>
@@ -47411,10 +46928,8 @@
       <c r="AO240" s="176"/>
       <c r="AP240" s="176"/>
       <c r="AQ240" s="208"/>
-      <c r="AR240" s="176"/>
-      <c r="AS240" s="176"/>
-    </row>
-    <row r="241" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="241" spans="1:43" ht="15.75" hidden="1">
       <c r="A241" s="198" t="s">
         <v>772</v>
       </c>
@@ -47466,10 +46981,8 @@
       <c r="AO241" s="176"/>
       <c r="AP241" s="176"/>
       <c r="AQ241" s="208"/>
-      <c r="AR241" s="176"/>
-      <c r="AS241" s="176"/>
-    </row>
-    <row r="242" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="242" spans="1:43" ht="15.75" hidden="1">
       <c r="A242" s="195" t="s">
         <v>773</v>
       </c>
@@ -47521,10 +47034,8 @@
       <c r="AO242" s="176"/>
       <c r="AP242" s="176"/>
       <c r="AQ242" s="208"/>
-      <c r="AR242" s="176"/>
-      <c r="AS242" s="176"/>
-    </row>
-    <row r="243" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="243" spans="1:43" ht="15.75" hidden="1">
       <c r="A243" s="198" t="s">
         <v>774</v>
       </c>
@@ -47576,10 +47087,8 @@
       <c r="AO243" s="176"/>
       <c r="AP243" s="176"/>
       <c r="AQ243" s="208"/>
-      <c r="AR243" s="176"/>
-      <c r="AS243" s="176"/>
-    </row>
-    <row r="244" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="244" spans="1:43" ht="15.75" hidden="1">
       <c r="A244" s="198" t="s">
         <v>775</v>
       </c>
@@ -47631,10 +47140,8 @@
       <c r="AO244" s="176"/>
       <c r="AP244" s="176"/>
       <c r="AQ244" s="208"/>
-      <c r="AR244" s="176"/>
-      <c r="AS244" s="176"/>
-    </row>
-    <row r="245" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="245" spans="1:43" ht="15.75" hidden="1">
       <c r="A245" s="198" t="s">
         <v>776</v>
       </c>
@@ -47686,10 +47193,8 @@
       <c r="AO245" s="176"/>
       <c r="AP245" s="176"/>
       <c r="AQ245" s="208"/>
-      <c r="AR245" s="176"/>
-      <c r="AS245" s="176"/>
-    </row>
-    <row r="246" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="246" spans="1:43" ht="15.75" hidden="1">
       <c r="A246" s="198" t="s">
         <v>777</v>
       </c>
@@ -47741,10 +47246,8 @@
       <c r="AO246" s="176"/>
       <c r="AP246" s="176"/>
       <c r="AQ246" s="208"/>
-      <c r="AR246" s="176"/>
-      <c r="AS246" s="176"/>
-    </row>
-    <row r="247" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="247" spans="1:43" ht="15.75" hidden="1">
       <c r="A247" s="198" t="s">
         <v>778</v>
       </c>
@@ -47796,10 +47299,8 @@
       <c r="AO247" s="176"/>
       <c r="AP247" s="176"/>
       <c r="AQ247" s="208"/>
-      <c r="AR247" s="176"/>
-      <c r="AS247" s="176"/>
-    </row>
-    <row r="248" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="248" spans="1:43" ht="15.75" hidden="1">
       <c r="A248" s="198" t="s">
         <v>779</v>
       </c>
@@ -47855,10 +47356,8 @@
       <c r="AO248" s="176"/>
       <c r="AP248" s="176"/>
       <c r="AQ248" s="208"/>
-      <c r="AR248" s="176"/>
-      <c r="AS248" s="176"/>
-    </row>
-    <row r="249" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="249" spans="1:43" ht="15.75" hidden="1">
       <c r="A249" s="198" t="s">
         <v>780</v>
       </c>
@@ -47914,10 +47413,8 @@
       <c r="AO249" s="176"/>
       <c r="AP249" s="176"/>
       <c r="AQ249" s="208"/>
-      <c r="AR249" s="176"/>
-      <c r="AS249" s="176"/>
-    </row>
-    <row r="250" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="250" spans="1:43" ht="15.75" hidden="1">
       <c r="A250" s="198" t="s">
         <v>781</v>
       </c>
@@ -47973,10 +47470,8 @@
       <c r="AO250" s="176"/>
       <c r="AP250" s="176"/>
       <c r="AQ250" s="208"/>
-      <c r="AR250" s="176"/>
-      <c r="AS250" s="176"/>
-    </row>
-    <row r="251" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="251" spans="1:43" ht="15.75" hidden="1">
       <c r="A251" s="198" t="s">
         <v>782</v>
       </c>
@@ -48032,10 +47527,8 @@
       <c r="AO251" s="176"/>
       <c r="AP251" s="176"/>
       <c r="AQ251" s="208"/>
-      <c r="AR251" s="176"/>
-      <c r="AS251" s="176"/>
-    </row>
-    <row r="252" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="252" spans="1:43" ht="15.75" hidden="1">
       <c r="A252" s="198" t="s">
         <v>783</v>
       </c>
@@ -48087,10 +47580,8 @@
       <c r="AO252" s="176"/>
       <c r="AP252" s="176"/>
       <c r="AQ252" s="208"/>
-      <c r="AR252" s="176"/>
-      <c r="AS252" s="176"/>
-    </row>
-    <row r="253" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="253" spans="1:43" ht="15.75" hidden="1">
       <c r="A253" s="198" t="s">
         <v>784</v>
       </c>
@@ -48142,10 +47633,8 @@
       <c r="AO253" s="176"/>
       <c r="AP253" s="176"/>
       <c r="AQ253" s="208"/>
-      <c r="AR253" s="176"/>
-      <c r="AS253" s="176"/>
-    </row>
-    <row r="254" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="254" spans="1:43" ht="15.75" hidden="1">
       <c r="A254" s="198" t="s">
         <v>785</v>
       </c>
@@ -48201,10 +47690,8 @@
       <c r="AO254" s="176"/>
       <c r="AP254" s="176"/>
       <c r="AQ254" s="208"/>
-      <c r="AR254" s="176"/>
-      <c r="AS254" s="176"/>
-    </row>
-    <row r="255" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="255" spans="1:43" ht="15.75" hidden="1">
       <c r="A255" s="198" t="s">
         <v>786</v>
       </c>
@@ -48260,10 +47747,8 @@
       <c r="AO255" s="176"/>
       <c r="AP255" s="176"/>
       <c r="AQ255" s="208"/>
-      <c r="AR255" s="176"/>
-      <c r="AS255" s="176"/>
-    </row>
-    <row r="256" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="256" spans="1:43" ht="15.75" hidden="1">
       <c r="A256" s="198" t="s">
         <v>787</v>
       </c>
@@ -48319,10 +47804,8 @@
       <c r="AO256" s="176"/>
       <c r="AP256" s="176"/>
       <c r="AQ256" s="208"/>
-      <c r="AR256" s="176"/>
-      <c r="AS256" s="176"/>
-    </row>
-    <row r="257" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="257" spans="1:43" ht="15.75" hidden="1">
       <c r="A257" s="198" t="s">
         <v>788</v>
       </c>
@@ -48378,10 +47861,8 @@
       <c r="AO257" s="176"/>
       <c r="AP257" s="176"/>
       <c r="AQ257" s="208"/>
-      <c r="AR257" s="176"/>
-      <c r="AS257" s="176"/>
-    </row>
-    <row r="258" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="258" spans="1:43" ht="15.75" hidden="1">
       <c r="A258" s="198" t="s">
         <v>789</v>
       </c>
@@ -48433,10 +47914,8 @@
       <c r="AO258" s="176"/>
       <c r="AP258" s="176"/>
       <c r="AQ258" s="208"/>
-      <c r="AR258" s="176"/>
-      <c r="AS258" s="176"/>
-    </row>
-    <row r="259" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="259" spans="1:43" ht="15.75" hidden="1">
       <c r="A259" s="198" t="s">
         <v>790</v>
       </c>
@@ -48488,10 +47967,8 @@
       <c r="AO259" s="176"/>
       <c r="AP259" s="176"/>
       <c r="AQ259" s="208"/>
-      <c r="AR259" s="176"/>
-      <c r="AS259" s="176"/>
-    </row>
-    <row r="260" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="260" spans="1:43" ht="15.75" hidden="1">
       <c r="A260" s="198" t="s">
         <v>791</v>
       </c>
@@ -48543,10 +48020,8 @@
       <c r="AO260" s="176"/>
       <c r="AP260" s="176"/>
       <c r="AQ260" s="208"/>
-      <c r="AR260" s="176"/>
-      <c r="AS260" s="176"/>
-    </row>
-    <row r="261" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="261" spans="1:43" ht="15.75" hidden="1">
       <c r="A261" s="198" t="s">
         <v>792</v>
       </c>
@@ -48598,10 +48073,8 @@
       <c r="AO261" s="176"/>
       <c r="AP261" s="176"/>
       <c r="AQ261" s="208"/>
-      <c r="AR261" s="176"/>
-      <c r="AS261" s="176"/>
-    </row>
-    <row r="262" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="262" spans="1:43" ht="15.75" hidden="1">
       <c r="A262" s="198" t="s">
         <v>793</v>
       </c>
@@ -48653,10 +48126,8 @@
       <c r="AO262" s="176"/>
       <c r="AP262" s="176"/>
       <c r="AQ262" s="208"/>
-      <c r="AR262" s="176"/>
-      <c r="AS262" s="176"/>
-    </row>
-    <row r="263" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="263" spans="1:43" ht="15.75" hidden="1">
       <c r="A263" s="198" t="s">
         <v>794</v>
       </c>
@@ -48708,10 +48179,8 @@
       <c r="AO263" s="176"/>
       <c r="AP263" s="176"/>
       <c r="AQ263" s="208"/>
-      <c r="AR263" s="176"/>
-      <c r="AS263" s="176"/>
-    </row>
-    <row r="264" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="264" spans="1:43" ht="15.75" hidden="1">
       <c r="A264" s="198" t="s">
         <v>795</v>
       </c>
@@ -48763,10 +48232,8 @@
       <c r="AO264" s="176"/>
       <c r="AP264" s="176"/>
       <c r="AQ264" s="208"/>
-      <c r="AR264" s="176"/>
-      <c r="AS264" s="176"/>
-    </row>
-    <row r="265" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="265" spans="1:43" ht="15.75" hidden="1">
       <c r="A265" s="198" t="s">
         <v>796</v>
       </c>
@@ -48818,10 +48285,8 @@
       <c r="AO265" s="176"/>
       <c r="AP265" s="176"/>
       <c r="AQ265" s="208"/>
-      <c r="AR265" s="176"/>
-      <c r="AS265" s="176"/>
-    </row>
-    <row r="266" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="266" spans="1:43" ht="15.75" hidden="1">
       <c r="A266" s="198" t="s">
         <v>797</v>
       </c>
@@ -48877,10 +48342,8 @@
       <c r="AO266" s="176"/>
       <c r="AP266" s="176"/>
       <c r="AQ266" s="208"/>
-      <c r="AR266" s="176"/>
-      <c r="AS266" s="176"/>
-    </row>
-    <row r="267" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="267" spans="1:43" ht="15.75" hidden="1">
       <c r="A267" s="198" t="s">
         <v>798</v>
       </c>
@@ -48936,10 +48399,8 @@
       <c r="AO267" s="176"/>
       <c r="AP267" s="176"/>
       <c r="AQ267" s="208"/>
-      <c r="AR267" s="176"/>
-      <c r="AS267" s="176"/>
-    </row>
-    <row r="268" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="268" spans="1:43" ht="15.75" hidden="1">
       <c r="A268" s="198" t="s">
         <v>799</v>
       </c>
@@ -48995,10 +48456,8 @@
       <c r="AO268" s="176"/>
       <c r="AP268" s="176"/>
       <c r="AQ268" s="208"/>
-      <c r="AR268" s="176"/>
-      <c r="AS268" s="176"/>
-    </row>
-    <row r="269" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="269" spans="1:43" ht="15.75" hidden="1">
       <c r="A269" s="198" t="s">
         <v>800</v>
       </c>
@@ -49052,10 +48511,8 @@
       <c r="AO269" s="176"/>
       <c r="AP269" s="176"/>
       <c r="AQ269" s="208"/>
-      <c r="AR269" s="176"/>
-      <c r="AS269" s="176"/>
-    </row>
-    <row r="270" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="270" spans="1:43" ht="15.75" hidden="1">
       <c r="A270" s="198" t="s">
         <v>803</v>
       </c>
@@ -49107,10 +48564,8 @@
       <c r="AO270" s="176"/>
       <c r="AP270" s="176"/>
       <c r="AQ270" s="208"/>
-      <c r="AR270" s="176"/>
-      <c r="AS270" s="176"/>
-    </row>
-    <row r="271" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="271" spans="1:43" ht="15.75" hidden="1">
       <c r="A271" s="198" t="s">
         <v>801</v>
       </c>
@@ -49164,10 +48619,8 @@
       <c r="AO271" s="176"/>
       <c r="AP271" s="176"/>
       <c r="AQ271" s="208"/>
-      <c r="AR271" s="176"/>
-      <c r="AS271" s="176"/>
-    </row>
-    <row r="272" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="272" spans="1:43" ht="15.75" hidden="1">
       <c r="A272" s="198" t="s">
         <v>802</v>
       </c>
@@ -49223,10 +48676,8 @@
       <c r="AO272" s="176"/>
       <c r="AP272" s="176"/>
       <c r="AQ272" s="208"/>
-      <c r="AR272" s="176"/>
-      <c r="AS272" s="176"/>
-    </row>
-    <row r="273" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="273" spans="1:43" ht="15.75" hidden="1">
       <c r="A273" s="198" t="s">
         <v>804</v>
       </c>
@@ -49282,10 +48733,8 @@
       <c r="AO273" s="176"/>
       <c r="AP273" s="176"/>
       <c r="AQ273" s="208"/>
-      <c r="AR273" s="176"/>
-      <c r="AS273" s="176"/>
-    </row>
-    <row r="274" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="274" spans="1:43" ht="15.75" hidden="1">
       <c r="A274" s="198" t="s">
         <v>805</v>
       </c>
@@ -49341,10 +48790,8 @@
       <c r="AO274" s="176"/>
       <c r="AP274" s="176"/>
       <c r="AQ274" s="208"/>
-      <c r="AR274" s="176"/>
-      <c r="AS274" s="176"/>
-    </row>
-    <row r="275" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="275" spans="1:43" ht="15.75" hidden="1">
       <c r="A275" s="198" t="s">
         <v>806</v>
       </c>
@@ -49400,10 +48847,8 @@
       <c r="AO275" s="176"/>
       <c r="AP275" s="176"/>
       <c r="AQ275" s="208"/>
-      <c r="AR275" s="176"/>
-      <c r="AS275" s="176"/>
-    </row>
-    <row r="276" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="276" spans="1:43" ht="15.75" hidden="1">
       <c r="A276" s="198" t="s">
         <v>807</v>
       </c>
@@ -49455,10 +48900,8 @@
       <c r="AO276" s="176"/>
       <c r="AP276" s="176"/>
       <c r="AQ276" s="208"/>
-      <c r="AR276" s="176"/>
-      <c r="AS276" s="176"/>
-    </row>
-    <row r="277" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="277" spans="1:43" ht="15.75" hidden="1">
       <c r="A277" s="198" t="s">
         <v>808</v>
       </c>
@@ -49510,10 +48953,8 @@
       <c r="AO277" s="176"/>
       <c r="AP277" s="176"/>
       <c r="AQ277" s="208"/>
-      <c r="AR277" s="176"/>
-      <c r="AS277" s="176"/>
-    </row>
-    <row r="278" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="278" spans="1:43" ht="15.75" hidden="1">
       <c r="A278" s="198" t="s">
         <v>809</v>
       </c>
@@ -49565,10 +49006,8 @@
       <c r="AO278" s="176"/>
       <c r="AP278" s="176"/>
       <c r="AQ278" s="208"/>
-      <c r="AR278" s="176"/>
-      <c r="AS278" s="176"/>
-    </row>
-    <row r="279" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="279" spans="1:43" ht="15.75" hidden="1">
       <c r="A279" s="198" t="s">
         <v>810</v>
       </c>
@@ -49620,10 +49059,8 @@
       <c r="AO279" s="176"/>
       <c r="AP279" s="176"/>
       <c r="AQ279" s="208"/>
-      <c r="AR279" s="176"/>
-      <c r="AS279" s="176"/>
-    </row>
-    <row r="280" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="280" spans="1:43" ht="15.75" hidden="1">
       <c r="A280" s="198" t="s">
         <v>811</v>
       </c>
@@ -49675,10 +49112,8 @@
       <c r="AO280" s="176"/>
       <c r="AP280" s="176"/>
       <c r="AQ280" s="208"/>
-      <c r="AR280" s="176"/>
-      <c r="AS280" s="176"/>
-    </row>
-    <row r="281" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="281" spans="1:43" ht="15.75" hidden="1">
       <c r="A281" s="198" t="s">
         <v>812</v>
       </c>
@@ -49730,10 +49165,8 @@
       <c r="AO281" s="176"/>
       <c r="AP281" s="176"/>
       <c r="AQ281" s="208"/>
-      <c r="AR281" s="176"/>
-      <c r="AS281" s="176"/>
-    </row>
-    <row r="282" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="282" spans="1:43" ht="15.75" hidden="1">
       <c r="A282" s="198" t="s">
         <v>813</v>
       </c>
@@ -49785,10 +49218,8 @@
       <c r="AO282" s="176"/>
       <c r="AP282" s="176"/>
       <c r="AQ282" s="208"/>
-      <c r="AR282" s="176"/>
-      <c r="AS282" s="176"/>
-    </row>
-    <row r="283" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="283" spans="1:43" ht="15.75" hidden="1">
       <c r="A283" s="198" t="s">
         <v>814</v>
       </c>
@@ -49840,10 +49271,8 @@
       <c r="AO283" s="176"/>
       <c r="AP283" s="176"/>
       <c r="AQ283" s="208"/>
-      <c r="AR283" s="176"/>
-      <c r="AS283" s="176"/>
-    </row>
-    <row r="284" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="284" spans="1:43" ht="15.75" hidden="1">
       <c r="A284" s="198" t="s">
         <v>815</v>
       </c>
@@ -49899,10 +49328,8 @@
       <c r="AO284" s="176"/>
       <c r="AP284" s="176"/>
       <c r="AQ284" s="208"/>
-      <c r="AR284" s="176"/>
-      <c r="AS284" s="176"/>
-    </row>
-    <row r="285" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="285" spans="1:43" ht="15.75" hidden="1">
       <c r="A285" s="198" t="s">
         <v>816</v>
       </c>
@@ -49958,10 +49385,8 @@
       <c r="AO285" s="176"/>
       <c r="AP285" s="176"/>
       <c r="AQ285" s="208"/>
-      <c r="AR285" s="176"/>
-      <c r="AS285" s="176"/>
-    </row>
-    <row r="286" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="286" spans="1:43" ht="15.75" hidden="1">
       <c r="A286" s="198" t="s">
         <v>817</v>
       </c>
@@ -50017,10 +49442,8 @@
       <c r="AO286" s="176"/>
       <c r="AP286" s="176"/>
       <c r="AQ286" s="208"/>
-      <c r="AR286" s="176"/>
-      <c r="AS286" s="176"/>
-    </row>
-    <row r="287" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="287" spans="1:43" ht="15.75" hidden="1">
       <c r="A287" s="198" t="s">
         <v>818</v>
       </c>
@@ -50076,10 +49499,8 @@
       <c r="AO287" s="176"/>
       <c r="AP287" s="176"/>
       <c r="AQ287" s="208"/>
-      <c r="AR287" s="176"/>
-      <c r="AS287" s="176"/>
-    </row>
-    <row r="288" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="288" spans="1:43" ht="15.75" hidden="1">
       <c r="A288" s="198" t="s">
         <v>819</v>
       </c>
@@ -50131,10 +49552,8 @@
       <c r="AO288" s="176"/>
       <c r="AP288" s="176"/>
       <c r="AQ288" s="208"/>
-      <c r="AR288" s="176"/>
-      <c r="AS288" s="176"/>
-    </row>
-    <row r="289" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="289" spans="1:43" ht="15.75" hidden="1">
       <c r="A289" s="198" t="s">
         <v>820</v>
       </c>
@@ -50186,10 +49605,8 @@
       <c r="AO289" s="176"/>
       <c r="AP289" s="176"/>
       <c r="AQ289" s="208"/>
-      <c r="AR289" s="176"/>
-      <c r="AS289" s="176"/>
-    </row>
-    <row r="290" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="290" spans="1:43" ht="15.75" hidden="1">
       <c r="A290" s="198" t="s">
         <v>821</v>
       </c>
@@ -50245,10 +49662,8 @@
       <c r="AO290" s="176"/>
       <c r="AP290" s="176"/>
       <c r="AQ290" s="208"/>
-      <c r="AR290" s="176"/>
-      <c r="AS290" s="176"/>
-    </row>
-    <row r="291" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="291" spans="1:43" ht="15.75" hidden="1">
       <c r="A291" s="198" t="s">
         <v>822</v>
       </c>
@@ -50304,10 +49719,8 @@
       <c r="AO291" s="176"/>
       <c r="AP291" s="176"/>
       <c r="AQ291" s="208"/>
-      <c r="AR291" s="176"/>
-      <c r="AS291" s="176"/>
-    </row>
-    <row r="292" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="292" spans="1:43" ht="15.75" hidden="1">
       <c r="A292" s="198" t="s">
         <v>823</v>
       </c>
@@ -50363,10 +49776,8 @@
       <c r="AO292" s="176"/>
       <c r="AP292" s="176"/>
       <c r="AQ292" s="208"/>
-      <c r="AR292" s="176"/>
-      <c r="AS292" s="176"/>
-    </row>
-    <row r="293" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="293" spans="1:43" ht="15.75" hidden="1">
       <c r="A293" s="198" t="s">
         <v>824</v>
       </c>
@@ -50422,10 +49833,8 @@
       <c r="AO293" s="176"/>
       <c r="AP293" s="176"/>
       <c r="AQ293" s="208"/>
-      <c r="AR293" s="176"/>
-      <c r="AS293" s="176"/>
-    </row>
-    <row r="294" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="294" spans="1:43" ht="15.75" hidden="1">
       <c r="A294" s="198" t="s">
         <v>825</v>
       </c>
@@ -50477,10 +49886,8 @@
       <c r="AO294" s="176"/>
       <c r="AP294" s="176"/>
       <c r="AQ294" s="208"/>
-      <c r="AR294" s="176"/>
-      <c r="AS294" s="176"/>
-    </row>
-    <row r="295" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="295" spans="1:43" ht="15.75" hidden="1">
       <c r="A295" s="198" t="s">
         <v>826</v>
       </c>
@@ -50532,10 +49939,8 @@
       <c r="AO295" s="176"/>
       <c r="AP295" s="176"/>
       <c r="AQ295" s="208"/>
-      <c r="AR295" s="176"/>
-      <c r="AS295" s="176"/>
-    </row>
-    <row r="296" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="296" spans="1:43" ht="15.75" hidden="1">
       <c r="A296" s="198" t="s">
         <v>827</v>
       </c>
@@ -50591,10 +49996,8 @@
       <c r="AO296" s="176"/>
       <c r="AP296" s="176"/>
       <c r="AQ296" s="208"/>
-      <c r="AR296" s="176"/>
-      <c r="AS296" s="176"/>
-    </row>
-    <row r="297" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="297" spans="1:43" ht="15.75" hidden="1">
       <c r="A297" s="198" t="s">
         <v>828</v>
       </c>
@@ -50650,10 +50053,8 @@
       <c r="AO297" s="176"/>
       <c r="AP297" s="176"/>
       <c r="AQ297" s="208"/>
-      <c r="AR297" s="176"/>
-      <c r="AS297" s="176"/>
-    </row>
-    <row r="298" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="298" spans="1:43" ht="15.75" hidden="1">
       <c r="A298" s="198" t="s">
         <v>829</v>
       </c>
@@ -50709,10 +50110,8 @@
       <c r="AO298" s="176"/>
       <c r="AP298" s="176"/>
       <c r="AQ298" s="208"/>
-      <c r="AR298" s="176"/>
-      <c r="AS298" s="176"/>
-    </row>
-    <row r="299" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="299" spans="1:43" ht="15.75" hidden="1">
       <c r="A299" s="198" t="s">
         <v>830</v>
       </c>
@@ -50768,10 +50167,8 @@
       <c r="AO299" s="176"/>
       <c r="AP299" s="176"/>
       <c r="AQ299" s="208"/>
-      <c r="AR299" s="176"/>
-      <c r="AS299" s="176"/>
-    </row>
-    <row r="300" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="300" spans="1:43" ht="15.75" hidden="1">
       <c r="A300" s="198" t="s">
         <v>831</v>
       </c>
@@ -50823,10 +50220,8 @@
       <c r="AO300" s="176"/>
       <c r="AP300" s="176"/>
       <c r="AQ300" s="208"/>
-      <c r="AR300" s="176"/>
-      <c r="AS300" s="176"/>
-    </row>
-    <row r="301" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="301" spans="1:43" ht="15.75" hidden="1">
       <c r="A301" s="198" t="s">
         <v>832</v>
       </c>
@@ -50878,10 +50273,8 @@
       <c r="AO301" s="176"/>
       <c r="AP301" s="176"/>
       <c r="AQ301" s="208"/>
-      <c r="AR301" s="176"/>
-      <c r="AS301" s="176"/>
-    </row>
-    <row r="302" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="302" spans="1:43" ht="15.75" hidden="1">
       <c r="A302" s="198" t="s">
         <v>833</v>
       </c>
@@ -50937,10 +50330,8 @@
       <c r="AO302" s="176"/>
       <c r="AP302" s="176"/>
       <c r="AQ302" s="208"/>
-      <c r="AR302" s="176"/>
-      <c r="AS302" s="176"/>
-    </row>
-    <row r="303" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="303" spans="1:43" ht="15.75" hidden="1">
       <c r="A303" s="198" t="s">
         <v>834</v>
       </c>
@@ -50996,10 +50387,8 @@
       <c r="AO303" s="176"/>
       <c r="AP303" s="176"/>
       <c r="AQ303" s="208"/>
-      <c r="AR303" s="176"/>
-      <c r="AS303" s="176"/>
-    </row>
-    <row r="304" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="304" spans="1:43" ht="15.75" hidden="1">
       <c r="A304" s="198" t="s">
         <v>835</v>
       </c>
@@ -51055,10 +50444,8 @@
       <c r="AO304" s="176"/>
       <c r="AP304" s="176"/>
       <c r="AQ304" s="208"/>
-      <c r="AR304" s="176"/>
-      <c r="AS304" s="176"/>
-    </row>
-    <row r="305" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="305" spans="1:43" ht="15.75" hidden="1">
       <c r="A305" s="198" t="s">
         <v>836</v>
       </c>
@@ -51114,10 +50501,8 @@
       <c r="AO305" s="176"/>
       <c r="AP305" s="176"/>
       <c r="AQ305" s="208"/>
-      <c r="AR305" s="176"/>
-      <c r="AS305" s="176"/>
-    </row>
-    <row r="306" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="306" spans="1:43" ht="15.75" hidden="1">
       <c r="A306" s="198" t="s">
         <v>837</v>
       </c>
@@ -51169,10 +50554,8 @@
       <c r="AO306" s="176"/>
       <c r="AP306" s="176"/>
       <c r="AQ306" s="208"/>
-      <c r="AR306" s="176"/>
-      <c r="AS306" s="176"/>
-    </row>
-    <row r="307" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="307" spans="1:43" ht="15.75" hidden="1">
       <c r="A307" s="198" t="s">
         <v>838</v>
       </c>
@@ -51224,10 +50607,8 @@
       <c r="AO307" s="176"/>
       <c r="AP307" s="176"/>
       <c r="AQ307" s="208"/>
-      <c r="AR307" s="176"/>
-      <c r="AS307" s="176"/>
-    </row>
-    <row r="308" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="308" spans="1:43" ht="15.75" hidden="1">
       <c r="A308" s="198" t="s">
         <v>839</v>
       </c>
@@ -51279,10 +50660,8 @@
       <c r="AO308" s="176"/>
       <c r="AP308" s="176"/>
       <c r="AQ308" s="208"/>
-      <c r="AR308" s="176"/>
-      <c r="AS308" s="176"/>
-    </row>
-    <row r="309" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="309" spans="1:43" ht="15.75" hidden="1">
       <c r="A309" s="198" t="s">
         <v>840</v>
       </c>
@@ -51334,10 +50713,8 @@
       <c r="AO309" s="176"/>
       <c r="AP309" s="176"/>
       <c r="AQ309" s="208"/>
-      <c r="AR309" s="176"/>
-      <c r="AS309" s="176"/>
-    </row>
-    <row r="310" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="310" spans="1:43" ht="15.75" hidden="1">
       <c r="A310" s="198" t="s">
         <v>841</v>
       </c>
@@ -51389,10 +50766,8 @@
       <c r="AO310" s="176"/>
       <c r="AP310" s="176"/>
       <c r="AQ310" s="208"/>
-      <c r="AR310" s="176"/>
-      <c r="AS310" s="176"/>
-    </row>
-    <row r="311" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="311" spans="1:43" ht="15.75" hidden="1">
       <c r="A311" s="198" t="s">
         <v>842</v>
       </c>
@@ -51444,10 +50819,8 @@
       <c r="AO311" s="176"/>
       <c r="AP311" s="176"/>
       <c r="AQ311" s="208"/>
-      <c r="AR311" s="176"/>
-      <c r="AS311" s="176"/>
-    </row>
-    <row r="312" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="312" spans="1:43" ht="15.75" hidden="1">
       <c r="A312" s="198" t="s">
         <v>843</v>
       </c>
@@ -51499,10 +50872,8 @@
       <c r="AO312" s="176"/>
       <c r="AP312" s="176"/>
       <c r="AQ312" s="208"/>
-      <c r="AR312" s="176"/>
-      <c r="AS312" s="176"/>
-    </row>
-    <row r="313" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="313" spans="1:43" ht="15.75" hidden="1">
       <c r="A313" s="198" t="s">
         <v>844</v>
       </c>
@@ -51554,10 +50925,8 @@
       <c r="AO313" s="176"/>
       <c r="AP313" s="176"/>
       <c r="AQ313" s="208"/>
-      <c r="AR313" s="176"/>
-      <c r="AS313" s="176"/>
-    </row>
-    <row r="314" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="314" spans="1:43" ht="15.75" hidden="1">
       <c r="A314" s="198" t="s">
         <v>845</v>
       </c>
@@ -51613,10 +50982,8 @@
       <c r="AO314" s="176"/>
       <c r="AP314" s="176"/>
       <c r="AQ314" s="208"/>
-      <c r="AR314" s="176"/>
-      <c r="AS314" s="176"/>
-    </row>
-    <row r="315" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="315" spans="1:43" ht="15.75" hidden="1">
       <c r="A315" s="198" t="s">
         <v>846</v>
       </c>
@@ -51672,10 +51039,8 @@
       <c r="AO315" s="176"/>
       <c r="AP315" s="176"/>
       <c r="AQ315" s="208"/>
-      <c r="AR315" s="176"/>
-      <c r="AS315" s="176"/>
-    </row>
-    <row r="316" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="316" spans="1:43" ht="15.75" hidden="1">
       <c r="A316" s="198" t="s">
         <v>847</v>
       </c>
@@ -51731,10 +51096,8 @@
       <c r="AO316" s="176"/>
       <c r="AP316" s="176"/>
       <c r="AQ316" s="208"/>
-      <c r="AR316" s="176"/>
-      <c r="AS316" s="176"/>
-    </row>
-    <row r="317" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="317" spans="1:43" ht="15.75" hidden="1">
       <c r="A317" s="198" t="s">
         <v>848</v>
       </c>
@@ -51790,10 +51153,8 @@
       <c r="AO317" s="176"/>
       <c r="AP317" s="176"/>
       <c r="AQ317" s="208"/>
-      <c r="AR317" s="176"/>
-      <c r="AS317" s="176"/>
-    </row>
-    <row r="318" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="318" spans="1:43" ht="15.75" hidden="1">
       <c r="A318" s="198" t="s">
         <v>849</v>
       </c>
@@ -51845,10 +51206,8 @@
       <c r="AO318" s="176"/>
       <c r="AP318" s="176"/>
       <c r="AQ318" s="208"/>
-      <c r="AR318" s="176"/>
-      <c r="AS318" s="176"/>
-    </row>
-    <row r="319" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="319" spans="1:43" ht="15.75" hidden="1">
       <c r="A319" s="198" t="s">
         <v>850</v>
       </c>
@@ -51900,10 +51259,8 @@
       <c r="AO319" s="176"/>
       <c r="AP319" s="176"/>
       <c r="AQ319" s="208"/>
-      <c r="AR319" s="176"/>
-      <c r="AS319" s="176"/>
-    </row>
-    <row r="320" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="320" spans="1:43" ht="15.75" hidden="1">
       <c r="A320" s="198" t="s">
         <v>851</v>
       </c>
@@ -51959,10 +51316,8 @@
       <c r="AO320" s="176"/>
       <c r="AP320" s="176"/>
       <c r="AQ320" s="208"/>
-      <c r="AR320" s="176"/>
-      <c r="AS320" s="176"/>
-    </row>
-    <row r="321" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="321" spans="1:43" ht="15.75" hidden="1">
       <c r="A321" s="198" t="s">
         <v>852</v>
       </c>
@@ -52018,10 +51373,8 @@
       <c r="AO321" s="176"/>
       <c r="AP321" s="176"/>
       <c r="AQ321" s="208"/>
-      <c r="AR321" s="176"/>
-      <c r="AS321" s="176"/>
-    </row>
-    <row r="322" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="322" spans="1:43" ht="15.75" hidden="1">
       <c r="A322" s="198" t="s">
         <v>853</v>
       </c>
@@ -52077,10 +51430,8 @@
       <c r="AO322" s="176"/>
       <c r="AP322" s="176"/>
       <c r="AQ322" s="208"/>
-      <c r="AR322" s="176"/>
-      <c r="AS322" s="176"/>
-    </row>
-    <row r="323" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="323" spans="1:43" ht="15.75" hidden="1">
       <c r="A323" s="198" t="s">
         <v>854</v>
       </c>
@@ -52136,10 +51487,8 @@
       <c r="AO323" s="176"/>
       <c r="AP323" s="176"/>
       <c r="AQ323" s="208"/>
-      <c r="AR323" s="176"/>
-      <c r="AS323" s="176"/>
-    </row>
-    <row r="324" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="324" spans="1:43" ht="15.75" hidden="1">
       <c r="A324" s="198" t="s">
         <v>855</v>
       </c>
@@ -52191,10 +51540,8 @@
       <c r="AO324" s="176"/>
       <c r="AP324" s="176"/>
       <c r="AQ324" s="208"/>
-      <c r="AR324" s="176"/>
-      <c r="AS324" s="176"/>
-    </row>
-    <row r="325" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="325" spans="1:43" ht="15.75" hidden="1">
       <c r="A325" s="198" t="s">
         <v>856</v>
       </c>
@@ -52246,10 +51593,8 @@
       <c r="AO325" s="176"/>
       <c r="AP325" s="176"/>
       <c r="AQ325" s="208"/>
-      <c r="AR325" s="176"/>
-      <c r="AS325" s="176"/>
-    </row>
-    <row r="326" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="326" spans="1:43" ht="15.75" hidden="1">
       <c r="A326" s="198" t="s">
         <v>857</v>
       </c>
@@ -52305,10 +51650,8 @@
       <c r="AO326" s="176"/>
       <c r="AP326" s="176"/>
       <c r="AQ326" s="208"/>
-      <c r="AR326" s="176"/>
-      <c r="AS326" s="176"/>
-    </row>
-    <row r="327" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="327" spans="1:43" ht="15.75" hidden="1">
       <c r="A327" s="198" t="s">
         <v>858</v>
       </c>
@@ -52364,10 +51707,8 @@
       <c r="AO327" s="176"/>
       <c r="AP327" s="176"/>
       <c r="AQ327" s="208"/>
-      <c r="AR327" s="176"/>
-      <c r="AS327" s="176"/>
-    </row>
-    <row r="328" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="328" spans="1:43" ht="15.75" hidden="1">
       <c r="A328" s="198" t="s">
         <v>859</v>
       </c>
@@ -52423,10 +51764,8 @@
       <c r="AO328" s="176"/>
       <c r="AP328" s="176"/>
       <c r="AQ328" s="208"/>
-      <c r="AR328" s="176"/>
-      <c r="AS328" s="176"/>
-    </row>
-    <row r="329" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="329" spans="1:43" ht="15.75" hidden="1">
       <c r="A329" s="198" t="s">
         <v>860</v>
       </c>
@@ -52482,10 +51821,8 @@
       <c r="AO329" s="176"/>
       <c r="AP329" s="176"/>
       <c r="AQ329" s="208"/>
-      <c r="AR329" s="176"/>
-      <c r="AS329" s="176"/>
-    </row>
-    <row r="330" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="330" spans="1:43" ht="15.75" hidden="1">
       <c r="A330" s="198" t="s">
         <v>861</v>
       </c>
@@ -52537,10 +51874,8 @@
       <c r="AO330" s="176"/>
       <c r="AP330" s="176"/>
       <c r="AQ330" s="208"/>
-      <c r="AR330" s="176"/>
-      <c r="AS330" s="176"/>
-    </row>
-    <row r="331" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="331" spans="1:43" ht="15.75" hidden="1">
       <c r="A331" s="198" t="s">
         <v>862</v>
       </c>
@@ -52592,10 +51927,8 @@
       <c r="AO331" s="176"/>
       <c r="AP331" s="176"/>
       <c r="AQ331" s="208"/>
-      <c r="AR331" s="176"/>
-      <c r="AS331" s="176"/>
-    </row>
-    <row r="332" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="332" spans="1:43" ht="15.75" hidden="1">
       <c r="A332" s="198" t="s">
         <v>863</v>
       </c>
@@ -52651,10 +51984,8 @@
       <c r="AO332" s="176"/>
       <c r="AP332" s="176"/>
       <c r="AQ332" s="208"/>
-      <c r="AR332" s="176"/>
-      <c r="AS332" s="176"/>
-    </row>
-    <row r="333" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="333" spans="1:43" ht="15.75" hidden="1">
       <c r="A333" s="198" t="s">
         <v>864</v>
       </c>
@@ -52710,10 +52041,8 @@
       <c r="AO333" s="176"/>
       <c r="AP333" s="176"/>
       <c r="AQ333" s="208"/>
-      <c r="AR333" s="176"/>
-      <c r="AS333" s="176"/>
-    </row>
-    <row r="334" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="334" spans="1:43" ht="15.75" hidden="1">
       <c r="A334" s="198" t="s">
         <v>865</v>
       </c>
@@ -52769,10 +52098,8 @@
       <c r="AO334" s="176"/>
       <c r="AP334" s="176"/>
       <c r="AQ334" s="208"/>
-      <c r="AR334" s="176"/>
-      <c r="AS334" s="176"/>
-    </row>
-    <row r="335" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="335" spans="1:43" ht="15.75" hidden="1">
       <c r="A335" s="198" t="s">
         <v>866</v>
       </c>
@@ -52828,10 +52155,8 @@
       <c r="AO335" s="176"/>
       <c r="AP335" s="176"/>
       <c r="AQ335" s="208"/>
-      <c r="AR335" s="176"/>
-      <c r="AS335" s="176"/>
-    </row>
-    <row r="336" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="336" spans="1:43" ht="15.75" hidden="1">
       <c r="A336" s="198" t="s">
         <v>867</v>
       </c>
@@ -52883,10 +52208,8 @@
       <c r="AO336" s="176"/>
       <c r="AP336" s="176"/>
       <c r="AQ336" s="208"/>
-      <c r="AR336" s="176"/>
-      <c r="AS336" s="176"/>
-    </row>
-    <row r="337" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="337" spans="1:43" ht="15.75" hidden="1">
       <c r="A337" s="443" t="s">
         <v>868</v>
       </c>
@@ -52938,10 +52261,8 @@
       <c r="AO337" s="444"/>
       <c r="AP337" s="444"/>
       <c r="AQ337" s="359"/>
-      <c r="AR337" s="444"/>
-      <c r="AS337" s="444"/>
-    </row>
-    <row r="338" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="338" spans="1:43" ht="15.75" hidden="1">
       <c r="A338" s="449" t="s">
         <v>869</v>
       </c>
@@ -52999,10 +52320,8 @@
       <c r="AO338" s="447"/>
       <c r="AP338" s="447"/>
       <c r="AQ338" s="371"/>
-      <c r="AR338" s="447"/>
-      <c r="AS338" s="447"/>
-    </row>
-    <row r="339" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="339" spans="1:43" ht="15.75" hidden="1">
       <c r="A339" s="450" t="s">
         <v>870</v>
       </c>
@@ -53066,10 +52385,8 @@
       <c r="AO339" s="176"/>
       <c r="AP339" s="176"/>
       <c r="AQ339" s="208"/>
-      <c r="AR339" s="176"/>
-      <c r="AS339" s="176"/>
-    </row>
-    <row r="340" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="340" spans="1:43" ht="15.75" hidden="1">
       <c r="A340" s="450" t="s">
         <v>871</v>
       </c>
@@ -53127,10 +52444,8 @@
       <c r="AO340" s="176"/>
       <c r="AP340" s="176"/>
       <c r="AQ340" s="208"/>
-      <c r="AR340" s="176"/>
-      <c r="AS340" s="176"/>
-    </row>
-    <row r="341" spans="1:45" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="341" spans="1:43" ht="16.5" hidden="1" thickBot="1">
       <c r="A341" s="451" t="s">
         <v>872</v>
       </c>
@@ -53188,10 +52503,8 @@
       <c r="AO341" s="448"/>
       <c r="AP341" s="448"/>
       <c r="AQ341" s="209"/>
-      <c r="AR341" s="448"/>
-      <c r="AS341" s="448"/>
-    </row>
-    <row r="342" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="342" spans="1:43" ht="15.75" hidden="1">
       <c r="A342" s="445" t="s">
         <v>873</v>
       </c>
@@ -53243,10 +52556,8 @@
       <c r="AO342" s="446"/>
       <c r="AP342" s="446"/>
       <c r="AQ342" s="210"/>
-      <c r="AR342" s="446"/>
-      <c r="AS342" s="446"/>
-    </row>
-    <row r="343" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="343" spans="1:43" ht="15.75" hidden="1">
       <c r="A343" s="198" t="s">
         <v>874</v>
       </c>
@@ -53298,10 +52609,8 @@
       <c r="AO343" s="176"/>
       <c r="AP343" s="176"/>
       <c r="AQ343" s="208"/>
-      <c r="AR343" s="176"/>
-      <c r="AS343" s="176"/>
-    </row>
-    <row r="344" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="344" spans="1:43" ht="15.75" hidden="1">
       <c r="A344" s="198" t="s">
         <v>875</v>
       </c>
@@ -53357,10 +52666,8 @@
       <c r="AO344" s="176"/>
       <c r="AP344" s="176"/>
       <c r="AQ344" s="208"/>
-      <c r="AR344" s="176"/>
-      <c r="AS344" s="176"/>
-    </row>
-    <row r="345" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="345" spans="1:43" ht="15.75" hidden="1">
       <c r="A345" s="198" t="s">
         <v>876</v>
       </c>
@@ -53416,10 +52723,8 @@
       <c r="AO345" s="176"/>
       <c r="AP345" s="176"/>
       <c r="AQ345" s="208"/>
-      <c r="AR345" s="176"/>
-      <c r="AS345" s="176"/>
-    </row>
-    <row r="346" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="346" spans="1:43" ht="15.75" hidden="1">
       <c r="A346" s="198" t="s">
         <v>877</v>
       </c>
@@ -53475,10 +52780,8 @@
       <c r="AO346" s="176"/>
       <c r="AP346" s="176"/>
       <c r="AQ346" s="208"/>
-      <c r="AR346" s="176"/>
-      <c r="AS346" s="176"/>
-    </row>
-    <row r="347" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="347" spans="1:43" ht="15.75" hidden="1">
       <c r="A347" s="198" t="s">
         <v>878</v>
       </c>
@@ -53534,10 +52837,8 @@
       <c r="AO347" s="176"/>
       <c r="AP347" s="176"/>
       <c r="AQ347" s="208"/>
-      <c r="AR347" s="176"/>
-      <c r="AS347" s="176"/>
-    </row>
-    <row r="348" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="348" spans="1:43" ht="15.75" hidden="1">
       <c r="A348" s="198" t="s">
         <v>879</v>
       </c>
@@ -53589,10 +52890,8 @@
       <c r="AO348" s="176"/>
       <c r="AP348" s="176"/>
       <c r="AQ348" s="208"/>
-      <c r="AR348" s="176"/>
-      <c r="AS348" s="176"/>
-    </row>
-    <row r="349" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="349" spans="1:43" ht="15.75" hidden="1">
       <c r="A349" s="198" t="s">
         <v>880</v>
       </c>
@@ -53644,10 +52943,8 @@
       <c r="AO349" s="176"/>
       <c r="AP349" s="176"/>
       <c r="AQ349" s="208"/>
-      <c r="AR349" s="176"/>
-      <c r="AS349" s="176"/>
-    </row>
-    <row r="350" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="350" spans="1:43" ht="15.75" hidden="1">
       <c r="A350" s="198" t="s">
         <v>881</v>
       </c>
@@ -53703,10 +53000,8 @@
       <c r="AO350" s="176"/>
       <c r="AP350" s="176"/>
       <c r="AQ350" s="208"/>
-      <c r="AR350" s="176"/>
-      <c r="AS350" s="176"/>
-    </row>
-    <row r="351" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="351" spans="1:43" ht="15.75" hidden="1">
       <c r="A351" s="198" t="s">
         <v>882</v>
       </c>
@@ -53762,10 +53057,8 @@
       <c r="AO351" s="176"/>
       <c r="AP351" s="176"/>
       <c r="AQ351" s="208"/>
-      <c r="AR351" s="176"/>
-      <c r="AS351" s="176"/>
-    </row>
-    <row r="352" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="352" spans="1:43" ht="15.75" hidden="1">
       <c r="A352" s="198" t="s">
         <v>883</v>
       </c>
@@ -53821,10 +53114,8 @@
       <c r="AO352" s="176"/>
       <c r="AP352" s="176"/>
       <c r="AQ352" s="208"/>
-      <c r="AR352" s="176"/>
-      <c r="AS352" s="176"/>
-    </row>
-    <row r="353" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="353" spans="1:43" ht="15.75" hidden="1">
       <c r="A353" s="198" t="s">
         <v>884</v>
       </c>
@@ -53878,10 +53169,8 @@
       <c r="AO353" s="176"/>
       <c r="AP353" s="176"/>
       <c r="AQ353" s="208"/>
-      <c r="AR353" s="176"/>
-      <c r="AS353" s="176"/>
-    </row>
-    <row r="354" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="354" spans="1:43" ht="15.75" hidden="1">
       <c r="A354" s="198" t="s">
         <v>885</v>
       </c>
@@ -53933,10 +53222,8 @@
       <c r="AO354" s="176"/>
       <c r="AP354" s="176"/>
       <c r="AQ354" s="208"/>
-      <c r="AR354" s="176"/>
-      <c r="AS354" s="176"/>
-    </row>
-    <row r="355" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="355" spans="1:43" ht="15.75" hidden="1">
       <c r="A355" s="198" t="s">
         <v>886</v>
       </c>
@@ -53990,10 +53277,8 @@
       <c r="AO355" s="176"/>
       <c r="AP355" s="176"/>
       <c r="AQ355" s="208"/>
-      <c r="AR355" s="176"/>
-      <c r="AS355" s="176"/>
-    </row>
-    <row r="356" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="356" spans="1:43" ht="15.75" hidden="1">
       <c r="A356" s="198" t="s">
         <v>887</v>
       </c>
@@ -54049,10 +53334,8 @@
       <c r="AO356" s="176"/>
       <c r="AP356" s="176"/>
       <c r="AQ356" s="208"/>
-      <c r="AR356" s="176"/>
-      <c r="AS356" s="176"/>
-    </row>
-    <row r="357" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="357" spans="1:43" ht="15.75" hidden="1">
       <c r="A357" s="198" t="s">
         <v>888</v>
       </c>
@@ -54108,10 +53391,8 @@
       <c r="AO357" s="176"/>
       <c r="AP357" s="176"/>
       <c r="AQ357" s="208"/>
-      <c r="AR357" s="176"/>
-      <c r="AS357" s="176"/>
-    </row>
-    <row r="358" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="358" spans="1:43" ht="15.75" hidden="1">
       <c r="A358" s="198" t="s">
         <v>889</v>
       </c>
@@ -54167,10 +53448,8 @@
       <c r="AO358" s="176"/>
       <c r="AP358" s="176"/>
       <c r="AQ358" s="208"/>
-      <c r="AR358" s="176"/>
-      <c r="AS358" s="176"/>
-    </row>
-    <row r="359" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="359" spans="1:43" ht="15.75" hidden="1">
       <c r="A359" s="198" t="s">
         <v>890</v>
       </c>
@@ -54226,10 +53505,8 @@
       <c r="AO359" s="176"/>
       <c r="AP359" s="176"/>
       <c r="AQ359" s="208"/>
-      <c r="AR359" s="176"/>
-      <c r="AS359" s="176"/>
-    </row>
-    <row r="360" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="360" spans="1:43" ht="15.75" hidden="1">
       <c r="A360" s="198" t="s">
         <v>891</v>
       </c>
@@ -54281,10 +53558,8 @@
       <c r="AO360" s="176"/>
       <c r="AP360" s="176"/>
       <c r="AQ360" s="208"/>
-      <c r="AR360" s="176"/>
-      <c r="AS360" s="176"/>
-    </row>
-    <row r="361" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="361" spans="1:43" ht="15.75" hidden="1">
       <c r="A361" s="198" t="s">
         <v>892</v>
       </c>
@@ -54336,10 +53611,8 @@
       <c r="AO361" s="176"/>
       <c r="AP361" s="176"/>
       <c r="AQ361" s="208"/>
-      <c r="AR361" s="176"/>
-      <c r="AS361" s="176"/>
-    </row>
-    <row r="362" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="362" spans="1:43" ht="15.75" hidden="1">
       <c r="A362" s="198" t="s">
         <v>893</v>
       </c>
@@ -54395,10 +53668,8 @@
       <c r="AO362" s="176"/>
       <c r="AP362" s="176"/>
       <c r="AQ362" s="208"/>
-      <c r="AR362" s="176"/>
-      <c r="AS362" s="176"/>
-    </row>
-    <row r="363" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="363" spans="1:43" ht="15.75" hidden="1">
       <c r="A363" s="198" t="s">
         <v>894</v>
       </c>
@@ -54454,10 +53725,8 @@
       <c r="AO363" s="176"/>
       <c r="AP363" s="176"/>
       <c r="AQ363" s="208"/>
-      <c r="AR363" s="176"/>
-      <c r="AS363" s="176"/>
-    </row>
-    <row r="364" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="364" spans="1:43" ht="15.75" hidden="1">
       <c r="A364" s="198" t="s">
         <v>895</v>
       </c>
@@ -54513,10 +53782,8 @@
       <c r="AO364" s="176"/>
       <c r="AP364" s="176"/>
       <c r="AQ364" s="208"/>
-      <c r="AR364" s="176"/>
-      <c r="AS364" s="176"/>
-    </row>
-    <row r="365" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="365" spans="1:43" ht="15.75" hidden="1">
       <c r="A365" s="198" t="s">
         <v>896</v>
       </c>
@@ -54572,10 +53839,8 @@
       <c r="AO365" s="176"/>
       <c r="AP365" s="176"/>
       <c r="AQ365" s="208"/>
-      <c r="AR365" s="176"/>
-      <c r="AS365" s="176"/>
-    </row>
-    <row r="366" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="366" spans="1:43" ht="15.75" hidden="1">
       <c r="A366" s="198" t="s">
         <v>897</v>
       </c>
@@ -54627,10 +53892,8 @@
       <c r="AO366" s="176"/>
       <c r="AP366" s="176"/>
       <c r="AQ366" s="208"/>
-      <c r="AR366" s="176"/>
-      <c r="AS366" s="176"/>
-    </row>
-    <row r="367" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="367" spans="1:43" ht="15.75" hidden="1">
       <c r="A367" s="198" t="s">
         <v>898</v>
       </c>
@@ -54682,10 +53945,8 @@
       <c r="AO367" s="176"/>
       <c r="AP367" s="176"/>
       <c r="AQ367" s="208"/>
-      <c r="AR367" s="176"/>
-      <c r="AS367" s="176"/>
-    </row>
-    <row r="368" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="368" spans="1:43" ht="15.75" hidden="1">
       <c r="A368" s="198" t="s">
         <v>899</v>
       </c>
@@ -54741,10 +54002,8 @@
       <c r="AO368" s="176"/>
       <c r="AP368" s="176"/>
       <c r="AQ368" s="208"/>
-      <c r="AR368" s="176"/>
-      <c r="AS368" s="176"/>
-    </row>
-    <row r="369" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="369" spans="1:43" ht="15.75" hidden="1">
       <c r="A369" s="198" t="s">
         <v>900</v>
       </c>
@@ -54800,10 +54059,8 @@
       <c r="AO369" s="176"/>
       <c r="AP369" s="176"/>
       <c r="AQ369" s="208"/>
-      <c r="AR369" s="176"/>
-      <c r="AS369" s="176"/>
-    </row>
-    <row r="370" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="370" spans="1:43" ht="15.75" hidden="1">
       <c r="A370" s="198" t="s">
         <v>901</v>
       </c>
@@ -54859,10 +54116,8 @@
       <c r="AO370" s="176"/>
       <c r="AP370" s="176"/>
       <c r="AQ370" s="208"/>
-      <c r="AR370" s="176"/>
-      <c r="AS370" s="176"/>
-    </row>
-    <row r="371" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="371" spans="1:43" ht="15.75" hidden="1">
       <c r="A371" s="198" t="s">
         <v>902</v>
       </c>
@@ -54918,10 +54173,8 @@
       <c r="AO371" s="176"/>
       <c r="AP371" s="176"/>
       <c r="AQ371" s="208"/>
-      <c r="AR371" s="176"/>
-      <c r="AS371" s="176"/>
-    </row>
-    <row r="372" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="372" spans="1:43" ht="15.75" hidden="1">
       <c r="A372" s="198" t="s">
         <v>903</v>
       </c>
@@ -54973,10 +54226,8 @@
       <c r="AO372" s="176"/>
       <c r="AP372" s="176"/>
       <c r="AQ372" s="208"/>
-      <c r="AR372" s="176"/>
-      <c r="AS372" s="176"/>
-    </row>
-    <row r="373" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="373" spans="1:43" ht="15.75" hidden="1">
       <c r="A373" s="198" t="s">
         <v>904</v>
       </c>
@@ -55028,10 +54279,8 @@
       <c r="AO373" s="176"/>
       <c r="AP373" s="176"/>
       <c r="AQ373" s="208"/>
-      <c r="AR373" s="176"/>
-      <c r="AS373" s="176"/>
-    </row>
-    <row r="374" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="374" spans="1:43" ht="15.75" hidden="1">
       <c r="A374" s="198" t="s">
         <v>905</v>
       </c>
@@ -55087,10 +54336,8 @@
       <c r="AO374" s="176"/>
       <c r="AP374" s="176"/>
       <c r="AQ374" s="208"/>
-      <c r="AR374" s="176"/>
-      <c r="AS374" s="176"/>
-    </row>
-    <row r="375" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="375" spans="1:43" ht="15.75" hidden="1">
       <c r="A375" s="198" t="s">
         <v>906</v>
       </c>
@@ -55146,10 +54393,8 @@
       <c r="AO375" s="176"/>
       <c r="AP375" s="176"/>
       <c r="AQ375" s="208"/>
-      <c r="AR375" s="176"/>
-      <c r="AS375" s="176"/>
-    </row>
-    <row r="376" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="376" spans="1:43" ht="15.75" hidden="1">
       <c r="A376" s="198" t="s">
         <v>907</v>
       </c>
@@ -55205,10 +54450,8 @@
       <c r="AO376" s="176"/>
       <c r="AP376" s="176"/>
       <c r="AQ376" s="208"/>
-      <c r="AR376" s="176"/>
-      <c r="AS376" s="176"/>
-    </row>
-    <row r="377" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="377" spans="1:43" ht="15.75" hidden="1">
       <c r="A377" s="198" t="s">
         <v>908</v>
       </c>
@@ -55264,10 +54507,8 @@
       <c r="AO377" s="176"/>
       <c r="AP377" s="176"/>
       <c r="AQ377" s="208"/>
-      <c r="AR377" s="176"/>
-      <c r="AS377" s="176"/>
-    </row>
-    <row r="378" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="378" spans="1:43" ht="15.75" hidden="1">
       <c r="A378" s="198" t="s">
         <v>909</v>
       </c>
@@ -55319,10 +54560,8 @@
       <c r="AO378" s="176"/>
       <c r="AP378" s="176"/>
       <c r="AQ378" s="208"/>
-      <c r="AR378" s="176"/>
-      <c r="AS378" s="176"/>
-    </row>
-    <row r="379" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="379" spans="1:43" ht="15.75" hidden="1">
       <c r="A379" s="198" t="s">
         <v>910</v>
       </c>
@@ -55374,10 +54613,8 @@
       <c r="AO379" s="176"/>
       <c r="AP379" s="176"/>
       <c r="AQ379" s="208"/>
-      <c r="AR379" s="176"/>
-      <c r="AS379" s="176"/>
-    </row>
-    <row r="380" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="380" spans="1:43" ht="15.75" hidden="1">
       <c r="A380" s="198" t="s">
         <v>911</v>
       </c>
@@ -55433,10 +54670,8 @@
       <c r="AO380" s="176"/>
       <c r="AP380" s="176"/>
       <c r="AQ380" s="208"/>
-      <c r="AR380" s="176"/>
-      <c r="AS380" s="176"/>
-    </row>
-    <row r="381" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="381" spans="1:43" ht="15.75" hidden="1">
       <c r="A381" s="198" t="s">
         <v>912</v>
       </c>
@@ -55492,10 +54727,8 @@
       <c r="AO381" s="176"/>
       <c r="AP381" s="176"/>
       <c r="AQ381" s="208"/>
-      <c r="AR381" s="176"/>
-      <c r="AS381" s="176"/>
-    </row>
-    <row r="382" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="382" spans="1:43" ht="15.75" hidden="1">
       <c r="A382" s="198" t="s">
         <v>913</v>
       </c>
@@ -55551,10 +54784,8 @@
       <c r="AO382" s="176"/>
       <c r="AP382" s="176"/>
       <c r="AQ382" s="208"/>
-      <c r="AR382" s="176"/>
-      <c r="AS382" s="176"/>
-    </row>
-    <row r="383" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="383" spans="1:43" ht="15.75" hidden="1">
       <c r="A383" s="198" t="s">
         <v>914</v>
       </c>
@@ -55610,10 +54841,8 @@
       <c r="AO383" s="176"/>
       <c r="AP383" s="176"/>
       <c r="AQ383" s="208"/>
-      <c r="AR383" s="176"/>
-      <c r="AS383" s="176"/>
-    </row>
-    <row r="384" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="384" spans="1:43" ht="15.75" hidden="1">
       <c r="A384" s="198" t="s">
         <v>915</v>
       </c>
@@ -55665,10 +54894,8 @@
       <c r="AO384" s="176"/>
       <c r="AP384" s="176"/>
       <c r="AQ384" s="208"/>
-      <c r="AR384" s="176"/>
-      <c r="AS384" s="176"/>
-    </row>
-    <row r="385" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="385" spans="1:43" ht="15.75" hidden="1">
       <c r="A385" s="198" t="s">
         <v>916</v>
       </c>
@@ -55720,10 +54947,8 @@
       <c r="AO385" s="176"/>
       <c r="AP385" s="176"/>
       <c r="AQ385" s="208"/>
-      <c r="AR385" s="176"/>
-      <c r="AS385" s="176"/>
-    </row>
-    <row r="386" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="386" spans="1:43" ht="15.75" hidden="1">
       <c r="A386" s="198" t="s">
         <v>917</v>
       </c>
@@ -55775,10 +55000,8 @@
       <c r="AO386" s="176"/>
       <c r="AP386" s="176"/>
       <c r="AQ386" s="208"/>
-      <c r="AR386" s="176"/>
-      <c r="AS386" s="176"/>
-    </row>
-    <row r="387" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="387" spans="1:43" ht="15.75" hidden="1">
       <c r="A387" s="198" t="s">
         <v>918</v>
       </c>
@@ -55830,10 +55053,8 @@
       <c r="AO387" s="176"/>
       <c r="AP387" s="176"/>
       <c r="AQ387" s="208"/>
-      <c r="AR387" s="176"/>
-      <c r="AS387" s="176"/>
-    </row>
-    <row r="388" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="388" spans="1:43" ht="15.75" hidden="1">
       <c r="A388" s="198" t="s">
         <v>919</v>
       </c>
@@ -55885,10 +55106,8 @@
       <c r="AO388" s="176"/>
       <c r="AP388" s="176"/>
       <c r="AQ388" s="208"/>
-      <c r="AR388" s="176"/>
-      <c r="AS388" s="176"/>
-    </row>
-    <row r="389" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="389" spans="1:43" ht="15.75" hidden="1">
       <c r="A389" s="198" t="s">
         <v>920</v>
       </c>
@@ -55940,10 +55159,8 @@
       <c r="AO389" s="176"/>
       <c r="AP389" s="176"/>
       <c r="AQ389" s="208"/>
-      <c r="AR389" s="176"/>
-      <c r="AS389" s="176"/>
-    </row>
-    <row r="390" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="390" spans="1:43" ht="15.75" hidden="1">
       <c r="A390" s="198" t="s">
         <v>921</v>
       </c>
@@ -55995,10 +55212,8 @@
       <c r="AO390" s="176"/>
       <c r="AP390" s="176"/>
       <c r="AQ390" s="208"/>
-      <c r="AR390" s="176"/>
-      <c r="AS390" s="176"/>
-    </row>
-    <row r="391" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="391" spans="1:43" ht="15.75" hidden="1">
       <c r="A391" s="198" t="s">
         <v>922</v>
       </c>
@@ -56050,10 +55265,8 @@
       <c r="AO391" s="176"/>
       <c r="AP391" s="176"/>
       <c r="AQ391" s="208"/>
-      <c r="AR391" s="176"/>
-      <c r="AS391" s="176"/>
-    </row>
-    <row r="392" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="392" spans="1:43" ht="15.75" hidden="1">
       <c r="A392" s="198" t="s">
         <v>923</v>
       </c>
@@ -56105,10 +55318,8 @@
       <c r="AO392" s="176"/>
       <c r="AP392" s="176"/>
       <c r="AQ392" s="208"/>
-      <c r="AR392" s="176"/>
-      <c r="AS392" s="176"/>
-    </row>
-    <row r="393" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="393" spans="1:43" ht="15.75" hidden="1">
       <c r="A393" s="198" t="s">
         <v>924</v>
       </c>
@@ -56160,10 +55371,8 @@
       <c r="AO393" s="176"/>
       <c r="AP393" s="176"/>
       <c r="AQ393" s="208"/>
-      <c r="AR393" s="176"/>
-      <c r="AS393" s="176"/>
-    </row>
-    <row r="394" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="394" spans="1:43" ht="15.75" hidden="1">
       <c r="A394" s="198" t="s">
         <v>925</v>
       </c>
@@ -56215,10 +55424,8 @@
       <c r="AO394" s="176"/>
       <c r="AP394" s="176"/>
       <c r="AQ394" s="208"/>
-      <c r="AR394" s="176"/>
-      <c r="AS394" s="176"/>
-    </row>
-    <row r="395" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="395" spans="1:43" ht="15.75" hidden="1">
       <c r="A395" s="198" t="s">
         <v>926</v>
       </c>
@@ -56270,10 +55477,8 @@
       <c r="AO395" s="176"/>
       <c r="AP395" s="176"/>
       <c r="AQ395" s="208"/>
-      <c r="AR395" s="176"/>
-      <c r="AS395" s="176"/>
-    </row>
-    <row r="396" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="396" spans="1:43" ht="15.75" hidden="1">
       <c r="A396" s="198" t="s">
         <v>927</v>
       </c>
@@ -56325,10 +55530,8 @@
       <c r="AO396" s="176"/>
       <c r="AP396" s="176"/>
       <c r="AQ396" s="208"/>
-      <c r="AR396" s="176"/>
-      <c r="AS396" s="176"/>
-    </row>
-    <row r="397" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="397" spans="1:43" ht="15.75" hidden="1">
       <c r="A397" s="198" t="s">
         <v>928</v>
       </c>
@@ -56380,10 +55583,8 @@
       <c r="AO397" s="176"/>
       <c r="AP397" s="176"/>
       <c r="AQ397" s="208"/>
-      <c r="AR397" s="176"/>
-      <c r="AS397" s="176"/>
-    </row>
-    <row r="398" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="398" spans="1:43" ht="15.75" hidden="1">
       <c r="A398" s="198" t="s">
         <v>929</v>
       </c>
@@ -56435,10 +55636,8 @@
       <c r="AO398" s="176"/>
       <c r="AP398" s="176"/>
       <c r="AQ398" s="208"/>
-      <c r="AR398" s="176"/>
-      <c r="AS398" s="176"/>
-    </row>
-    <row r="399" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="399" spans="1:43" ht="15.75" hidden="1">
       <c r="A399" s="198" t="s">
         <v>930</v>
       </c>
@@ -56490,10 +55689,8 @@
       <c r="AO399" s="176"/>
       <c r="AP399" s="176"/>
       <c r="AQ399" s="208"/>
-      <c r="AR399" s="176"/>
-      <c r="AS399" s="176"/>
-    </row>
-    <row r="400" spans="1:45" ht="15.75" hidden="1">
+    </row>
+    <row r="400" spans="1:43" ht="15.75" hidden="1">
       <c r="A400" s="198" t="s">
         <v>931</v>
       </c>
@@ -56545,10 +55742,8 @@
       <c r="AO400" s="176"/>
       <c r="AP400" s="176"/>
       <c r="AQ400" s="208"/>
-      <c r="AR400" s="176"/>
-      <c r="AS400" s="176"/>
-    </row>
-    <row r="401" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="401" spans="1:591" ht="15.75" hidden="1">
       <c r="A401" s="198" t="s">
         <v>932</v>
       </c>
@@ -56600,10 +55795,8 @@
       <c r="AO401" s="176"/>
       <c r="AP401" s="176"/>
       <c r="AQ401" s="208"/>
-      <c r="AR401" s="176"/>
-      <c r="AS401" s="176"/>
-    </row>
-    <row r="402" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="402" spans="1:591" ht="15.75" hidden="1">
       <c r="A402" s="198" t="s">
         <v>933</v>
       </c>
@@ -56655,10 +55848,8 @@
       <c r="AO402" s="176"/>
       <c r="AP402" s="176"/>
       <c r="AQ402" s="208"/>
-      <c r="AR402" s="176"/>
-      <c r="AS402" s="176"/>
-    </row>
-    <row r="403" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="403" spans="1:591" ht="15.75" hidden="1">
       <c r="A403" s="199" t="s">
         <v>1005</v>
       </c>
@@ -56703,10 +55894,8 @@
       <c r="AO403" s="79"/>
       <c r="AP403" s="79"/>
       <c r="AQ403" s="208"/>
-      <c r="AR403" s="79"/>
-      <c r="AS403" s="79"/>
-    </row>
-    <row r="404" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="404" spans="1:591" ht="16.5" hidden="1" thickBot="1">
       <c r="A404" s="187" t="s">
         <v>710</v>
       </c>
@@ -56751,10 +55940,8 @@
       <c r="AO404" s="79"/>
       <c r="AP404" s="79"/>
       <c r="AQ404" s="208"/>
-      <c r="AR404" s="79"/>
-      <c r="AS404" s="79"/>
-    </row>
-    <row r="405" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="405" spans="1:591" ht="15.75" hidden="1">
       <c r="A405" s="200" t="s">
         <v>1131</v>
       </c>
@@ -56810,10 +55997,8 @@
       <c r="AO405" s="267"/>
       <c r="AP405" s="267"/>
       <c r="AQ405" s="208"/>
-      <c r="AR405" s="267"/>
-      <c r="AS405" s="267"/>
-    </row>
-    <row r="406" spans="1:594" s="61" customFormat="1" ht="15.75" hidden="1">
+    </row>
+    <row r="406" spans="1:591" s="61" customFormat="1" ht="15.75" hidden="1">
       <c r="A406" s="200" t="s">
         <v>1102</v>
       </c>
@@ -56868,8 +56053,8 @@
       <c r="AO406" s="267"/>
       <c r="AP406" s="267"/>
       <c r="AQ406" s="208"/>
-      <c r="AR406" s="267"/>
-      <c r="AS406" s="267"/>
+      <c r="AR406" s="53"/>
+      <c r="AS406" s="53"/>
       <c r="AT406" s="53"/>
       <c r="AU406" s="53"/>
       <c r="AV406" s="53"/>
@@ -57416,11 +56601,8 @@
       <c r="VQ406" s="53"/>
       <c r="VR406" s="53"/>
       <c r="VS406" s="53"/>
-      <c r="VT406" s="53"/>
-      <c r="VU406" s="53"/>
-      <c r="VV406" s="53"/>
-    </row>
-    <row r="407" spans="1:594" s="61" customFormat="1" ht="15.75" hidden="1">
+    </row>
+    <row r="407" spans="1:591" s="61" customFormat="1" ht="15.75" hidden="1">
       <c r="A407" s="200" t="s">
         <v>1103</v>
       </c>
@@ -57475,8 +56657,8 @@
       <c r="AO407" s="267"/>
       <c r="AP407" s="267"/>
       <c r="AQ407" s="208"/>
-      <c r="AR407" s="267"/>
-      <c r="AS407" s="267"/>
+      <c r="AR407" s="53"/>
+      <c r="AS407" s="53"/>
       <c r="AT407" s="53"/>
       <c r="AU407" s="53"/>
       <c r="AV407" s="53"/>
@@ -58023,11 +57205,8 @@
       <c r="VQ407" s="53"/>
       <c r="VR407" s="53"/>
       <c r="VS407" s="53"/>
-      <c r="VT407" s="53"/>
-      <c r="VU407" s="53"/>
-      <c r="VV407" s="53"/>
-    </row>
-    <row r="408" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="408" spans="1:591" ht="15.75" hidden="1">
       <c r="A408" s="200" t="s">
         <v>1104</v>
       </c>
@@ -58083,10 +57262,8 @@
       <c r="AO408" s="267"/>
       <c r="AP408" s="267"/>
       <c r="AQ408" s="208"/>
-      <c r="AR408" s="267"/>
-      <c r="AS408" s="267"/>
-    </row>
-    <row r="409" spans="1:594" s="61" customFormat="1" ht="15.75" hidden="1">
+    </row>
+    <row r="409" spans="1:591" s="61" customFormat="1" ht="15.75" hidden="1">
       <c r="A409" s="503" t="s">
         <v>1136</v>
       </c>
@@ -58141,8 +57318,8 @@
       <c r="AO409" s="267"/>
       <c r="AP409" s="267"/>
       <c r="AQ409" s="208"/>
-      <c r="AR409" s="267"/>
-      <c r="AS409" s="267"/>
+      <c r="AR409" s="53"/>
+      <c r="AS409" s="53"/>
       <c r="AT409" s="53"/>
       <c r="AU409" s="53"/>
       <c r="AV409" s="53"/>
@@ -58689,11 +57866,8 @@
       <c r="VQ409" s="53"/>
       <c r="VR409" s="53"/>
       <c r="VS409" s="53"/>
-      <c r="VT409" s="53"/>
-      <c r="VU409" s="53"/>
-      <c r="VV409" s="53"/>
-    </row>
-    <row r="410" spans="1:594" s="61" customFormat="1" ht="14.45" hidden="1" customHeight="1">
+    </row>
+    <row r="410" spans="1:591" s="61" customFormat="1" ht="14.45" hidden="1" customHeight="1">
       <c r="A410" s="200" t="s">
         <v>711</v>
       </c>
@@ -58750,8 +57924,8 @@
       <c r="AO410" s="267"/>
       <c r="AP410" s="267"/>
       <c r="AQ410" s="208"/>
-      <c r="AR410" s="267"/>
-      <c r="AS410" s="267"/>
+      <c r="AR410" s="53"/>
+      <c r="AS410" s="53"/>
       <c r="AT410" s="53"/>
       <c r="AU410" s="53"/>
       <c r="AV410" s="53"/>
@@ -59298,11 +58472,8 @@
       <c r="VQ410" s="53"/>
       <c r="VR410" s="53"/>
       <c r="VS410" s="53"/>
-      <c r="VT410" s="53"/>
-      <c r="VU410" s="53"/>
-      <c r="VV410" s="53"/>
-    </row>
-    <row r="411" spans="1:594" s="61" customFormat="1" ht="15.75" hidden="1">
+    </row>
+    <row r="411" spans="1:591" s="61" customFormat="1" ht="15.75" hidden="1">
       <c r="A411" s="200" t="s">
         <v>1105</v>
       </c>
@@ -59357,8 +58528,8 @@
       <c r="AO411" s="267"/>
       <c r="AP411" s="267"/>
       <c r="AQ411" s="279"/>
-      <c r="AR411" s="267"/>
-      <c r="AS411" s="267"/>
+      <c r="AR411" s="53"/>
+      <c r="AS411" s="53"/>
       <c r="AT411" s="53"/>
       <c r="AU411" s="53"/>
       <c r="AV411" s="53"/>
@@ -59905,11 +59076,8 @@
       <c r="VQ411" s="53"/>
       <c r="VR411" s="53"/>
       <c r="VS411" s="53"/>
-      <c r="VT411" s="53"/>
-      <c r="VU411" s="53"/>
-      <c r="VV411" s="53"/>
-    </row>
-    <row r="412" spans="1:594" s="61" customFormat="1" ht="15.75" hidden="1">
+    </row>
+    <row r="412" spans="1:591" s="61" customFormat="1" ht="15.75" hidden="1">
       <c r="A412" s="200" t="s">
         <v>1106</v>
       </c>
@@ -59964,8 +59132,8 @@
       <c r="AO412" s="267"/>
       <c r="AP412" s="267"/>
       <c r="AQ412" s="208"/>
-      <c r="AR412" s="267"/>
-      <c r="AS412" s="267"/>
+      <c r="AR412" s="53"/>
+      <c r="AS412" s="53"/>
       <c r="AT412" s="53"/>
       <c r="AU412" s="53"/>
       <c r="AV412" s="53"/>
@@ -60512,11 +59680,8 @@
       <c r="VQ412" s="53"/>
       <c r="VR412" s="53"/>
       <c r="VS412" s="53"/>
-      <c r="VT412" s="53"/>
-      <c r="VU412" s="53"/>
-      <c r="VV412" s="53"/>
-    </row>
-    <row r="413" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="413" spans="1:591" ht="15.75" hidden="1">
       <c r="A413" s="270" t="s">
         <v>1107</v>
       </c>
@@ -60570,10 +59735,8 @@
       <c r="AO413" s="278"/>
       <c r="AP413" s="278"/>
       <c r="AQ413" s="279"/>
-      <c r="AR413" s="278"/>
-      <c r="AS413" s="278"/>
-    </row>
-    <row r="414" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="414" spans="1:591" ht="15.75" hidden="1">
       <c r="A414" s="270" t="s">
         <v>1108</v>
       </c>
@@ -60627,10 +59790,8 @@
       <c r="AO414" s="278"/>
       <c r="AP414" s="278"/>
       <c r="AQ414" s="279"/>
-      <c r="AR414" s="278"/>
-      <c r="AS414" s="278"/>
-    </row>
-    <row r="415" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="415" spans="1:591" ht="15.75" hidden="1">
       <c r="A415" s="270" t="s">
         <v>1109</v>
       </c>
@@ -60684,10 +59845,8 @@
       <c r="AO415" s="278"/>
       <c r="AP415" s="278"/>
       <c r="AQ415" s="279"/>
-      <c r="AR415" s="278"/>
-      <c r="AS415" s="278"/>
-    </row>
-    <row r="416" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="416" spans="1:591" ht="15.75" hidden="1">
       <c r="A416" s="270" t="s">
         <v>1111</v>
       </c>
@@ -60741,10 +59900,8 @@
       <c r="AO416" s="278"/>
       <c r="AP416" s="278"/>
       <c r="AQ416" s="279"/>
-      <c r="AR416" s="278"/>
-      <c r="AS416" s="278"/>
-    </row>
-    <row r="417" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="417" spans="1:591" ht="15.75" hidden="1">
       <c r="A417" s="270" t="s">
         <v>1110</v>
       </c>
@@ -60798,10 +59955,8 @@
       <c r="AO417" s="278"/>
       <c r="AP417" s="278"/>
       <c r="AQ417" s="279"/>
-      <c r="AR417" s="278"/>
-      <c r="AS417" s="278"/>
-    </row>
-    <row r="418" spans="1:594" ht="15.6" hidden="1" customHeight="1">
+    </row>
+    <row r="418" spans="1:591" ht="15.6" hidden="1" customHeight="1">
       <c r="A418" s="270" t="s">
         <v>1112</v>
       </c>
@@ -60855,10 +60010,8 @@
       <c r="AO418" s="278"/>
       <c r="AP418" s="278"/>
       <c r="AQ418" s="279"/>
-      <c r="AR418" s="278"/>
-      <c r="AS418" s="278"/>
-    </row>
-    <row r="419" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="419" spans="1:591" ht="15.75" hidden="1">
       <c r="A419" s="270" t="s">
         <v>1113</v>
       </c>
@@ -60912,10 +60065,8 @@
       <c r="AO419" s="278"/>
       <c r="AP419" s="278"/>
       <c r="AQ419" s="279"/>
-      <c r="AR419" s="278"/>
-      <c r="AS419" s="278"/>
-    </row>
-    <row r="420" spans="1:594" ht="15" hidden="1" customHeight="1">
+    </row>
+    <row r="420" spans="1:591" ht="15" hidden="1" customHeight="1">
       <c r="A420" s="270" t="s">
         <v>1114</v>
       </c>
@@ -60969,10 +60120,8 @@
       <c r="AO420" s="278"/>
       <c r="AP420" s="278"/>
       <c r="AQ420" s="279"/>
-      <c r="AR420" s="278"/>
-      <c r="AS420" s="278"/>
-    </row>
-    <row r="421" spans="1:594" ht="11.45" hidden="1" customHeight="1" thickBot="1">
+    </row>
+    <row r="421" spans="1:591" ht="11.45" hidden="1" customHeight="1" thickBot="1">
       <c r="A421" s="270" t="s">
         <v>1115</v>
       </c>
@@ -61026,10 +60175,8 @@
       <c r="AO421" s="278"/>
       <c r="AP421" s="278"/>
       <c r="AQ421" s="279"/>
-      <c r="AR421" s="278"/>
-      <c r="AS421" s="278"/>
-    </row>
-    <row r="422" spans="1:594" ht="16.5" hidden="1" thickBot="1">
+    </row>
+    <row r="422" spans="1:591" ht="16.5" hidden="1" thickBot="1">
       <c r="A422" s="187" t="s">
         <v>1002</v>
       </c>
@@ -61076,10 +60223,8 @@
       <c r="AO422" s="79"/>
       <c r="AP422" s="79"/>
       <c r="AQ422" s="208"/>
-      <c r="AR422" s="79"/>
-      <c r="AS422" s="79"/>
-    </row>
-    <row r="423" spans="1:594" s="61" customFormat="1" ht="15.75" hidden="1">
+    </row>
+    <row r="423" spans="1:591" s="61" customFormat="1" ht="15.75" hidden="1">
       <c r="A423" s="200" t="s">
         <v>1004</v>
       </c>
@@ -61132,8 +60277,8 @@
       <c r="AO423" s="267"/>
       <c r="AP423" s="267"/>
       <c r="AQ423" s="208"/>
-      <c r="AR423" s="267"/>
-      <c r="AS423" s="267"/>
+      <c r="AR423" s="53"/>
+      <c r="AS423" s="53"/>
       <c r="AT423" s="53"/>
       <c r="AU423" s="53"/>
       <c r="AV423" s="53"/>
@@ -61680,11 +60825,8 @@
       <c r="VQ423" s="53"/>
       <c r="VR423" s="53"/>
       <c r="VS423" s="53"/>
-      <c r="VT423" s="53"/>
-      <c r="VU423" s="53"/>
-      <c r="VV423" s="53"/>
-    </row>
-    <row r="424" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="424" spans="1:591" ht="15.75" hidden="1">
       <c r="A424" s="187" t="s">
         <v>1009</v>
       </c>
@@ -61724,10 +60866,8 @@
       <c r="AO424" s="79"/>
       <c r="AP424" s="79"/>
       <c r="AQ424" s="208"/>
-      <c r="AR424" s="79"/>
-      <c r="AS424" s="79"/>
-    </row>
-    <row r="425" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="425" spans="1:591" ht="15.75" hidden="1">
       <c r="A425" s="187" t="s">
         <v>1013</v>
       </c>
@@ -61770,10 +60910,8 @@
       <c r="AO425" s="79"/>
       <c r="AP425" s="79"/>
       <c r="AQ425" s="208"/>
-      <c r="AR425" s="79"/>
-      <c r="AS425" s="79"/>
-    </row>
-    <row r="426" spans="1:594" ht="15.75" hidden="1">
+    </row>
+    <row r="426" spans="1:591" ht="15.75" hidden="1">
       <c r="A426" s="187" t="s">
         <v>1014</v>
       </c>
@@ -61816,10 +60954,8 @@
       <c r="AO426" s="79"/>
       <c r="AP426" s="79"/>
       <c r="AQ426" s="208"/>
-      <c r="AR426" s="79"/>
-      <c r="AS426" s="79"/>
-    </row>
-    <row r="427" spans="1:594" ht="23.45" hidden="1" customHeight="1" thickBot="1">
+    </row>
+    <row r="427" spans="1:591" ht="23.45" hidden="1" customHeight="1" thickBot="1">
       <c r="A427" s="201" t="s">
         <v>1015</v>
       </c>
@@ -61873,10 +61009,8 @@
       <c r="AO427" s="268"/>
       <c r="AP427" s="268"/>
       <c r="AQ427" s="209"/>
-      <c r="AR427" s="268"/>
-      <c r="AS427" s="268"/>
-    </row>
-    <row r="428" spans="1:594" ht="23.45" hidden="1" customHeight="1" thickBot="1">
+    </row>
+    <row r="428" spans="1:591" ht="23.45" hidden="1" customHeight="1" thickBot="1">
       <c r="A428" s="551" t="s">
         <v>1233</v>
       </c>
@@ -61930,10 +61064,8 @@
       <c r="AO428" s="559"/>
       <c r="AP428" s="559"/>
       <c r="AQ428" s="560"/>
-      <c r="AR428" s="559"/>
-      <c r="AS428" s="559"/>
-    </row>
-    <row r="429" spans="1:594" ht="15.75" hidden="1" thickBot="1">
+    </row>
+    <row r="429" spans="1:591" ht="15.75" hidden="1" thickBot="1">
       <c r="A429" s="298" t="s">
         <v>1181</v>
       </c>
@@ -61991,10 +61123,8 @@
       <c r="AO429" s="578"/>
       <c r="AP429" s="578"/>
       <c r="AQ429" s="297"/>
-      <c r="AR429" s="578"/>
-      <c r="AS429" s="578"/>
-    </row>
-    <row r="430" spans="1:594">
+    </row>
+    <row r="430" spans="1:591">
       <c r="A430" s="62"/>
       <c r="B430" s="62"/>
       <c r="C430" s="62"/>
@@ -62038,12 +61168,10 @@
       <c r="AO430" s="64"/>
       <c r="AP430" s="64"/>
       <c r="AQ430" s="64"/>
-      <c r="AR430" s="64"/>
-      <c r="AS430" s="64"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS429">
-    <filterColumn colId="40">
+  <autoFilter ref="A1:AT429">
+    <filterColumn colId="45">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
